--- a/DATA/네이버 쇼핑.xlsx
+++ b/DATA/네이버 쇼핑.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
@@ -30,271 +30,268 @@
     <x:t>가격</x:t>
   </x:si>
   <x:si>
-    <x:t>프리플로우 Vuti27F18PQ QHD Fast IPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=9SlP/lXdb9xp2SOhegF8qP///w==k1y0uKZ1v07NP/uKJZADs820jsgiwf7XFkHqw+DZ/8v6IY/+VpxEjihfpwIUS/fdW34qVUH+egii0H118ngLxIrwr1Ksnxug8f6H2OVcKVr7Q0aX3TmWNGS1TWer8erZ+Yy4j5Sc+QWuLLsfAa60kCp7XJ5aRq3wdhOK6Q0pcLZ8w97aeuM9lgZMWTt8JIqpIDVdTVs01MadmJAh0X0PZX/Ni+SV4m/IVnIvwzPmRIkM/+iUHvY/8/nh94myeHIHJIHwB+StgwlL7QrbDx9fbZ7acSO5Qy5wVaB/7T3bvr6EDpe77oH5Xelg+xxzPwKc6OhNuyGQapDmAoshyJdutfccFZOWSRYeOzWSumf/Jiuqj2D09wXZaKjMlRcGT/ukdGcyypksyhiYjJfvRwyf0LX6KFqR3LkTR9NsNbH9g70sRVCnDjAMabgpR101AQ1yIK2qpH7FWOPlW/LMAyDl78bgdzbh2XgDpCB5+/bmdyITdzFJoISmxpE6g2bv+cKu5zp4zcdGQkcxfcnGI1tc0kNEz5n9zSLlUEnZqs8P1+MpFDFS9YYXn90qfErNPHY105QL4ncu0aXjPdkZnAvd0shGAvi3oQyfbclrTxMo3+s4X6oRD0980J4DRJQTAMkd6QEkliEW5jQ8BKwotS9qq1zjtAyTLMZqOiGz+XbXlut/UWwSiMN+cjncyMt6+wAjbjnNYnw7i16bexxNFg3kV8OWWiLymqsjC5uWyWBz4v5oXzebQj1n+BAYZvYVKlZoc0bYASddqQeWCiTO83hkW/4EKc/BO3GqkVwRKrYGiSeI=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 울트라기어 게이밍모니터 27GS50F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=Vo7C/i1mzfRHIVWdPF2UE////w==ktn2cy7qz5pjmsLrMpZY9yqvp87S+K2/QgfoiWPKOtcYRA05JkPRnZbwiXj8iQFrIcXeu8SW84zubzCpfYXcUvb8U0zsvbtP3D4SXHiqAcmCx892MOv/0OAXBS0OFvjQd4WDfKCkhnaF08UlDYMTciD/mXkWo+tBnNTmX6On8POtWTiEP9cvkJjK70UprKri/+ADx7oJzURMFJbDwDuiBHx4+Pjhd+hPusiAQEJTjBzn3TfKkr3bQESyj73k8gLlK2OEopuuj4TR5/w2v6fjZ+rqi9/Ju56baJzSpVViuz2+ssB3oB3zmfrZkoKBXBEMjdsXXYi5N3/MYYXU1LovpEjKzt5yi370oMd8CkHvzv+dvPI0DL0qjf9eKV06cK2blN4Mzw/8HKUGepTyhzw0TfM9Mvq1z16a8xO1/KG9SzJZ97e4sXGIEoGkMjo9e+IAG4D8adLSiEaQ0IcyebYMlWsaMIEC+kT34ynlKiDmTiyqqoLKK+a1zFLgscGBYSSbX1DEheXTnYHNmoKOtmTgosfHchyYuQkY92DTeoTOO4KqyyPj3lMWin8MAgExXsFQKbVUgtM+Wi8byEwKVlEBH/Za7zkng+kr39gScC7blwdOvVPaSYXTYKDjhL96+Cn8rASxL+I2mpOKqjmgYhhRXNzKTU3d5uPwk9h47pXnAZ+cpBlM3YMswX557V4fFjLdU9wpud9JV+eQtUNihMXxIWCTz1v37bmh0WGNzvgR22Sx3atxVJ5wCtI/jrGuCsECzkBYL5BI2dNtaHyx6+roPzJmDA5TXyinnw0L0QluxBwNHLiPI350x+R81Stvrx196b8bq7GDMuCA4Rt1YSPqFQEglFkg5LN8EJqF6gw/dIvU=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG27Q24P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=8stgUckIEF2RjzYBUfezi////w==k1y0uKZ1v07NP/uKJZADs893TkqN17THNNDrzzpw2jfHJTcrehEXIMehp+UjwcgdzemN6wtkGqoXNHpp40vIdUHcznOec3yf3sX1UB1jU/ICEBjCBK8RCLtVaelK5eVOl1DJhugHUlQJ9eYqXuwzLdadFJCQ9/GPVmK9P1kX4kgUe/yxokg2gBO3PWm+8TgXOqBPlgwfrFuadAfvayvsRd1E7AjeKOElvB9ItThNvfCAJ8rrIGttwzYgNsg0OOcUfPreC/bvNusXyiF/7Ibo9Q6dgY4Fxaw6aZv0o6e4S41YSLUvJI6hGFxzjGyBWsYhprv7X/pnoNE4MIQVHEs380qQ/ze0s1hdm0MAcMr1qEk+uBzzyUQAhgGekEAhDxZ+d3q7eLq/gqjT3uVcFfCV3GUVXv60x2Zql/euP4sOp10MFpG4uzAUu1L39UKr2aia+OgPPVx4X4AMMhhhWA6F5HYDtHaqUo4vXOG50ixKnsz7bKzEg4L3naJ/EqmuIE+rhsdmvixWFFVe9V7EINenrlb8WnH/flE0EfVkmmlIOFHpzkr3cWEqfKx4lMjR2Bt0NRxS4hW/i7G0rPy6HnDiKoblReiLG0pZJLEMf7knQZYBIW/3VBHqomNpfxk2UamFUbu3YWIcrT2nK3wUTLeApSdlCJfbreGjO/rWMaqOu3hGzo80RrBtzsQmxV3dsihqwl/Rm3MDOwO7rgNfB39G6qN1fSh1OZARZV/AKl5QiQQokVVb2h20CV2CgIjwllqWt8zpSIYo9BGeQtebT3GgwkA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 울트라와이드 모니터 34WP500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=99hXcEMN5UXVs0cFa4c9h////w==km8PbUDTDsUGDrXD0CepDboth6MBykRnJhOMFdF/KWEieBVhCgIbmQ67BIQWnlXD/94oI2uWASqsLA1cR/rFfOnORue8mk7ieM7BDLWjsKcCaVB/OizBcgbHDg/MxcWfYGXTL7G/1mlkWetqUkvHSd049W0SLEPJZd4xDJO/5LLj0ur5jOWV59ZGsxcTazbShC/GgA0inKw7PUGelxqt8HhiVzHNc+i/w/TRn7wFby0X+HWOU2cbGw4eY78+fdSCcFUB5euoFADFL0iYymHEfBZ+XcO7LERDFJQOZq8BXnWFmCVLrOiy63w+9IXU1lD3NMARkyVdSW4+RqzoUpT967Pt2UPpula4ltiS+IjH0Q5NB+DLpHGU9UpBr1VYrgN4OegMBL8qluUhy5GFQcLzWkkZCQwXXdviOg0DhyVcTmaBYvgMJxhZpuaPF1S6zgndZ0tHIcZoyypyfT9bNSuix1wv24U4UvtJqN+x6HQZz87n+rmrXCknA190IkVQKoWVraqozQ6I0N4av0nF0CzfNFnUnIWBheC2NJzv7LE360k0M+t3yUOrtfghzqvFhdxbsLxSF1lmszNkfPkkGkBrYlz/KovB84DO433xqbMN6LU3qStGGHvcgMO3nQP77gFxzwK7uNwdilGX87viuwttDvkRqQpkmuXpkSxhCMghYyKDeMrPlFAjfgG3o2GE+eoISADfZ6R3J5BKmjwDoaPwmLnCBXkW4U6RbCAqk085LZoPBI0MQ64UV9z4VXHW1xa77ijHCdsCQxTahCYsIa9vET/qKibxp2NhiuCjW1M05jFyCcpWdUutPcnULZXNvKWNlgUwvcAN24Ya1dNQp+FTajwyE23oQ1LAgtHh+WUnk0gI=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G3 S32AG320 165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=8RcxAqmE5jJvD30jsP5ktf%2F%2F%2Fw%3D%3DsEmfWeSQNChKYmqiSnPzFFVxoM7Ft5MKHmE93xePQ4Tr6D9Doef8fQXU6eDjUh3hFofBj2yZZNQkJP%2B%2BPvtIK0vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKWlEVh8uzM7IPPFrbOQxsyZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYMlXftOOWHbxfoBPnVNTbb53o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9kYfe0vcDKLLnnoLp1%2B%2FA2ai6UxJeah0Om0lkIOZtT9ZIqYMl3hxA2gDa1WUrPqQfgOD%2Bqft1o3wb1fLGqIbZfCLuyhUYb3VXENZjLt59b%2BWAk3bosNSOuuAMDFM0J%2BsQePNRouOLVBR9bkVCm5wEj0Hs3T4qzSBIVN2HAysFdoOSyRf%2B5gtdhBGwUiPnltDYJROBZLzrcycw31WVXx1%2BAQYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=31249283618&amp;catId=50000153</x:t>
+    <x:t>샤오미 게이밍 모니터 와이드 G34WQi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=3KW17QuzpFR2tytfrxPLMP///w==k8R+UFbJXzHWi7VnVwYM/BwZarKhTDNggBsvj4DRigQLK8xdMJbJnOdJZwoGsRFcaZ4mxMh+mDZ+NO9c27e9Q1h2u3uXIFqQOi0dm2Ry/CfsCz/3IcJ0q5s+X0QXNTkVVE4fxi6FpgCZITzsa7vCKRJos4tRQmVRuxDDZh+437gRkxwc2zQV4gMyfWBrShIBYzFQyJ8TBp4tl/p7s79yxWbcQ43vleE376HEyf3ni/DxdpayOe2SGZ57S5vNVaeStkLHKWzWmTO26mcad0bf6r1LA8+BOQH9Kq8avsckzvuzZAqXOuZWJTdZzxG1v7HnkCgZgIgI34lXoGA70ZSEpDKhXarSYXqxa5B9g1ME0pATAh3p6bcgQn6hRKRBGJ+B9Vl/ovylqeJRoSCRETg59sFmiptXO8Mtz/jKvhMSzaJq/VrLgdHI1oV5l+g0MCyucDsNy0zr/BQYDFneL2W0AJ9TS8TSVyEzq/8UYfuwpaPE81jQcDVgO1yw2rcVhxzzigLkZuJQFyVlmih6cqYdTatpSmEp2RyDb/HYQiIFZQvgjmi2kxvEhmZ+2G93QwJxj91/K7yAqnK6TLfof2GkoXAFaT5hrBBqrTKLwzQMiiIOuIrIsw/Jh8qbdfbG7LBsFToyZQHWNkPPSQrG/CGLMfFKZ8wf7WRo7n8wrOqRxskTpaZSgluuqogruEu76lDhDgoJ46hwi6g9kE2LsuZ6u+KhsHfpX5cdw2+XJzHDB/SNxvyHU2+q59oiPmrR0Dpj3TVd4BCGRl1UcSLgFwPNG7O5qe896oBG/TFBTFxvNEzg7WZ85dY++TZuWMYda8gGKZeExZPjKLxlJdlSSJUrXJifNIwcYsDDKAuJvAFegX/VhnDhwYLmNvYwwcogAKfeu2q0uWp9GO/60gc12kKdrVQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 뷰피니티 S7 S32D701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=oszpwuwbH61VEw5m++Rt+f///w==k1JZ24UT7IB5uNjee7kjquhxiWz1VOkgpm26cYfTD5WAAUYgq9rI9dNwcw6G2TWBd0zUUiPSPAAV/6T4lAghOmldLnj7nyg3ljJrKvv+AI+TV02OeL4r7FTvll1eBAnHsQjHpmxbxJbTS7o5L7mK9VkkLj1iQdFcKDeLIIrSzkJgEDDkgCT6i+tJzZvZP23SgS/KfyrvwaPvWMuXNIez1oHwdDipLTAFBAW5cYxiSL5pjxuwK83K9mCKiNiJypdz4G46Lb02VnSfs157DMnkuLFjxv8gPsn19J5PNL+mc3qLhZR7o2WL10/BoO3YGHlAwZZuZJsPnZThpdR6dy7UYxcgsE8XBDi4/9tYmLbBR6fiRxviY/78++VUWOEAo16llB3GK9iDry0leAcM0tENYMRO5W0rytGh+VkXOK+dR4HRKwrZ4mU6fZRxOI+CZj5eC2vDv3Z78XjTxseR1Eg1Sa3r/Oo0YJ9e3NthFR1NBYMaLyVhmzXpzCxpvsp+dKma8qEt7f4q78JM1xZdK+LfgRN1q7g+nz+dfnWh2eASDz9ofR23mRVzsi5CA8UCTX8oK0Ruu23iVoDF7vKwSsc83ZAiMiJy6IMvhMQ/CXYY2pmlXN3cpXCdqFqNiD3CSMnhu1xjP8P6mU9M+Y563QgdP96pQBhX/vz+l0b4N7jaw6ojK3vjPk3HRVl7/nb/1zeX/yclfs3s0Qyn5/0Sn8NwFltvlDauEpEI2UNSes7P4kU30wynjqJRIraQNQT+RYQBC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32QN650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=JeUS0bs8L%2FNwwU5WGAXdQv%2F%2F%2Fw%3D%3DsEJczMYs99dt1xYftJNfX59FroiCu7v59%2Bsmr%2F5HT6n9Q3qrx3p0MRIb3ekawSdvJUlifK5X7Y4EURR72zKcfYHoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLvWRU0%2FSf5flL335cSfN%2B9SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJUJr%2Fid%2Bc6RPwn1fPjWJxQ5EySXFyzNZOReUIHBpVKGn1QQzCLreNp8sjPDBjStix6CbRtcpFpZVJDd8h1lQe%2BKKclg0SBPCsdWoy4XdB8sJFiBdPxTSuvYOb67FAYBAGk7IIKbC9L2zzA7QT5G4BCcNQg3Yq6Ylx7b%2FrlGy3XKDUGoSdEN386lj6mD6lv80zlMveu5pUmt5mX6mUy4ug6raT4EFAQaG8SmWs6FWkCIZWfza4IbIQ96XHa3kFgh6NXyPYrgWhQJIGHwmxoW9GKkHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=23692201495&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=fJxCg1r6OE7K34pC01kiXv%2F%2F%2Fw%3D%3DsEROH3kJoIMf3CB8cqaWc0WyAhUoNhaGJr%2BsUZ3ztBuL6D9Doef8fQXU6eDjUh3hFSjwosI6xZuy5ZvGI7gJgh56ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKsfbl3KGs4%2BDFeAFl5q6KU5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8YTfwMhfPfGWdkw3OeZ5Qt2KrtzG55UyatUl8IJ94DExcNZN5FF46Jqg7fDWNj5CaNZsIH1CeOBchBOud%2FdRS2NWC%2BxB1IkWmLpmqcnj%2B5%2F7eEFH%2Fg6TFdoW813QiPxgNaAZETl4RKs1Fv774T0wQGD03CHXhJ90DsA8t1KaNamdCBK5UIH4X0WfIdYdnLBV35h5Py00ZP8HSnfNJaBQUe37%2BKWJMFenuTz8OqHtJ%2FQD0IwPorYPnGdawldFjqjeXyhBZTRceoC2KtneKyL59wh0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=27535066522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32MN500MW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=fHpoaJD5h1ynT92f%2FppCdf%2F%2F%2Fw%3D%3Ds%2B0Qr92l8cr4%2F6U%2ByVFvVHNyVtj%2FWZFoTAXgIQGuKzJv6D9Doef8fQXU6eDjUh3hF3bz18SiLnw1SbdH%2FX7TW%2Bp6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKiRyYS8prm%2Bjaw4L8QoAnk5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8lUSRYZd6qCVof%2BHqpynKaqcOCNHynUKOmQhMCcXzDF5cNZN5FF46Jqg7fDWNj5CaNyyNzVkdWXESAP6nYU%2BQE8fuxT0uoGY1wy4veFR6jMbTENqwOcChr7pVDQBxYAV7Bl8p9IqS07%2FunjN37P%2BAMLKHULBFwaApMjsVr%2BJOmv9RlURyWDEucKuXSe%2FE6N1SwtIYh35n85gCNF9XAudNivSpj72u56XCWCDQAt7rxzhhPL%2FMosMDDF3N52eBasNSRXIDD28jsR%2FCfMRJwOD5GQau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=22764052560&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=YS%2FrqRmBokHTF8LTt%2B8TU%2F%2F%2F%2Fw%3D%3DsNG6x9sVKmGkfbwdsKZrTbE9ANXq0z5KbndR6W1zoJXX6D9Doef8fQXU6eDjUh3hFFa7gwdbCRMLVhg5E8Nyqs56ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK7UgVakcvYnJL8a%2B%2FTtLoWZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8hvUM06WJWmr3Itx5FsKcyX%2BzYQvrqJyx3ILnu68dR%2BRcNZN5FF46Jqg7fDWNj5CahWKHg4nBHdJfp1Rs1JwBut%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6htAzIPpYQUH%2B5G2Q4EEtZfj03CHXhJ90DsA8t1KaName0WRf1ZzSDrJsiBse%2Fb2q3uu6hWTQwEWHGZEUDU8GMKZ9wH9uCiVcd7ecKFYxkBpeIa1nAL%2Br7ggJCW9UqaM9nR7RBQBjJ%2BBDlGX%2BiUm5ZYB0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=31889649618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 24인치 컴퓨터모니터 IPS 슬림베젤 75Hz LS24C310EA 가정용 사무용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Hiu%2FDooQM7Lrotic7k%2BC2f%2F%2F%2Fw%3D%3Dsa9nBXoDPgQU6b4v1wAg89cW1LSt6UKJ6qXGhEqBAjfFQ3qrx3p0MRIb3ekawSdvJsFySrN2VkbYKpviW3bAc9noevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zES%2BortKzfQDWBF5GV%2FKfqEhJv3ljJo79VVIpj6%2Fm3WOQBWreUL4qv183sfBO4hV8V6203EERWQRU3Yd3D%2BuKWCrCRdUxvA177jl0VodmokhNUJnit2TyE8yh3GxJ0fiPD%2BIfauSoUcCRfoKhhJM9kphFIfROEVEx8T1hdgtEgSex72P1MzfeDsyK%2BcBtz34gApaSpp6ITLOsgwoeGqSEzgoxYbMKnoI3rpfz7SYtcB%2F8SkB%2BknoxsYws2VwEIiLC7vhPC49atlF0IIrHq0YTofNrqijFSJ08saSbkMy9yBb1L5j2F9GBn%2Bk%2BO6vBkvmW31jyXN6006Rf5vPPI54rg6fkaZv0%2BABrCuitoWOSWQBFVb%2FqNBEOYguwj%2FmeB%2FMyp4tYCovOwNopFPV1Nc87Wob%2FS7ZQE1g5RPw%2BvWz5%2B9VLNvyrLpJkckr6ve7Tm9TM57gBcukyrDA%2B%2B4GYQ3t0yJtr229yrS6CmgoQVUZWz6HyxN7sowf3bBszTOFNQxvCQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=84111077002&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 32UP830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TWd5wbKg1YPl2mEeimOaJ%2F%2F%2F%2Fw%3D%3Ds%2BL%2BnuIrfA6OvSQiNOHImiX3nO9k5MfM2v460DjFPksn6D9Doef8fQXU6eDjUh3hFeyfm4ClnKLsYTni1Jp8Yap6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKthHgQeaUJOZSAZP9htt6bJnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8lUSRYZd6qCVof%2BHqpynKatxDwBhs977U%2FfmHmagK9mdcNZN5FF46Jqg7fDWNj5CaqYU0PHyZaXRsnDv%2Bga2BMu7Ps88QvLGtE%2FDBhKM1akXTENqwOcChr7pVDQBxYAV7oAsdoojiwV5W7I%2Fwb35OumI%2BJmofe6L3%2FRufn%2BPq%2B18b1dIdetgHYV%2FgDMLIrO9NUTeuJgZvRvEK7gZCw3B0%2BrJtHHVOcBA6MAX1qAlG3IWSy4jIMyXcXzqAWzDBWdqpb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=41322139619&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MN430HW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=eilCWyJ%2F%2FHY4laYs%2FSvi5%2F%2F%2F%2Fw%3D%3DsFZ1hB0rD9JxDwFfwfpIo0RFbu4YsBdQPkKLfDgCw8EP6D9Doef8fQXU6eDjUh3hFDcrUb41DXest1O4Zb2Rt5Z6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKjCCTdom6vPnP2BjyPEMwTJnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8FTWMDctcr%2FHcxtc4sTYVDCAsgVwvIjIbzbU5Ikruo4BcNZN5FF46Jqg7fDWNj5CarcLZgee97BGvx144%2FCGk%2BiH4EroWuigLrY0i%2FSNW%2BHb3l7letkN68WEvdrUNJeA7V1g1JzNLJzLnjvtm7Foe%2BTAzko4YyCwGJOwY%2BlpaxjsCeQnwX5KS%2FBb2Y0VGHvRowtIYh35n85gCNF9XAudNiv0%2FXEcaW9CAkCD4CGdsqrM9mJOoANc5xT8fl584yaTdnLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23301354490&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24ML600SW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=GCdbuYjbGThPqn9%2BJb8kMP%2F%2F%2Fw%3D%3Ds43phd7ZiWwIaIaUEuRSNZCmpyD%2F%2FEdqOW9QML2eeZrb6D9Doef8fQXU6eDjUh3hFGkglUczw6X1pVfebRm4uf56ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKg4mWlReklrWoWmTI5%2FhmNZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8vBWH2sg0jvnEv29%2BarIrVm0Z9kxymieag16kIMsSbkpcNZN5FF46Jqg7fDWNj5CapNCcqSU%2Bvvpwf0gVtzt0Osgs3BaXVlsw2Amqhq7d0vhzG68pAsQhy8H4tIKe63ANARfNUDBfRmhl0Joj%2F0wSsxFOWB78FunwXbypeP88wUeO%2Byv0ZN%2FbYE2kHwiNCB%2FiwtIYh35n85gCNF9XAudNirSGO7WtzQiS7AuYBFVphXX2qGSo2ZXYJd5ZILaW%2FvRBF6HMxts570alTd60dovoCgau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=19105796246&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=KZCkPu4uB0xT1oSWFOrcmP%2F%2F%2Fw%3D%3DsZtRYUQm%2BZ8qzn8Vc33Rz7bstJmSUces3mb5OyhPxOID6D9Doef8fQXU6eDjUh3hFuE9tcrFiPZaGAG1rZHLAH56ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK77CMbNkSJqTT3mZeXtMZJpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8gQMICPr3mHFuqLW%2FA%2BIJQrYeZQ65UUaN7LWPVV4vuE9cNZN5FF46Jqg7fDWNj5CaJZrAtirMkGRJsntj6JzyDbFJegG5cjolqXymF9sHTJD3l7letkN68WEvdrUNJeA7VZpnLVfmTWW4GB%2BJuxdUc%2BEASBFj5uLMhEoasbe6w1aGE5QOIMgDC2Y2%2F6EpnNIEUTeuJgZvRvEK7gZCw3B0%2BlPX9FXH%2F33ot8iU6YDev6QQijMG5FAsiHRrWuVdiqpXb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=29060355587&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M5 S32CM501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9giLa3Lb8ynBE3y6EKl%2F3v%2F%2F%2Fw%3D%3DsbgdjRIpJ3n9BD9SmQ3vFUGGCiwQP5wt0RMo%2B9RMY1QH6D9Doef8fQXU6eDjUh3hFcpBq7JkvBWgAXXqDrhvSxJ6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKH986K5g%2FJZUocYvv97Z8LpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8WS0nsoyrUWoTsJT%2Fx0W%2B03dmyJsn%2Ffw9TgvVK8Go9TdcNZN5FF46Jqg7fDWNj5Cabny2kWa95kJknf90VCVXQN%2FxAgg4ef62WIJT1K%2BzOB4EndS7cs4gZNMbyHV0aqpHRmVeNYN7zrJaIu4BP3DXKj03CHXhJ90DsA8t1KaNamfiOUAnSuIemWfZ5jPaD7d%2B5h5Py00ZP8HSnfNJaBQUe%2F2GKYTH0ob%2BmFCGDQHsmGzx1B6QY3JjhByxKpm5wm0lw1iib6xLR37PT%2Fi6Zl%2FUFoKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39344402618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 C32G54T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MZm8aMjPGGzyT6lCZrERT%2F%2F%2F%2Fw%3D%3DsGKEjKn3X5z72wTP4MnwvZl%2FfyNd6EUQDn4XBGz9i9tbkEFD9EqEzeuo8lvy6ZeyvMQb4fTYU90c5x01H%2B5Tv%2BgBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjMXYkRfyuYyIGWXk%2FeC7sSSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEpHdnFex0A4OqIJWm8j8mMcWgoIKsc0pNBM1PfaxgJex3qpkT1UPKI2pRTQ7HkIG9ktb9Zetkl2wYzLXk4EcDf7C6UxJeah0Om0lkIOZtT9ZJMU0Uso2mT0tJ9ynewSoL%2FlZWj7bnQzAMa%2F209oga1qFom%2FbFqVxPoagldNQrY1h72cGOfxCTLp%2BuOtSJU8sZIUTeuJgZvRvEK7gZCw3B0%2BuFjpDA3qWdjYSfNsO2C8YLduxgENoGPrZd20d5nRBcaY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23896004523&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 2460G PLUS 리얼 144 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=VjVkrgOeqW9FkfMn8%2FblG%2F%2F%2F%2Fw%3D%3Dse6K6UrcbG32V0K07r4TwMMB3DBOyqrDL1qULPyUmUZDkEFD9EqEzeuo8lvy6ZeyvQswGU%2BzdFNor19dQX57M4wBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKLEU00i1JulGcGSrV3w%2FPWPFr7mJ%2Fmu8HpI1vaXfXQTDykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEpxBAaf9HE2GQfLMrzTCcYyDGLU6s9nfQJSwdauULeBezqpkT1UPKI2pRTQ7HkIG9kP0KYy0y2MHhyUrP1ACjK4y6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmLxE9fbs0GBcHys9rFFZ3EiyHTSOmJSDJzXDG154bbdWkEB08dtuqWbsTPGbr93OgaRc%2FaoBGn4kGDDGnhVaqCyDLv3oJG7hu5Gdmwk7TsgeIDf9TYDOC4LzgCehLsur5OQA6HgnY78SHou304ocKhILaOrMDTTUCxqRZ%2BWMS9%2BpXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=32237923620&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MR400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=8Rro6VC6cE6TQ4upI4ugnv%2F%2F%2Fw%3D%3DsikUPAL1TAOJztTlYl%2F%2FMggnD9ebMdc3iQdYq4%2F8x6eZQ3qrx3p0MRIb3ekawSdvJjgCvfEyUedm8ef0dkKMJyHoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLs9InKQTQITraJ2U848oPrSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJ%2Fuu9%2FSPzleLoLw7R3Ll2l4sDtcQd6a6WkxeS7R6Wghj1QQzCLreNp8sjPDBjStixidanLxi167sF%2Fu8l%2FdW%2Brtn7pn%2BhScjrpiXpKU%2BpCbNFiBdPxTSuvYOb67FAYBAGWyezuwGPtDzENfQJBQJ2%2FvTxfiek16hN2sz48Q67nsSRpgGsrfNifDS18xqwAzLJlMveu5pUmt5mX6mUy4ug6o14eVy460%2FP8lxdVIXYruN1jFyKJdXYohiQXWfebFz%2FE3mzKL1p6twWjsOt5KklAB0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=44229881618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI G274F 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ERY7FdKSkNlqgLLWdxYVOv%2F%2F%2Fw%3D%3DswRG9oB5zAczJvuuVVGJJDi3roGnUkbsLN74GUIVPfJ1Q3qrx3p0MRIb3ekawSdvJlubBTn10cVbOn3KP8RR62XoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLrjcIoLa6KpXbe3KU2SdLByKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJvUSiiF8hWqhiuJiEhIWkYyBFEjy4uFvX0tF6a81YtFn1QQzCLreNp8sjPDBjStixa79NKl54rIVw%2ByIvjiLu48B8GBKU7htNE9rmohnOla5FiBdPxTSuvYOb67FAYBAGe0UWB6BShOwCLz8EIUMFbVkOx7K3iM3EfnM2rOu9lk3qY%2Bv%2F8n32PbENOC%2BhmfYyRwmLR5lfHSBaJWRfNFa1vYgN%2F1NgM4LgvOAJ6Euy6vmVsf7gCqZjdUWfzB6lXr5ydTILm9pmhD5GENfDfBJFnuR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=42788700621&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27QN600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ihyNqVNp0T%2F6eTiYxqo9nf%2F%2F%2Fw%3D%3DszpWos5PP95vb5%2BD9BNmM2LhFeCOTStdn8ruSEzYlxiXkEFD9EqEzeuo8lvy6ZeyvdgMIQqv577RWtD2vkYYBJABIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjcHL%2BlIzvZVV1%2BGG4ICnTRSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEp%2FtkdIncY%2FIc0U5ib7wpNSWgoIKsc0pNBM1PfaxgJex3qpkT1UPKI2pRTQ7HkIG9kU%2FREQVhoDG%2B%2Bza0Ci%2Bu8%2BS6UxJeah0Om0lkIOZtT9ZKDRNP%2FyndRKo%2F82P2LhuKs%2BTdUIj7iGbnd1l1LxYGuBPZ0kHXtk9V4CgPIoBk2C7mD%2Fy1fnSkrLVTtHn%2BTW8qrDWrhHEcp0p%2F%2FKKziu53PdJp0%2BdgSDlY6bHAPNBUZ9jaxbIQbPxIGCTn0EOvuFuA4VoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=23849172522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24MR400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=INnD%2FdqSwDzBPhugBu6A%2B%2F%2F%2F%2Fw%3D%3DsC31O8N7n%2BkQ8atfsI38APDVRABjbX8j%2BCweXzfhsySVQ3qrx3p0MRIb3ekawSdvJXmM41V5WqiR4kDsEvSXIrXoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLgfKUpV3tpf%2FR815zCMqa%2FyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJcs%2FFs0qjZp4MZtmWi7%2BFZIztW42ocS7MwZbVwKNDyrz1QQzCLreNp8sjPDBjStixidanLxi167sF%2Fu8l%2FdW%2Brvlb80wx3%2BwhEdnXLrrc%2FbNFiBdPxTSuvYOb67FAYBAG5z4HaeB1014I%2FbpymMXvUvTxfiek16hN2sz48Q67nsTSx%2BCe%2BXbQgKNuLxnPws3KlMveu5pUmt5mX6mUy4ug6ttA7sPo9PpR9QeSHIJxQhxHLkn5ztjq96CFMOxaHv%2Fh9jcKr7Hd1%2BhSKc8B%2BqLxbh0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=44229850618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 27UP550N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qVD2GIhwICHstJPyTdZgHf%2F%2F%2Fw%3D%3DsV5Jgcudm%2BwTG8YkL%2BqZ7mj91EjYcd5bfsV54WDmIbaRQ3qrx3p0MRIb3ekawSdvJSNr8abSuK%2FpZjhiGQrQdR3oevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL2o4zEChLg75WtIUYDnJE2SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJiSD1fTKse%2BHnKkM5E3GYXZK10hRGszX6BFK1iJNwFYz1QQzCLreNp8sjPDBjStixPl8O0gBaSDQRX2mIhXA4lhIWU7U53zRgFZzC8XlWFzxFiBdPxTSuvYOb67FAYBAG8FX2B8%2BAQvyxE46JLz%2BG6j03CHXhJ90DsA8t1KaNamdWhfbMs71TmyQWmcUODxGDQqUuqqtmkBcwCTVsFWYzsOKbw%2FXhAYuqAVWR752oXbZ59i6fQuyOenFew%2F6P4QdRtC9rEYg%2FqlHIsLhkVAw67oKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=41260075618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GN65R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=tRpMkXtqmFp%2B2Dzhvs5rxf%2F%2F%2Fw%3D%3DsJgLWJ6f24%2F4RsfSNrd8YjNrscXeHE4pTo4puVmXvrkj6D9Doef8fQXU6eDjUh3hF83ggGdlsJzy6bn8K4XSFbp6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKPr3T5quAiR6qgxU1K32NBZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI84HjVyOGNIv6D8w0AqV03f14LXEpzBjC4emJph8TuZM9cNZN5FF46Jqg7fDWNj5CaPL99nh3gIgZgvZnDuORDO9%2FxAgg4ef62WIJT1K%2BzOB73l7letkN68WEvdrUNJeA7AExKRwjIBfGYWJ%2FUCOvYeXePT2OQXS8Ulv94gVigo5iISeZvNwgEi9s%2FriBHtENFUTeuJgZvRvEK7gZCw3B0%2Biz4GUtgoncHudqABKSfZnaVH0i3LOYvEW0B%2B5ePjsP1nLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=37233039618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 C34G55T 165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=DGzPDgi5R%2FPGG3uj2rKciP%2F%2F%2Fw%3D%3Dsjkuip8GypYgzgwwkiOgwONvy4dXlrANpml3w5YR1VPfkEFD9EqEzeuo8lvy6ZeyvqLKxfZv3YQ5rPOtKXPo1ggBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKIM%2F%2BlQk6a1HFUK42nfWkydbOzf0tb%2BSvxz5GKP8EcyDykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEpCevMkdYVgHrkVCqGQsIAT8nFrN04wx1b%2BHNUqrF7rbnqpkT1UPKI2pRTQ7HkIG9kbCpOlUck3tuQOrEFFWUgBi6UxJeah0Om0lkIOZtT9ZJMU0Uso2mT0tJ9ynewSoL%2FN7JAv2VC7Dqf1HcZT9tq6D03CHXhJ90DsA8t1KaNamc4yX2HQBwai%2Ft4P10c%2FHxI8R0K3XQfDmkt5o1VxbD5aexJ4SQcWwmOk5%2Bp7OCFLiuB0g0Moe%2FT2vL29EMRG%2Fqi%2FpCdAeWzSynDmUcomrEyrB0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=25744041522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 3278 QHD New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=EEUUrVm62Kw3cP7SThBMGP%2F%2F%2Fw%3D%3DsKrnY%2B2NNOrr%2BegU%2FHiQFVLSGy5HCdbOtBRsbbDLZzzfkEFD9EqEzeuo8lvy6ZeyvZ5chYn34I6FFaL36bkH7HQBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKIyGCeuaKyJN763fUR2jZ7SUOX%2FQr76H8VzzgoEHsxR3ykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEp5uEnZeDVdghottkDHyaBRu6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9koM1fyqQqU%2BtvmcHal5GNbi6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmTMEi1I19qnJczv6kohmwWbsD%2FS9I%2B2LxwdjijZ9qy3BYj9j3MSMX9VSZTpdCPv7l7CaCZTlzTBonNP5A28JWZhLPHBVE1X9hF6ZkrnPWwIQfb7f0zW03FOYujJ%2FG067MX71ZzLxLGJEmS1%2Bpx0manM2OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=16776093488&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메디하임 4K 32인치 UHD 모니터 IPS 정품패널 X3205 10bit HDR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=tcHH6qbGEdnk9A9tyQErr////w==k/b5YZlxHGYY/ImM+th/JTYj+BIH17UFB0StkOchs8/jKBlXhmur7s/OOUIXm1GxMVr2uIUmxE0d34z2M4orlKIpvsRxwu7IIIN8Ol1U2R3ncAjWs55Uww91sHpdhQq4hS2AG0Qrd3nXgTqIyXjP3PyTJoUvHXK2K8fgWXhoAsP055SbADVKuHtdBdqBqjSGg0a288g3o1SixSu+0l/5VvSU2sL33qKaQg/9ewHzJ7qq1vIZYaQGlGNDI9grn5ql3xP3FgFawAC51kaWh9j9nh+CQaDet7SW4hPsEWjCwNLW+qzkPxe27lyc9VbKHtznQmz+gTO0ApnUuOFj52lxg1PT7tedbM+WI8vZ8gfYPu9NkGPneY94wztnRF9ehOV26YaIqcvtUtrVcxR2m/9NTybzaX6pVIi4b5DkrhnNM1hc4KRWwB2wnQ8qjrqUHANHjyZlJkBoPN51wkuIV/+rhooXXSBWWdmF8BM3WJWaxgvBBo6x9euQtq6RoyTD0jOq/JoKm6jBJfxr5MbcL4ogQqqJ7MX+A8id/6x549IpExZRd/LeXyohH0JLFChJcqnZacVrq4D1f7G+rX1lqsnslHPt1t1y8JH2cAHlzi7lYgXgAnNNSgQjB2ut6XAmQAaqMJKPu1ZBJCRRKESEHT29lySaPOZ1EkAP53fKSXPOYMCubQAkOnQ+FRBY/ZHYG8ggsvMfYUU0RAEwcYrA8sOo+rQP+O1l7qow4J0mAvjPg1/urTiHGsLfTqk9MbCZCbTuwXie2/BVQP5f/4CCgBs7NOLJW+CzpcktOdDT4mxD82Hze9at8b/Y42g8MNyk29gqFquSu9bG/QdPH677gek9OnE5The5n+rgzGCu17jLRP5NTGz00gcpfy0T8lfb6cMpqwOrMS1aP8o/Ew+EvQes+BWIO5PIN+/Ug9Bme7nnKtU66jbLmHRLuNWdX815s5N7XNKSCo7qOzF/E/GpIywwz1kNmWsttHozCIT+fVqOr+S81PF3qhvX0Ll1DucYrJBhXr9gnh/wAwWf/6qAXuQE7PP9hv/P+EDH9VLBO3K5iWm2VAygCgie/A0DOlBMbpTL5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카멜 CM3220GQI 32인치 평면 IPS QHD 게이밍모니터 170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=loYuFzD+vc8dBs6DMnxtev///w==kfLYBofmyMjTgWd15jG7OkYXQfPyXeQObYYgvq41uh0TpEg3bmFE2ZFJolSnKDLgZeABvjNLB4FcfSNvhbohN9Zw0hROOiS5OvOKpff8Qyk85bM0/IM50Q9Gui5MF4J0BzJu4sbjNUpZzsoQwVJ+L+2aYNOw+MWSjj1BO1XNvpYyVRG+E/vGRnKFPhO4cH3D4mAtC0JHXnGXiDyCNzTWkzItygAVozVUFcmpozzfEBh9cnGc9Yq70Nh/ftRBm1pp0xI9VLDG0O5C111ny6sZWPr11hWcWiJZ40+1KwwzrCZ/fV+lz37Izk66BGQoZNp2VS1qWs/4dpHoskyyizk7niV0xx9R4cyieZXHYjj9Pfs8YG/y+Xo/2BTtnkIOFm3kkC70QZLidlI93igs2abt55IO3L0i9gFrpCK2sdlUe/jAIJA2ZU6dfW1ahuw1IvJvN7Od0Zc14lrLbQvN+e3jy0ga92fZGu9h0kLJlLK944sZJXTK3LvpYDl5lt8no09vW5r8Z/jTeGZGzVC6fS6fXMbnbMI5ALWyku3Ew2AIHUwV33gPtD8TvWY6zFSDVwXX2rfcWWv+uNrAd4thQVGsvLMZScwD9op/nS3NMJ3NKem0A+0SzeBfWncQhBNgPici2qSpGeFWWQDaI5jA9OdkYk8oaCX5IMbdNZoINTLc5Y19KZwwZGNL9xLzQVRQ/v/v79AX6QIHSKXbZD0lh+tgO2ty7IymBKknp4aNbqxjWEz4T3oIdLrWmZ3sjQeSOXiq9FGp/78pTt+Aju0rrFdGT/jovHZ3vWtc+H3nR6unoP/J/5CEOUfvg3h+XYbQfgeXaIzlWh2PRxIll5vlXHs251LgxPkpLUM+89hyevsnI+EvJw11tWgK7YVvmcIxNrgT04xsEkA+PV4GxxgQGR11o7z0Dn+90mCaeJL9d3JM8t0l7nifKhfwOyz7w7JMiBQrG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=jKzXQY1bCb2lkFO2cZTfh%2F%2F%2F%2Fw%3D%3DsfTL48QTBz1WYSCpUvzA9SwxNIZXGetOWlfmapd2hKCTkEFD9EqEzeuo8lvy6Zeyv5rXPQ7Sy8Gg4yilO9qm8SQBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKKCbaAFVOfhA3Yy9Pva8Vi%2FThQsnIiPt7JG5887O1%2F9zykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEp2tEGHRgHt5ivKieTNUVduXV7rj7GrYGFPYndo03%2FAH3qpkT1UPKI2pRTQ7HkIG9kfWhD%2F88oOFOPLN2%2Buca%2FzS6UxJeah0Om0lkIOZtT9ZKPspwxiPpKrE5GNXPxf%2BkyIDpVjuunpeym4ssFsr8nhMH52ksr%2FZT6drnt%2BhuF%2FJnyNHyBUXwWVD2ki0TxnNzy9s5WQN0ddEjnPw%2FLNGJ4K9hROOZb%2BYX7%2FTE98n6sER4RpOFzCbaM6OU97uoPifjrcxpmVchXFuwkzi2w4WKt0qCVYrrs62kmPGyKZGG4Z0XHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=18778755031&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=2yF%2Bq%2BUvCnVpokyyQ0cK7f%2F%2F%2Fw%3D%3Ds4RmMZutw6Ii9rSrv%2BclvqevMAs8cvNfYGlE0Fcho1pz6D9Doef8fQXU6eDjUh3hFDgtEI9Pz9XZFB9YMEZ3fZ56ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK61XIXqeKfMtJYtpSwzOf8ZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8uXmXCX4w%2FENnxyQBYL3LJE%2FYZvxZ0X87wMaP735n1SlcNZN5FF46Jqg7fDWNj5CaV8%2F4sI0N6393KtXZAOlM1kZarcTtxxyk19VayK0nWPQ%2B1pJ7fULyZp52eme7L5V54uLuFDsc5trlSj%2FmVjma5ZCCcLA7xXtCSZJe%2BoTXGoQfKkIqrJpQ0eF8eozNLpwGzcZVSj8DhYGGyXlreicbG9BxPW%2FdFvLIFjW4Z1BGfKENauEcRynSn%2F8orOK7nc90B3CQne2QYQc2gSdIegCLvwXX0YbrLMXJ%2BHnUrQmtiOFXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=18797620615&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S32BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=U4Na27pP7I1pe7byAJp4sP%2F%2F%2Fw%3D%3DseMvNRyySqjsQg%2BmoDb3%2FMW21sFviL56Fqo5gl0NObZf6D9Doef8fQXU6eDjUh3hFWgDB05ItPcFy0pzQJFZ7yp6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKOrXEHijppZ3%2BLt6rhBnYT5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8%2Bw8Y5FoR4deqde2%2Fa7QQ4EB702UOESJn56eHX6xepitcNZN5FF46Jqg7fDWNj5CaJauJV34nCxdeUavrCmksQN%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6h3C3%2BTNSN%2FvZ0aw6KKFxk3z03CHXhJ90DsA8t1KaNamc5YTL0w%2BPfccH6oY2zKDWzizBba%2B%2FUN534FhJhnAMP36AMcCxRX0OBNfbSj0GCpNZjfgssUiFXyPyQWgdZJSQ2qnUrThS51vjxx%2FWhXfBanYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=31605356618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤큐 XL2540K 240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=idcyV542CZSVwUNqxi7l%2FP%2F%2F%2Fw%3D%3DstEyIUeGY1VRJHqo%2Bgzn7oqOFsPRD1DFjRlZx2Lx5u6tQ3qrx3p0MRIb3ekawSdvJtEt%2FGzKGsVKVUul0W1nJTXoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLE57mBCPHtQyMvWsORLUXXCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJu%2BQIzcjIp%2B8tCpgvRpiZAm4tjii%2Foc7KWTXt67aXxNf1QQzCLreNp8sjPDBjStixmm4gFgNxvsyXPtjVEsg95AoQVKtrsEXAcSiq3hM3ScdFiBdPxTSuvYOb67FAYBAGX3nFrpb3A611TZpbmfKw3l0e0%2F7oUtw182DVYHDHcyUjicQn%2BdLmLVxJ%2B%2Bnb%2FYYEmebZ7ZSzdkaAGB0p%2BJqIW%2FoLRdeTzJJo5DQ5ovPMjEXRLasD4RcLkseO0JCti2jtZzKw5EZjRRfvtrMak6lWE8tVYavx%2B%2B8fWZa9SBc8rqM%3D&amp;nvMid=28506139554&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터픽셀 IPU3212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=da%2BvOliGSdyjjREralFJp%2F%2F%2F%2Fw%3D%3Dsu8CibvX5hXHXNCPKHIDZIkw8OfZo6F7LLYWfl8kaql%2F6D9Doef8fQXU6eDjUh3hFfKO4A3WQ85MjJfQ3PjG9pJ6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKeUFEOV7FzXBBR9Mb3Uows5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8bIgYeIbkFiJxQOFiSDzBQJF5MgnQBiW6ZX1f42IU1PlcNZN5FF46Jqg7fDWNj5CaSwo%2F%2FhzRTLBH%2BY3OcbbXPt%2FxAgg4ef62WIJT1K%2BzOB6qgWenuYtvd8zje2w66iAYtc0YP286Sa5FtAcR6Dv9rV2vxeWnnw%2FoB3xBhccid6C5xTtYtBhWw5aFkkkBaFI8UTeuJgZvRvEK7gZCw3B0%2BptF9F9LaPJDqdXEiMaNcWPh%2FAy2Q2MdowVGwlxAkUmEyxN7sowf3bBszTOFNQxvCQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=42796505618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 32GR75Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2F1vUP483YiWHAHrTP2yYvP%2F%2F%2Fw%3D%3DsY423Z54yK4OI8Ss%2BAzhG5rrJMgLoO%2Bfdywci8lLye1v6D9Doef8fQXU6eDjUh3hFQFzq6FHHad74cyLVJo3QfZ6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKOfWko36JGXhKx0il2fKi4ZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8G1eGkLUfP8zoaCr4lJgpdvwTJL%2F5hc379HcUYf5ZOGNcNZN5FF46Jqg7fDWNj5CaJGD2CTF3ZPXVfo89USH%2B89%2FxAgg4ef62WIJT1K%2BzOB7TENqwOcChr7pVDQBxYAV7lYI4GjVlb0xcTKUfFtg6WKyFGrT8%2F9RBCmZEgeC%2Fs12MbEOP99Zt4NT6350pxCsiUTeuJgZvRvEK7gZCw3B0%2Bq6Zlyia8Sq%2B7XcJ4W%2BNBEpcY5G7iz8kGP%2BgnKB94IXSATQoBoZyaGMgPFeI9gEXDQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=43991909618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 S24C310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=sXS96BJWeLf1Hr365sml0f%2F%2F%2Fw%3D%3DsjHEMx9X3wWxdlkbV7HoL7gAtyntuQ31Tjvtjv7N9UwAip8IRF2bT6l%2BdJsaStbtyOezPRQBS%2BmemlHlMkzo%2ByGth4P17XhjZ9O9VKzZ5YGC7bzbQJbwHxH%2B0Ttv1vIwNbfOfkrMNbSVH%2F8RoCsJ%2BHLngnxQ7ssMZd09T0OjyjIyD0KpiZOnSQYJGOERfnQqADB%2FUfUOHkr5oW6%2F%2BkA1oFbs%2FADSIAML1rD%2Fw7TOwzWvEsaUImNblhsiCXLlTXyGQinRpvoIipTLtxn5vLBJF%2BMOmY27ZGze0Q%2BtXRlM4OxtarJoVrbEtunAYIkKGowOq02jL97YzMCDjTTBiUzFMKLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCVSskfKZnvDu6bATWt7WZcrHJM06m8XkkoABSxxLFFem%2FbfOb80CHxVLi%2BCTuDl8R8jR8gVF8FlQ9pItE8Zzc8u5%2BucC6FdA7qsVYL6Jyosr2YCe9d7c2qN2xB2l6gapzEaThcwm2jOjlPe7qD4n4651fpJyYbBdUqsFtH9mGe1vCH3yqA%2FsUxQPuVTxpxbbvxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=38608938618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제우스랩 P15A 포터블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=NkY5eGWxQtyA5AEguLMUdv%2F%2F%2Fw%3D%3Ds5HM2PxU2Sx9myb%2Fe7%2FDJqx8Wjank9VdcwJnjKGrOvfNQ3qrx3p0MRIb3ekawSdvJUh%2BObLNVEVBwbOadvdRvOnoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLQahfztBy%2FxYsI%2BwV0HuB3iKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJJdB5SiCirSXQYEdZmNF%2FRX1OzBFIoLOZQXjotET0nKT1QQzCLreNp8sjPDBjStixfQU7u0aYFloTnhl87rx9AQuPCDEQCCUu%2Fm2ilFn07JNFiBdPxTSuvYOb67FAYBAGpRdxzxomXesIjcSHhOPlrvI0fIFRfBZUPaSLRPGc3PKQrgCIn%2BOBYToDnkWmL1HqGaO%2B9%2B1bKuJqtWktgi2E3xGk4XMJtozo5T3u6g%2BJ%2BOtfbsUsiIch66v%2BNC5a%2FNjl9sQ6qVn6fpTNniW7qzddVscgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=20651265453&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC 27B2H2 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=v9MuNOxm0tKCYRogC63wCP%2F%2F%2Fw%3D%3DszU0VTMbwQalKjsX5f4S%2F7C1e51aWabLcVnTY9wTYU3pQ3qrx3p0MRIb3ekawSdvJUreJMrgBuFh5FJM6xOPRnHoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL9gc1Q9a6oJWtu0SPEBlizSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJmF8MhE1WFGW98HhdJHqcf29tNAR3ZZszzuk3kJwrUO71QQzCLreNp8sjPDBjStix9wtY%2FqVIAc834%2Fj%2BSmxSNhvhQKuhRFt2me1FjpzsjflFiBdPxTSuvYOb67FAYBAGjvXRoJoYZNCmlWLsdWpZAmzW00EFB%2B%2BrD5HjaXlMxxpcH6T5QKtNwxa1C%2B9R0iec6PNgnbwOFHsBeBiJPOjn9FE3riYGb0bxCu4GQsNwdPpJE1WGyJPlOaTEzn4%2BfnsHNvtYhScIAhzqmw6SrBQdbj5tldli49KC377V0gKvYz4NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=42489290622&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=PTp1x5%2BlZsIpgy3eX%2BZQwf%2F%2F%2Fw%3D%3DsVIGQ2bLtcETlGrFVbJdHe7u9xbYKMFndqnBQO3bMu6n6D9Doef8fQXU6eDjUh3hFyLpv4o%2B4RGgniaPxupOy2Z6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKuEZUS2eTaevtGzs3rs2aBJnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI862y2lZB6MBOJ7tGEtclU%2BPb0ec0aQ%2Bm2qVwJj6PAuO9cNZN5FF46Jqg7fDWNj5Can4AcSbUMBSYVec%2BawMiX8w1r4dfP587AQ2K6HlNjLG33l7letkN68WEvdrUNJeA7aOGF5Qh4xc07%2FUBUElFv721kcR3BVsw0AJn3ASTwcFAfdDqpmSFabXqg6QNgf6EvUTeuJgZvRvEK7gZCw3B0%2BqkFLqGliajfxCk2vLXQI6HDVZPEjzpLCVN7aYBbsJK8nLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=28378464554&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤큐 XL2411K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bci6jXVqIy%2BHm9VNaDEKcf%2F%2F%2Fw%3D%3DsBWYQjKB8t1tS5iP5f8cVByY6pwR00rJtCTVxRzET9zHkEFD9EqEzeuo8lvy6ZeyvsqQm9WUpSY0luHREQ0tX8ABIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKIs4LwOhnQFpCqQ9mUlHkBK4Fhqi9wCLBrdI3j1a5HonCkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEp5RN31FilCEYjPtp7KvJhATGLU6s9nfQJSwdauULeBezqpkT1UPKI2pRTQ7HkIG9kuJinu0Gg7JVAcokJ9sUjPC6UxJeah0Om0lkIOZtT9ZLIt%2FKkr%2FUSDUSazPTWUdqULo3LHI7LIjqRrfWkGjiMElWTpkvbsiaY5M%2FKw5mMdJRX9NqIGXyz016ZewzTQHglDWrhHEcp0p%2F%2FKKziu53PdFygGXBaxyNbY2blJHZo8vjnnNdsYbxFiJWADzfn%2Bw%2BQVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=24196764522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 24GN60K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BpZZnKCV5uR3PIQJIke2kv%2F%2F%2Fw%3D%3DsivtgR9zi9MHgNRJqxipkrqvuFAwbdcyRv5PQDkZ8xFxQ3qrx3p0MRIb3ekawSdvJTvIr1IotLqo0QkhTGgXot3oevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLMmc6qotdnxUIAE3yZJAL%2BCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJZ0kKqpT4KTcO42FP08BMzA6oAD7Sa%2BwZoxOLFA9%2BYF31QQzCLreNp8sjPDBjStixSLn83wSATAjhhqVLvBymUD0EYJNx8K8oxrrgOzY7y8VFiBdPxTSuvYOb67FAYBAGdQIHPKUzTt6BOkuDZqDTxUKs6cH8e5pW2Vcu3%2F%2Fo2sl6gTKKx8C%2FwT%2B%2BARe2JlHjlMveu5pUmt5mX6mUy4ug6ts5z2uNAElt1lvXhaD%2B3jpba1a5b8jyKm5S9rX5Pqg0iKniu17nAIb7getj3xzYIB0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=36977008618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 삼성 S27B610 75</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LTCJwUBLpeNLvm2ubqcbp%2F%2F%2F%2Fw%3D%3DsEYp4EsyomcTfGETIZf27nZtMe7JyCnMXLoZvimeRaTj6D9Doef8fQXU6eDjUh3hFWdIgVGh6vJ%2FRZAV7yHGjk%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKYzvuoiuDcNek%2Fbe99L2wpZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY6CQ3lU3fpZC%2Fj8nhPX4xn%2B6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kxpOZrJMr%2FaTTWnsHNhUFJi6UxJeah0Om0lkIOZtT9ZLG41YRq5gvTCTK7k70%2Fxd43LcUP2LHfeJs%2FmeoWaZYTmOXQA6TyhSvgMuBDWtvQAZgX9RVRq5RAnYhKsrHrZmNUTeuJgZvRvEK7gZCw3B0%2BnJROa32bSX4FGf3i%2BuTK%2F22jXiR7fGO%2FvCvU3DpJ%2BzXb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=31531820618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=azxjSIGVAQAnD3mlHYFqvP%2F%2F%2Fw%3D%3Dsu5ho37mv6DvGeFZdmJXTKLDh8jfTdthtFlhtA1fcUK%2FkEFD9EqEzeuo8lvy6ZeyvJgkA2Iu9qEkSMyPX9iapcSbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKJ5bQDYB3cjT4MuysiedFUMm5NtQycrvAdMyARtHWBc%2FSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F7SRJRqWc90CLYyVPOc%2BQzrNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC50rAfa9Kj%2B%2FTSaeTaQv6wLHJM06m8XkkoABSxxLFFemxWmylc50O%2B%2BlTqNHiwHMAsl8N1WlIb2E6kreaBQXxU0n4gJxS6yIAUxdRn2Qp%2B1wAXIZe%2FHHXsU6OZNQ6mQf1nUpTzmQTeleeE0y%2Brv8xbJmTMRHjLNZ1lFVlco2PyP8og5APFv1xXgS5IlFId2t8VoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=27535066522&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 32MN500MW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=T4C8kwAgbW4WDupg0f7AFP%2F%2F%2Fw%3D%3DsDerbG1%2Flpfq8zf17Jy%2B4UmB3rTJqpRvALaPMCNJzhVzkEFD9EqEzeuo8lvy6ZeyvFb73Sc6qVHPxYPnQX4%2Bc9ybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKKhPC2htu6lZVcHvWpzLxhEa56Xq1YSls81S6xZ6PINEykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FN25AzdHi9xYPu2SrDX74xbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCzfEaQF0jhctskxxnkqW8xrHJM06m8XkkoABSxxLFFemAXBwvInSH%2BCkdT1bZw0rI2iICY3DPD%2BxxtZjS3TE2X%2FmEls5tVz9p8kvNxBtsxHuD%2BqggwmtB2Te82xRXjq2BiA3%2FU2AzguC84AnoS7Lq%2BdmpRq1BQPLScx7e2jV54Q7F9AqYDpZMpS%2Bjv5qCts925Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=22764052560&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27MN430HW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=48bEkFv1SX3ouEHZrKHi%2FP%2F%2F%2Fw%3D%3DsV0RLTJwda5%2FNU0kpArUYSg4HGYf2q37nL3o3ZT6LA4pQ3qrx3p0MRIb3ekawSdvJIk3%2F0ocxkLQoqSoNxIVOROUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL66BSa1yaQMK7OK2pxNvcZyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4fbYBgSWxICnGr2VHaRkkA52KU%2B2IKVLQtssAdoTHcfRcNZN5FF46Jqg7fDWNj5CarcLZgee97BGvx144%2FCGk%2BiH4EroWuigLrY0i%2FSNW%2BHb3l7letkN68WEvdrUNJeA7V1g1JzNLJzLnjvtm7Foe%2BTAzko4YyCwGJOwY%2BlpaxjujP5JqkRqkOtSygyPVRrDOwtIYh35n85gCNF9XAudNih2Ev33u%2BSM2oPZbZjDMxv%2FITFS8lqavcoURXN8Jbi8gNs4NutqRXixmE%2BwEX0UIrQau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=23301354490&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24ML600SW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LO5C6HTZ3uDkAE3CCipwsP%2F%2F%2Fw%3D%3DsEv8gv%2FvovxxuUmTux8IQJNkZuLg%2BrG59wBVlzcSPRSjkEFD9EqEzeuo8lvy6Zeyv7r7U926u1q1VCNDnrPFpoybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKLYnQ5lNDe35dlwbWSMIShDGd3HzjVhg9BFGGpPN3IpYikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FNiFqPoi4L06VlV8WQAdUILNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCDz56jwFb%2BXx%2Bq%2FnI%2FZOuw7HJM06m8XkkoABSxxLFFekJlE0VpCxEHQUIc43iaiV82iICY3DPD%2BxxtZjS3TE2XwNYjQPtvrdeqRSHBRstIH5fPnVCzH4dETzG8QQiWWqGiA3%2FU2AzguC84AnoS7Lq%2BdXER%2BTR7u2hS3mqxVkFyVjAfFKf6Nq5uV5MZ0n3FPY75Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=19105796246&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27MR400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=AK%2BkFTvyrxKaIT%2F%2BKqJJyf%2F%2F%2Fw%3D%3DsidkRaHUgEfVrgHpUoUlBxFH5MkMdcKrc9K4WgS4DjR36D9Doef8fQXU6eDjUh3hFySzDx3IgLX6L8yBmD%2B3nNPkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK%2FCnwi1wXYGE%2BdEUfg%2Fi765nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY%2FIUi3IuLsrl7tNkrOIJBEJ3o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9krrPCyV%2BdjImDNEKZNAKXHi6UxJeah0Om0lkIOZtT9ZLTtmvye2PM12PoPim3bYWN%2BTdUIj7iGbnd1l1LxYGuBHJa3b4ll5S%2BhkBGnk2aUgZF5SHRMucZC5aMxadxlJl0DWrhHEcp0p%2F%2FKKziu53PdE2em5t4zGsSXUYUUBJFXGBzfYJCCW8MVnEy23OgUykeV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=44229881618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 32QN650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=yy06TVGQPxXnhPnWAvM6a%2F%2F%2F%2Fw%3D%3DsIQQuXpxYI%2FCdYEVLQQ%2FN6SJ42r82cq5B6uAa4OcmDK7kEFD9EqEzeuo8lvy6Zeyv6ibyw5Zk4QLKjuv9%2Blk5dSbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjoiNM5dT4Vt7evHPiFJtimSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FmvUgq0srxnfLyfWQHj5dmLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC%2Fffyltq3WK%2FBgcaXVToWC7HJM06m8XkkoABSxxLFFendcexfTViL48E2Vx8ETG5b8jR8gVF8FlQ9pItE8Zzc8mEs97JvlStbiojPpp7nnwm2GOpkqxdkUm1qlqKU%2BV1iEaThcwm2jOjlPe7qD4n46zRDetYHipv7JEQLaCdqf%2FbuVxFDnaPPI4yo2nSOLFo6aGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=23692201495&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=h1f%2BKfhlUGTNCmj5H1Ltkv%2F%2F%2Fw%3D%3Dso8HeFIqIGWbeGmlIDe7O79uZ04OF9q4g7I5yXmci%2F%2BdQ3qrx3p0MRIb3ekawSdvJMjkOQ7nBRel7DpThYL9YjOUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL5Dcpssy6IQFj1%2FMzORAPUCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4bn%2Fs48JdGxzOSUHqd50QfIXBHKXbG1W4gfGzVL5eRh9cNZN5FF46Jqg7fDWNj5CahWKHg4nBHdJfp1Rs1JwBut%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6htAzIPpYQUH%2B5G2Q4EEtZfj03CHXhJ90DsA8t1KaNamctzKuLjtNlwdgj8j%2FRTtwbuu6hWTQwEWHGZEUDU8GMKf1bnwWB337bY3ZyZ1CLZffZr3YCmDQNL%2BfUn%2B6etT52grHP5urNbxVNhpnGXfVrQR0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=31889649618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24MR400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=SBYfY8P1pVlNPCuJIjEcCf%2F%2F%2Fw%3D%3Ds7EiIBe3jI40evtYPXO4e1gztIWW76cg%2Bi76moR6LcZL6D9Doef8fQXU6eDjUh3hFBxBDIpGIsErSYUX%2F6Lke2vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK73QFqRm%2BLcfC4KqDYuhpypnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYkBp%2FAJ6Oov3qx61h%2BxDlE53o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9kVUN5U5oH60YYtruLFnReJC6UxJeah0Om0lkIOZtT9ZKwtyXgwAjPO1Y5E84%2Fvp3w%2BTdUIj7iGbnd1l1LxYGuBMLAM5R3viggdQrQPowTg0Yvnj6ZkIajAMFcH0cqBy3ADWrhHEcp0p%2F%2FKKziu53PdMfHyQUCukaw7NkamR8Rj2OOZcAyIzrVQMzIVJseDq4cVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=44229850618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S32BM700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Jvh3tn8lZDZnFrfOQlKtFv%2F%2F%2Fw%3D%3DsOUKuT0ykkykqhGvktMWfXJhWm7cVcpW9N3h7PXBuGrVQ3qrx3p0MRIb3ekawSdvJ11swNa9vZ4iNkvbeMpH%2BmuUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL80wuX%2BWwruX9jqelNfBuuiKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4%2Bv9qCdAsGjDGSNAvgqiMGn3bMbHbTUkXZNs55V%2FUQLRcNZN5FF46Jqg7fDWNj5CaJauJV34nCxdeUavrCmksQN%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6h3C3%2BTNSN%2FvZ0aw6KKFxk3z03CHXhJ90DsA8t1KaNameopMNpjc%2BLXvSr%2F4v4U4XF8R0K3XQfDmkt5o1VxbD5aTAsdKGfFT3OTcc5Q6NBeH12HGc8fjS%2FSOBO8YoJRbPl0TWpJvucC2PwwArHUIS6XYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=31605356618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라기어 27GP750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=c4lqY7Z326sFxnDcotrI1v%2F%2F%2Fw%3D%3DsAC3n1UUd4bOWhW0Ku77C37RB8ySvBnLNeN%2FeCRKqUHvkEFD9EqEzeuo8lvy6Zeyvqvfsjjc1WkQqTwKCQkwkcybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL392rcVj5mouEkJq8zyckjOvdNzYH3B%2BYyuoul%2BiWoYikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FqwyyQAlQeIYL8YIhPXzVwrNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCUSbP3DR2I%2FtDf1Vm%2FfQekrHJM06m8XkkoABSxxLFFelzWUqh34GXhUVWo2INpxB08jR8gVF8FlQ9pItE8Zzc8vnOa6Am2RZu0ipZfgD4lkXVit7Ijq32%2BT80J4bGoFNuEaThcwm2jOjlPe7qD4n46yY9rGfP4b6ki8GanAtJAyc7u1cWzzRia%2FbTSpeAfq3BxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=29060355587&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI G274F 무결점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9%2FVF6u9smBnVBTgD1Ha2h%2F%2F%2F%2Fw%3D%3DsQBz6G%2FyoxtprSkttN%2FiD7%2B3vV0DB30Pl27sBCk4%2BthLkEFD9EqEzeuo8lvy6Zeyv2HHG%2FWnQdgQeABqe1%2FgxuibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKK7pUDBfNb2nYd%2BaJ0gKm2NNe4rwBzKaGpe2qqWWjWgCykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2Ff%2FSnbxUnpp15CF3yMbv%2FFLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC53taYuILqQBkHG%2BUTkc5crHJM06m8XkkoABSxxLFFen8Gplnor6ig4R5ZKjn%2B8%2BX9%2FKHKPD70rXUx%2BqVoztNbfTxfiek16hN2sz48Q67nsRetvnC6r62UXbyuGm%2Bu79nlMveu5pUmt5mX6mUy4ug6o14eVy460%2FP8lxdVIXYruO3%2BM%2B%2FYHUnhOXq%2BM9%2Fd7yx0ipe4%2FUws8a1AnmQbjqGxx0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=42788700621&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라HD 32UP830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=p6Ru7bNiqSTc8RzL2Pw63P%2F%2F%2Fw%3D%3DsZDM2GlrBpTDgm%2BMoxw5rbLp83TdmRbTzh4O9bsCp80Uip8IRF2bT6l%2BdJsaStbty2tIDN2%2B2IdLWinV%2FEea5GW1foWsWQKQnzmAd21dbXTwu3CZR73%2FAVYSwRaYj6efE1yRc5P%2FcsDGX0s7zBBk%2BLbngnxQ7ssMZd09T0OjyjIw81b9qTmtFHmRa8N4ZLUgVTj4Sd98iQ7m1muiCQLftILs%2FADSIAML1rD%2Fw7TOwzWvEsaUImNblhsiCXLlTXyGQoDQ9bITbKEj%2Fr%2FQGi03iw7ngnxQ7ssMZd09T0OjyjIxearTBvydD1LUI3JWpCADIqk42d6jgeaKi8uYdBBqxT1C8IvS%2BNPsEPJ7D6mlNi%2F6pbqwu11I2zlsbr0vZGyrxHyWEa%2BdVavi%2Fq5sKq4q6l0tdy%2F0DPgmbquq6SjnyPoMAhPyicvIAQ9WKD8sS%2FMbrXR7T%2FuhS3DXzYNVgcMdzJZDhnzBJ96zPRYV%2BYHwrLpp2zvWlFBhO3OGUJuEP56b0%2BgtF15PMkmjkNDmi88yMRV%2FqeIU5rCY%2FBB%2B6vsBxT0xtzPSrJRMRbUDVl1NuyrXDy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=41322139619&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24MN430HW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=wEqOo3yrXKwQ8D0FqdGSCv%2F%2F%2Fw%3D%3DsVucledzmn4QJ9XqXqvHv%2Fzu7bAPWaxIPtHgWZXcTlRdQ3qrx3p0MRIb3ekawSdvJP%2BlDuNsnc6aoGFvtN1S%2B8eUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLikD8QZCHCDxg3e9nejAxmyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4nSHs7eEDYwUUuObBOY1pCijPrUV0z88QDDtL0A08eTtcNZN5FF46Jqg7fDWNj5Ca1nWUHCrwvCI%2FhcUTGsbJeyH4EroWuigLrY0i%2FSNW%2BHZzG68pAsQhy8H4tIKe63ANV1g1JzNLJzLnjvtm7Foe%2BTAzko4YyCwGJOwY%2BlpaxjtWQoXHBsWTcjCTOVr8G92%2FwtIYh35n85gCNF9XAudNimauYnkCEXEqLPJfQo7CTOpEO7d7DbwnqKBXVJl%2BEnzrRXIDD28jsR%2FCfMRJwOD5GQau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=23244797490&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M5 S32CM501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=CoPIzu3LpPtjxEHj%2FwF38P%2F%2F%2Fw%3D%3DstYAvoXMbnI7qdxPwYq6K5yaeFplmtmQBa5vwVYz3qPZQ3qrx3p0MRIb3ekawSdvJVH638W68QHAnq3peUYqsy%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLGZzVEfbPGq10g4Bu%2FamKUyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4xIA7G5kpEAnGrVLSgM1UWMO0C4GBSnPwxGlmiCioJgpcNZN5FF46Jqg7fDWNj5Cabny2kWa95kJknf90VCVXQN%2FxAgg4ef62WIJT1K%2BzOB4EndS7cs4gZNMbyHV0aqpHRmVeNYN7zrJaIu4BP3DXKj03CHXhJ90DsA8t1KaNamfrTkvkRNtM7mWMm0Rlp5zqpwGylWYDb9TAw3KMFgso154iy25yTK%2F4Z0KiWvIBSeyuOcQXlHe4xd%2B2KT03Spzrw343BKB9uB7rfOv5VEbCE4KoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39344402618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27QN600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0C%2FJFNZAMPEz0knsjeTVjf%2F%2F%2Fw%3D%3DszVtBcTfAaRIfllI%2FIJwn%2BZ8G2WpumDpOYt8RMWfktL91oC4lxt%2BlhTQccfsXvqj1tp6pITpvbOOXMg4zhBYXKFPpDbz3qUaJlh8bpdaasRMlQgI1xTSgLN%2Bpz0HphgKzHinNrx5sg4hc%2Bs%2BwYZL3l6Tq%2FbD2MGowZHhNOyBhpCcXZJzZxQoK1L7bDnhq5%2FNZU2%2BOYirXx2087rDvPOUcGe1OtnY4MIPSt%2Bnpndu%2FZgAyPbgAquMgCI2BKVbwzz8zbnoMXf9jDx%2Btp22C5WOkbKTq%2FbD2MGowZHhNOyBhpCeUgj7JhipZW7dJJfFyMQl0YTeTZlww5G5LwOmGcqJNDmQim0uSGV45GygZvcFQrpBpui8%2BlVPfNN%2F%2F5%2F42tNItf9Q4hSs8RM3MNMYukp0wbEqxorqzO%2BBGjlflcLUedbJqwC3SvifYWh7%2BFRWU74%2BfPTcIdeEn3QOwDy3Upo1qZ%2F5yceNMFuqLHfW4BO0jt8SnAbKVZgNv1MDDcowWCyjX4pvD9eEBi6oBVZHvnahdticVooeYw1OJx864lknZFUhYBgYrmAQaZuiMtht4S2eKgqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=23849172522&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라HD 27UP550N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=saZmgJH1cJKV6XFpWdRaUf%2F%2F%2Fw%3D%3Dsa%2BLqSuDnpgzIr0CCrNr7oj91EjYcd5bfsV54WDmIbaRQ3qrx3p0MRIb3ekawSdvJpXKMRomqhPBERy5LaPL3E%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL2o4zEChLg75WtIUYDnJE2SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4RqZb2GUdapes0Pz2Uw9%2B8e7%2FEThADIEAvrOVAhqMOwBcNZN5FF46Jqg7fDWNj5Cadjacw02qwydgRl6LzMMVWd%2FxAgg4ef62WIJT1K%2BzOB73l7letkN68WEvdrUNJeA7g9RP0btmaeLjvFVqHdSNVnBX6aznuP0uVKkeZvOoBLwS7cO8p3IG2wU73bTgruNaT%2BDzDxwp7nT02YxkVA94lFyVHNgWlfs6meTBzj4WZ5Au0tshrpqaMCJZ41rqBVk8KbjzK4nJ%2BMyk8WZfvabd9Aau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=41260075618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G5 S27CG550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UXbkiwUR6wdZt2euzNepUf%2F%2F%2Fw%3D%3Ds5PqV99Gpg1yMNyqbxZn6a7wsXFRLlZLoJ7WsrUwVGhpQ3qrx3p0MRIb3ekawSdvJWwQelukja245IsH9Gs4HieUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLEMkbuW2IeBkkNlz%2BwuVcQiKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4TvymK2SVTuO49xHuW%2FFh4CqksBQeOUkkivmyL3XxRKNcNZN5FF46Jqg7fDWNj5Ca9iwkr9zNBcd11wFRwZv9DN%2FxAgg4ef62WIJT1K%2BzOB6%2BHMuFPCJmzAZ0%2FM7ixN8sxkz2o6quAUoWR0JcnowJIj03CHXhJ90DsA8t1KaNamdePRO1v7p%2B3OescH2t%2FRkIuu6hWTQwEWHGZEUDU8GMKexJ4SQcWwmOk5%2Bp7OCFLitQ%2F44NYd39Vqvx782NzYYu7s%2Beab6ouQfrUB2K60MuBYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=46930814618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G5 C32G54T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0BoAF7KQ6gpo%2BFVNpu0lnf%2F%2F%2Fw%3D%3DslBOjQHq2Q5xFZ3F0sc2%2BhV%2FfyNd6EUQDn4XBGz9i9tbkEFD9EqEzeuo8lvy6ZeyvtaxrWFgjOhiUFsOVbNNbZybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjMXYkRfyuYyIGWXk%2FeC7sSSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F77I9I6kAA40wiJEkPJ%2FJP7NoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCvxMQhCntkamkizvDeOFGv7HJM06m8XkkoABSxxLFFelaeNUffKHUaw1fsHkL8y2GmE9Ulha%2Bwm8RMW7gu1hOUtyL4fAvHwujpo178wMis2YAfYo2RBfnPFd8QoKsIW0kDWrhHEcp0p%2F%2FKKziu53PdIA%2FBnx8GbhCJfuIrcXXGVLLIXmri%2BWRK1u9z8iUZJEVVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=23896004523&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카멜 CM3220GQC 32인치 1500R 커브드 게이밍 모니터 165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=hejgsLoOrdPTkEAQjdd0Pv///w==kfLYBofmyMjTgWd15jG7OkYVH/kiHyzq4EH464NRSErtceA87azFELcIaQmWB3gpQMUxWDa2IAyg/y+Xd0ehpsCweimuihzH41jI7g1OVAALkg2Fl1iyQmVNLjnv3yYIm2JPjOuxaz2T4WpXmqYoe7JdW+dkpBkdI0epIa0etdVihtgrQmtn/NKwjcp41MlLvCxN/7CMPQ1+Ph3ViROkvCfMTnsIqzFgJIaMdoKW3S3GaqqbDVSD3aLoIx6al1Kbl9I806UwjmUNWJbZrlWCkvstJZPmADUugg7B9Q0jdh8vBEbeuvESxCMpB4RbgUU/302ewqDSuQWLUy8n1ZYao5BTusB5pPkRZSVOVoEkD9at2Jt8bQziarRUSmwjKyImuq2o26wotiMGT/5x1j42FGqruSuqssIPu7JXlw+WSucSmRrNNkxGVnoczj8ZiMLWLJ572/sNawaAxR3mF8Wevg5sKxl9sb/6aL7LDyhsHQ2YjrQQ0SKSSpZCKHpnlM/Rm/UdzKtj5HAVaXuVX8Q44umo8EjLsCWSXam+rroVtXRCOTumo+HBHFieSjDn6P1EdtNrpRm/ffus2CwyT0YtxHht1vtswFIN8yaJWWkn5U41xEQKUwKmuC9MNnA5VlavZemJnDCWq96Pd7ZaGSMx2Nuiq5zDACUZCG2tDEfr3ZX9LuC+IKleAWLQ0sKg0FzGz+YROPWzAkVpE2Sv1miWXYc9t5DxAYfyJv5CZyzZqCs4yjJ8cHjYaRedOiH0uldPDpikW5VhJI1Gg/btNahi/J66lG7vb9HnWFUiA0cqotbs6OgX2I5KIIRUgzIsJsP8Y6BgUQqSfW8rX7UJlLMjYAybqmuvRBJRmhP1ue4qfITZr0ra2Jln5oFg+0GOS9OI8EkgJo2hERuSCPv1rY0/AbD2SEDPSZdLv1sbBbwEQK4+Z0MeC3MUIxC/RDK7t/TAK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG32Q24P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=7Vk12l4CWfhO3sUBgfDItP///w==kFY/pA5Jiwf/B5cKMwjRP6q4xesXhDaHrU0GtT29KMPDJTcrehEXIMehp+UjwcgdzcH73n8zZilKTgTsadZ2VQ1JwHYEEhmA3MyIxfCEobFkU0O+LC8G5RPldV6wCqcUTdSyqwuP88N0oL0IX1CgJmGK+LYhqTpXeA4JWtCfyT2iUBLD2zZOcbg0YwnQfhFK7Gk90TELI65yCLTjMQIljNA2X4j+GTBprvXvi9rr7qdiVOHfO7VfJCNuChZ49wfQ/dqi9ViCGzMymD7uhMQNeSKVhSL4LfE5nR1rQ9W5HH4Lc9hrxe6noUX6gmsfNAm2kL8T9CjTVVULHKQWBDYGInFb/DTRzdtrv9jSgy+I06M8iryPEwPaaISuhv4/ag0yLD0Etz1EIOQDFva96CDYx7UaQTuk3ARfsNPmFZAUQIWsXhPn+J1bhmv5tNMIPytyqbjVLmzAuE8QbMps0xhT4Ehu+ebjFC0oi2LISiA03yy6ieHQ4NA9mCKNv4hipnkB4dg9PUPhZxOcA7qWCNhIPzOPJ79xY7mJY0ALLWc88Zkz5k65Ve+2nQ8lYjMkQMqVQGOp3xEtUpbqVyrkN9UWRaivOBlizvKaDoVFzo41+03MJYBO1RWpxbr9c/IA8ESvW3qKxYaqAyZ8IuA3AzDgjB9eUhmhLAAyhZeqtqKrNJ+J4s3tTzuweHQyRO7MmISxgPALaW+sqwdq4WWjbak211CYznyxp70J6jjVaVSNVi19qhWLZ54GvWJJoQi+mDDyCEZnMn4A4vQkfI++l5G+YkihKvEXBgxZMmqVDzyFcGBg=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG27Q14P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=7cuFkvDvzZMc4w7tgYLrwv///w==k1y0uKZ1v07NP/uKJZADs861g78o55CEvLKCpduUjBND4eMnWXmuwpJCHTIM4BFXp9Z0BE51ZeALSXfQhCklVVmUzgpnL7MxNri0oBfQ71qa6unXIs00H6yWRpIv9rnwokBpeoC3rT8weaa23CN4TomlsphmWbcPqslewxvYZitp2xVpFOAqghuPMMYzIKueqXiJFmZaREe6eBjHslF4fNISiOdHxHdRhasT24R5xqpffHB0HqL1MdMbhMNx8dG4D8k2Ft2miN1NFtdkCBClQOTwtJFdm6YNnGHPqSOHPdFoQ6CVPbyeYIw61AGNYbM0eDvBt5V1Mt2kT6ATb93JAe3U8nZBg3WMsfvCpoNai9Y/372oeC9nMyKEIGPgzgWWwIffHbVjPq3daa32arfoB+b37koZGLkOtxS4pr0BYHsIKtnuK613uVHaSxuWs1j6WK7io2NtHFW2xFkq04qy9rQo3w5zNKAxA5hhjem8tE6N6iNHodeT4oiuGYCpdZFqjMGuKcjNxn4RpmZytHpO/I2SUWUV9aXmu6lFlCbtFF78ekAV3f5CjMotPl78nmI0FyqTTEx1Jffadrxa2zEnEIM6z+qH4raa1tU7mhwBalmiQbks4qwK++hgWuYfyALvB9AQ59p521/j2a6z/KVrBLNjiqjxBGgcJMeJKhoFtuL2NBw70gYknwZbqg9JLxLxU69i1FMz+kawk7Im+IbJ5md/NFqCAo+VUQWY/dPobRwW7Id8zuyworCWnJp+4QCA5Q38baYlt4+6E9KSkCd+ZCFA/kstrdM199SGvBXG7mis=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG32Q14P IPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=eVEgAU1V/RQjvs03q32HAf///w==k1y0uKZ1v07NP/uKJZADs8xw6LV9Itwj877yT2pr7WwOL1LjViwJgy/W2l46DP7somkfECkpaz5aaS70NsrXSx9IyWVqOQRMvb5mbCqMdUK4HQ4MKSJX/hTrB0FMD/cSD7MXj5vRY8Wi4fmaYEgzPspgi3wogmfqEfQluRjkCsAQ5e3vEIh9tMc3MlHo9clp5paL0h8DwGDScgrbKzmXfshg9Y7X6m52Zf/XUJuJE9fuWCdlu+CQOV9MX8JdXuA/gvXxyO7RCye/Vfi3C1JH6gjIIdX15q4NBxHrLwSi2D2HQf+/DyYMyW8En1A4juiEHggqYqT+PZyZoO67KhJRFeiyCUTKuFaoEyR8ngBNQsXGFQ/Wcn8Vs/Ai+V0aW8A1c2yOzqSYomFB7R3c+gZee/OKSGAh63TK56pwK+9rnI6hWT6KcLB7Jzk7NBdDqnqpABAS+2TAlnD07neF9P4509EwYMRLSiHh6CrLmEcsgWwVPkPqIFF7QGkDn5MsjJBo4+BqS3QXMr79ismdSkWznyBZRNPTLMK1zf035v11v4zXvOrcxPvlYagUEwKsy/M2gBLSbMAC2L6+ogb983E2Gjv5qR9+w5frq+tofP9OOzynEIr9+nWx335GpfCSABVowGcm0AjD12SNHhbGv8rvxOjKWc0vvRPsWg6cbaY8aqLTH+Ac7skC9LdzHGwpt9xJ6tBgMfaf77hXeXjn+IUF0DVV3LTlL8CGtMONuraFP4kXZgx0iWyZS84w/itpat2X68DNTydx4MykDlzx91eBMOg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 ULTRON 3278 QHD New</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=sgf3COaLusJbqfgvkVlOhf%2F%2F%2Fw%3D%3DsJpZZxYKHO%2FnAmuuJY8LUZzAtc1IogVEeqNBHIiqEAkf6D9Doef8fQXU6eDjUh3hF7%2Fvi9ueuHGvaJg3uGcDI1PkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK6PbyuCx6JSXQh9wLBNDU7pnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYFaSnIm%2F60RJEWEWvejZ0Yydw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9koM1fyqQqU%2BtvmcHal5GNbi6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmTMEi1I19qnJczv6kohmwWbsD%2FS9I%2B2LxwdjijZ9qy3BYj9j3MSMX9VSZTpdCPv7l7CaCZTlzTBonNP5A28JWZhLPHBVE1X9hF6ZkrnPWwIQ2Jsr%2BjWC885gfsCNPFdqrm%2FyaETa34zbfNx50VJGcfc2OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=16776093488&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LjeHcWBLRbmnwVRuFu9kKf%2F%2F%2Fw%3D%3DsJz5NNrRZ1Q5rTDaA9IEG4willHactgXqAQd9WHIuMlVQ3qrx3p0MRIb3ekawSdvJs%2FCTOqyjCe7F1Goe5%2BEgtHoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLfgV1P7T%2F7O8haLNxTCVyZSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJ%2FegElGe3jNdmhg1K7w8jKSNNuTuTooaTNqU8yGGLFJv1QQzCLreNp8sjPDBjStixjBrpjLCLxc%2FUWZxTVdbixm%2FZrxEMVrVFGNtc16xeDLlFiBdPxTSuvYOb67FAYBAG6v4T16X6NzkmcS63ERtuz69WG84DIl0dsnDYrbdK53DNN2Jmf45F0mrxTsZNUI6Xi3hBpKph4lK3W2Fy3WGhbb%2BGBoyQkiFtSLwcV09cBvc2bbR%2F3hnsO%2FUXpuUQLETDqcUTgHkHw%2Favd79cN16JmIVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=31531820618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BsuUKoKmMJNrFxCsF3ywX%2F%2F%2F%2Fw%3D%3DsqlpRsAw8C0GRGuygVOBQUMCPzGZENU5fZTrpRx8bcYpQ3qrx3p0MRIb3ekawSdvJJpLiz9J0f1oIVQIn%2BcSmh3oevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLDM%2BhAVBuhf0p%2F3HycY2g3CKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJJmlS93WvTjx0fWN7MKrcaPOlmaovRXk4CVxrAM2psxz1QQzCLreNp8sjPDBjStixvdhG0nPGkJ6SP6yGwruITArRI3kCzx9IEyJPMuHOOfxFiBdPxTSuvYOb67FAYBAGteEd0zG%2BzZgpFQV58OS7NGkVN4tRWG0Z5VfecJoOcXFabRyDo9e70EVBNk0vL5NGzlOT0Iom8lTzJ%2B96qAk2Ai%2BNZQsEs8Za5O4KcBVl5LdVOq4dwd1eChLa2u7YKb0NvqtzTL6x6KN7ReiBRpN1o4gN%2F1NgM4LgvOAJ6Euy6vloajax4i2P7h1VZD1v9eL5wo7OW%2BBzQyFK9lKJwv3HsVdznR4EhPC6BI08fc6TT2xWkbDrUFJ2hBG8QaB8WVzn&amp;nvMid=20889802847&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 32GP850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Hrd3W8MUdOa9QECShibfgP%2F%2F%2Fw%3D%3DsHNLY7sTiGKLz6afTr4iUpK94dQ%2FfhQelgmnlOz1UXyhQ3qrx3p0MRIb3ekawSdvJnCcEHBMFWzkbBdw15qS9xHoevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLPgVcZ6fyVCcIxt5H8Hq7OiKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJ1CVrNEKE3MrlFZmBRMQgucjMoTGE1Roq3O%2FgeGnJaiL1QQzCLreNp8sjPDBjStixQBEEFh5CWwq1bADQRFye4s8uehVAASksQuTegyzoLq9FiBdPxTSuvYOb67FAYBAGuqS%2FYxgdJhJpr1pwOqEAjcNQg3Yq6Ylx7b%2FrlGy3XKDfvAvN1lAIcBqfK4sTAmUzlMveu5pUmt5mX6mUy4ug6tYn6jV0Uqct6RSrBJqIu96DOFNoUktifIvaHztj9e50h0tQtxZXbm3XatmkkpGfgR0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=27405944522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 LG그램 16MR70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=fJe6Dsk8QEjBMtOLAe0eff%2F%2F%2Fw%3D%3DsYhBzEG1DneOJOhu8%2FjlIwncBRx3aueA9kPkr443lVoHkEFD9EqEzeuo8lvy6ZeyvPYlS4tKu9I%2BgxHnWTIFdPQBIAYC5L%2FVaT%2F34OCb%2FVqeZP38D9yuVGNes8W5nW8YcrNytFIJLlovPvByHDqPy3lVd6Z%2BmZ5fvTALbBBPmfKIKuOP2P3h86n8hSq1Iw8%2BLu2u00mJ2aRVOBYBcpq6%2FuCkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsDiheVOTcXEV4apteSngaekPg%2F6PYJW9LpCSumzPJoigK7CtQzZWLlur1%2FFge4%2BEpJsAQk7nLorS2NmhqRL59gjGLU6s9nfQJSwdauULeBezqpkT1UPKI2pRTQ7HkIG9kPuWRdOZD5MFbjTaEsQPKti6UxJeah0Om0lkIOZtT9ZJJJ7xR5lF7X5pW7Y6z0bEsGyzeDJGN%2FS%2FtCW9YuDRqIsmGM7UFtC2rORkDPk206Vn6SKNZKQ71HscWZ4LTpZuziA3%2FU2AzguC84AnoS7Lq%2BZUTRRO5wql0ak6hFilb7CwVwo4NvsqgJjMEEXVaHrwmV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=37422371618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파스캔 AOC Q32V3S 75 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=a8kpoNEtsjsLP41WioImbf%2F%2F%2Fw%3D%3DsFlgeGraF23WE3raAt9%2BccJpTOt2gPMDagRJ%2BSistj5wip8IRF2bT6l%2BdJsaStbtyxM4Bp7MknqnafT8Ah%2Fz6AWth4P17XhjZ9O9VKzZ5YGC7bzbQJbwHxH%2B0Ttv1vIwNbfOfkrMNbSVH%2F8RoCsJ%2BHLngnxQ7ssMZd09T0OjyjIyCfL4wQslz6D7C3Tx279rWFfA0MiXR5NA97C%2Bu%2FVsoyrs%2FADSIAML1rD%2Fw7TOwzWvEsaUImNblhsiCXLlTXyGQinRpvoIipTLtxn5vLBJF%2BMOmY27ZGze0Q%2BtXRlM4OxtarJoVrbEtunAYIkKGowOq3o0BE9%2F%2B1BQmNq1Ws2k8jLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCXcUvl57hJ9qIGeGy5LgW37HJM06m8XkkoABSxxLFFela6eoT7GXP9LddsFg3ZPf3Z09tbWaFUD%2BX6FtUqKceB%2FI0fIFRfBZUPaSLRPGc3PJ8394Dp3Ad5WnW3hAccPyF1JtvYUanwBv6jK9M6G1WiBGk4XMJtozo5T3u6g%2BJ%2BOusCJvj31TbBLkkrSfvjFxZ8PWn4LwL0MkWbFKfArLrVscgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=26013420522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 S32DG800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=NO9ICdd9wUrdqPWvYFMIB%2F%2F%2F%2Fw%3D%3DsUKhdXRlgIQhFMcWZE8vretd5oV2IG4G9ERYq1G5IksD6D9Doef8fQXU6eDjUh3hFNlBb1eznfS36oVFogRJWfp6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKzCbrYFbFhnDkpZri9Ggp%2BJnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8TcDl%2Bzoi%2BK5%2FPwoUcK1AWa6pznAIojLEu%2BmJLSGNENdcNZN5FF46Jqg7fDWNj5CaPTCfsHSHWjkVIRlRjPUrnt%2FxAgg4ef62WIJT1K%2BzOB6WhvNo9uB346BV6i0mS5z5PGpQdiof48FpWwIEwtACpU%2Bj1VHSFKqiMT6T%2F%2FoRkw5aQ1NYD5xFclBtbuM17UCDwtIYh35n85gCNF9XAudNiulm2UMqPGQyQfgq6GELf51DVCaViUdTkS7ycromUYvYtKN0dlVXhsLfBUGbUWUmEgau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=48173026618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 삼성 S27C310</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Y30h%2BUVtQMIa449X5gPzZ%2F%2F%2F%2Fw%3D%3DsXWnYbv1vNjRiWyOXtZGMYIs6g8bLEYOIKsK6doA8aBj6D9Doef8fQXU6eDjUh3hF373vekL5XOvMTnQ7gYdyU%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKNZrnMDl7Tve2uzI2if3wGpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY0ofHu0r6C3kqPw71DE9Xe%2B6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kTx2%2BmuNJjwg4YSbbhGVbXS6UxJeah0Om0lkIOZtT9ZLifYz%2F9z8GEPg3uX4SeyFYVdpIXdYqN2mRC1WQDKu8yBtlRv3%2BiQuY1RRDSUqqk0052x7udgikEgiOzxjLV7KKDWrhHEcp0p%2F%2FKKziu53PdLkyDBCQLvGF2ccuoII94zI%2F1Tnq055xn%2Fl1dGaNsK7LVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=38607791618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S32BM701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=AB06P14yE%2BOndv4px7UEH%2F%2F%2F%2Fw%3D%3DsH3r6L0N5a92SoHRw3EPPZumvugTZcWPC7%2BRYmsvGdkr6D9Doef8fQXU6eDjUh3hFNkUEAOxKEc%2B2jVqaDxSxCfkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKHHnZ9TKW6MzudMKdsQ1KOpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYT%2F%2FzOK2Cy4Qpb1bvV6kG6cnFrN04wx1b%2BHNUqrF7rbnqpkT1UPKI2pRTQ7HkIG9khMyQHUr01A57DiI%2B8KcJfS6UxJeah0Om0lkIOZtT9ZJevEnS%2B7D8fFv1DKuLG4wxfA0lVGbLQF%2BexXuxQxf%2BAakrymxIfzPlkEL679ZAxxhR6b2g%2BfSxnap4V%2F9k4%2F31T%2BDzDxwp7nT02YxkVA94lBOq4bWjhvF2CWae5dOPSyNv6X6IVCSfssr0dJQz9ChdqhRnU1dLvy0rzJIu%2BdbaLAau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=31605413618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43DM701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=PsjpNZd3aPSFK7SCvWC08v%2F%2F%2Fw%3D%3DskiNZTkWowVg3o9ZHNi0sCuZQj0xa16MX4eA24JBZ5mhQ3qrx3p0MRIb3ekawSdvJzolj%2FYNN3jR2l3Os2pJUJ%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLzHoQeQ30%2FyXTLOjcFAqpFyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4CU09hTOKqcIscDjr4biQlKb4T7AANC5URaWpTnwfgepcNZN5FF46Jqg7fDWNj5CaCRl3LFUFNm%2FOv7kyMp0KnO7Ps88QvLGtE%2FDBhKM1akVobcDAqsFXy3LWjBFUpP6hGm6lHTWFZmmxYwFcL%2B%2BtkT03CHXhJ90DsA8t1KaNamd%2FTomPoHGImCO5X9n5etNKuu6hWTQwEWHGZEUDU8GMKatu48W9YY9eJdsDIemXWX%2BEOxFqu1Uc1tWyg2%2BY77s4wTU%2BgVm3tUCoiLAhecT0aoKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=47154398619&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라기어 27GN65R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9%2FqzF41DG6k8wqn4%2BildL%2F%2F%2F%2Fw%3D%3DsbQAKzLyNxZPhAHcmFtv19trscXeHE4pTo4puVmXvrkj6D9Doef8fQXU6eDjUh3hFQudiAdVQBy93fqR53sCshvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKPr3T5quAiR6qgxU1K32NBZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYFEqs%2Fo7MP36yTK6ijFyFum0mmFAEeToCuOR8ihX%2BdK%2FqpkT1UPKI2pRTQ7HkIG9k%2FxGbI3ZLPA%2FPi98DTfulJC6UxJeah0Om0lkIOZtT9ZKEoM2T%2BVrInx9tHC5Wo03TOv7qw8tL03SAaSxX%2BNDlpLv0i7RPmmvFqaI99rtj67iu92Jk1LuNV8Qm5RNeCCBIDWrhHEcp0p%2F%2FKKziu53PdARqcM4UmuyTqFKfivhpVx5cbrwD9MQocamVWZIsxkuYVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=37233039618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 오디세이 G5 C34G55T 165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=3i%2Fg16xCXLCYqsYdXnx5Cv%2F%2F%2Fw%3D%3DsqrZbpk%2BC0OupXrBWHwkWWdq9fTi2NI1G5rcfgTTQSUv6D9Doef8fQXU6eDjUh3hFPNYEdpMKKrcsVJzvLiiq5vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKpT4RCWxZ%2FXR3qXgWc9%2Fvr5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY9LcVhWGpPnPCHeQ6SeR75Cdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kbCpOlUck3tuQOrEFFWUgBi6UxJeah0Om0lkIOZtT9ZJMU0Uso2mT0tJ9ynewSoL%2FN7JAv2VC7Dqf1HcZT9tq6D03CHXhJ90DsA8t1KaNamcs4A%2B4sm8tlt0KREonzHNsiRFnedwjr%2FdtB87gY3naUK%2FZzo4bJsXm%2F88UbQ7jLg3DEDKglCytrpfXTScZdLPSHWL6Ef6fwm%2FP1i8fBETcwIKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=25744041522&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 ULTRON 2460G PLUS 리얼 144 게이밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=4NlBGdGzmPL77Gwy8rsyTf%2F%2F%2Fw%3D%3Ds4XK3SRlJSigtweRskpo%2FZCoC3ooIrnrCQEFw6%2BqdJE36D9Doef8fQXU6eDjUh3hFpkG5nxuNL4%2FQOyHvNiVjdvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKzg35FY8GnLaRmQtn47vIZpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYz1Mcvf8j5gs%2Bm%2BNW8%2Bxi6u6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kP0KYy0y2MHhyUrP1ACjK4y6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmLxE9fbs0GBcHys9rFFZ3EiyHTSOmJSDJzXDG154bbdWkEB08dtuqWbsTPGbr93OgaRc%2FaoBGn4kGDDGnhVaqC8vDllmgI4mUFiKSdbPhy%2BmIDf9TYDOC4LzgCehLsur5I%2BkxUgfwqMUD%2FKxp2IGecawry5dnL%2F7T2bz5WzCrSB5Xc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=32237923620&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제우스랩 P15A 포터블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HYJcLiqX%2BkG67u%2BZwehftP%2F%2F%2Fw%3D%3Ds6wn%2BYvLSxDPUo2YnD5Ladx8Wjank9VdcwJnjKGrOvfNQ3qrx3p0MRIb3ekawSdvJbZZAGw%2BRuLL5%2FuoXb2hIaeUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLQahfztBy%2FxYsI%2BwV0HuB3iKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4BZBqebwNCKn6Jnb8ayq4wVicIargk1bh0Ffjnole2TJcNZN5FF46Jqg7fDWNj5Ca%2B%2BsuTAd%2BBznd%2FFPrd70u%2FYio4q9Ug1qq%2FB3mC12aCP5jXQS9G3OiTnehCN2xHueW6UcMxyb%2BjMQ5I%2FWiAWUv310e0%2F7oUtw182DVYHDHcyVHruXh8ihFsGsAtDhDVH%2BxBLEIwxHGfkYV1zSZxV5TK%2FoLRdeTzJJo5DQ5ovPMjEXNYhgWEcsghm6R93Q4xrXTia8P4HTqRO0Hey1hgDUCBIVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=20651265453&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 S24C310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=sgE155RPmjv%2BFOPdj0W%2B5P%2F%2F%2Fw%3D%3DsoK130wy37Ya9nE3HsXje6IQm4NXP2zPYpvcVgmOWAhxQ3qrx3p0MRIb3ekawSdvJekm2th6w469ay7gnhtEmgeUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLjlhaM75gEzFLkm67xy1IoCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4PqHMGPl9ZefVuKavoCNJ2E2fpNf3TjLFne47pmg8LhpcNZN5FF46Jqg7fDWNj5CaSZsCPPrXZaR4HkU72BsxNN%2FxAgg4ef62WIJT1K%2BzOB5HHIgooiEXETw5gP4vH0p%2FliheEXoKlj4z1wm4Xb8GJJsRN6706ZS0T5jbnsNg%2FcMqXwgVrEokouid3TwaK738UTeuJgZvRvEK7gZCw3B0%2BkkTVYbIk%2BU5pMTOfj5%2BewfLdvLTOlp9c2Krt2zP5UB186euOFlqYxGW3xtmz76xsQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=38608938618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gpmNipc1ZaozvptlFllhp%2F%2F%2F%2Fw%3D%3DsuSPYMLcui6%2BivDh7jrp%2BG8CPzGZENU5fZTrpRx8bcYpQ3qrx3p0MRIb3ekawSdvJOM3dyzlaSrBX6Oj4FL59d%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLDM%2BhAVBuhf0p%2F3HycY2g3CKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4MHqZWRpowNxx%2FUoSejmcM4oGzJz%2Bdz5ljDqOM9bKRv1cNZN5FF46Jqg7fDWNj5Ca5HbqcuGRziRK%2Blh5Whz%2FQswumCHW%2F9xMw8vth%2BbiSXU%2B1pJ7fULyZp52eme7L5V56z%2F1siSzAXAhoWS7ZXdvaVjCI725aeOIdpx%2Fga9M9ikQ0eLJHni4uelSqBIN22brUKVcWiiO56CioKZYJGCohbsD%2FS9I%2B2LxwdjijZ9qy3Bio0rE7PdeOfg3A%2FE4m6uBjEjfl1Ls0%2BCnrgtdUn2SEhLPHBVE1X9hF6ZkrnPWwISUjlPiFyAihHg8O60WXHb0FmBVRTwgFHg8L1%2Bf6c50H82OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=20889802847&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 LS32CM503EKXKR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Aekiw3cgaDJU3rHE52hUu%2F%2F%2F%2Fw%3D%3DsWq0wsx%2Fe6Z7LGl7gSJFBqRKHeTM7qcepsNNDtULnX376D9Doef8fQXU6eDjUh3hFt9e3RKn2IDmwmm5z%2Fv3civkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKFEzuAigcuLqpegbLcd%2Bnp5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY3wn744UI9kKckKfgEXG7AJCUqhNbugFHlLh7n8V5E%2BLqpkT1UPKI2pRTQ7HkIG9kzAjXSh0smg0xlvbJiorS1C6UxJeah0Om0lkIOZtT9ZK%2FGOa2uH9q7oKZii1ZtBQ6W2vUjsvyojqg6WXRbgGLbj03CHXhJ90DsA8t1KaNamc36cROJzIf%2FLK0W89hG5MfdTln7d093ZloqmM%2B3f72YQTaBr0Jqc2MKIz6NtlZlOyaE%2Fvsn1QQfeL6vafoeRcoQfRnumwDJqs0OCoIZN8pB4KoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39856013623&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터픽셀 IPU3212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=77lDUBh9rfsJqoSTmdDwVv%2F%2F%2Fw%3D%3DsoXXQzbA2dH73zaQbuWc9y0w8OfZo6F7LLYWfl8kaql%2F6D9Doef8fQXU6eDjUh3hF88QMxGcev%2BcylcxHTkSwW%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKeUFEOV7FzXBBR9Mb3Uows5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYSheVplPyKU0RhYJb46Hs0TGLU6s9nfQJSwdauULeBezqpkT1UPKI2pRTQ7HkIG9k3vZ2GYpUJkNAG93zQbKPCC6UxJeah0Om0lkIOZtT9ZKhQyAxwODrgz%2FFZhXomh1MESWnP51GW1x1lWfK3IjQweIk8k60ekmuBcfZD8JET9WhmYhf84JNnxZ2oddp7r1xDWrhHEcp0p%2F%2FKKziu53PdO6WM%2F2aFFY9Im55zN0io%2FKAs0WbmQFEtIfJzUPDT53TVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=42796505618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7aao838AZQy06gAPFiyTtv%2F%2F%2Fw%3D%3DsRyTizwU8JGqyE9zp6v9CpiQfgZwCAWeojltcUZSyPV76D9Doef8fQXU6eDjUh3hFHX3ndHlDOcX%2FlvZUUGRUTvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK9qSKXgoi8oGbG2WVp3jxEpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYHIJ9lt0NruW1%2Bgspf3f%2BbO6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kfWhD%2F88oOFOPLN2%2Buca%2FzS6UxJeah0Om0lkIOZtT9ZKPspwxiPpKrE5GNXPxf%2BkyIDpVjuunpeym4ssFsr8nhMH52ksr%2FZT6drnt%2BhuF%2FJnyNHyBUXwWVD2ki0TxnNzy9s5WQN0ddEjnPw%2FLNGJ4K9hROOZb%2BYX7%2FTE98n6sER4RpOFzCbaM6OU97uoPifjrOZmNKzcBU96jgO9Fs4l8ezWveT3RN7c%2FOEG1QgpxnrjHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=18778755031&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벤큐 XL2411K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=RyFuU09%2F9WUAQOZeK2vk0%2F%2F%2F%2Fw%3D%3Dspz7paPQncZbL3rLPIjpdaZpIhqVWM8hjP5C%2BZALTyGX6D9Doef8fQXU6eDjUh3hFeP9U0jVl14ur8iycFn3lE%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKkRJNtIMOsHYEPv9XvMd3epnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYLQcw87l6OtrZI%2Flafl%2FXmCdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kuJinu0Gg7JVAcokJ9sUjPC6UxJeah0Om0lkIOZtT9ZLIt%2FKkr%2FUSDUSazPTWUdqULo3LHI7LIjqRrfWkGjiMElWTpkvbsiaY5M%2FKw5mMdJRX9NqIGXyz016ZewzTQHglDWrhHEcp0p%2F%2FKKziu53PdIopRX75kkwnJ38HfJo4J81VrdtI4SwMrG4jiQN679jsVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=24196764522&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벤큐 XL2540K 240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=m8xmq3ZElgEKlbtJi8JRAf%2F%2F%2Fw%3D%3Ds2j%2Bi%2BmXv3NqNqPBxGBxJ7izrGjeUDQyKA%2BDYbGjYze3kEFD9EqEzeuo8lvy6Zeyvffu5UpGouysb06S7nf1mFCbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKKLqI%2FUShivyqgeU35s7CLTw3qoz8pSSQ9r5bV%2BsqLGaSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FteFQ4ff7JYzPJEZz1kr4LbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCfv0OYJv%2F0SyjJjmXYuM3P7HJM06m8XkkoABSxxLFFekDnidiYVrsqu0F65ESqYoG3iBm3%2FGWKAJpANJ6lUi0z7Vn4b2sRFny7ssMKDWEj5ot%2FqftZKouG8kzf0uah%2BtJnUpTzmQTeleeE0y%2Brv8xbAdQh32dVGQFSVGH8TxMYnnrvnAVah0rR8EDKAGccl0TA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=28506139554&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 27TQ600SW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ojS5JNv0BFx4kWiatvcLMv%2F%2F%2Fw%3D%3DsfGWkykLUU9ywS2m1sIrIzZcY1EZZ2DYjsNrG17968OLkEFD9EqEzeuo8lvy6ZeyvPNrjIdRzBlAyfkGuqDqqRibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKLEU00i1JulGcGSrV3w%2FPWPbO8%2BakWGNvd6eKchuKI40SkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2Ftgu63KBrLgvMxqD1ghxcQbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCwqAat8GlhzbOmMlELb1uobHJM06m8XkkoABSxxLFFem0aY2Zik6v2lEOmeU6ZoE32iICY3DPD%2BxxtZjS3TE2X1fhG2VzFV85fj3XfmZ7xznlYMR9sRbYWrTkDi4fYm3niA3%2FU2AzguC84AnoS7Lq%2BQJFXZcJ3aiw5HO4BtPtEfpB%2BEIlnNieW25hdHU8VIL5V3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=32982708620&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 울트라기어 27GP850</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=tRywrFvHwZxGQAppNLtXOP%2F%2F%2Fw%3D%3Ds%2BDsj7PPSxKavYNTM3nGmN4s6g8bLEYOIKsK6doA8aBj6D9Doef8fQXU6eDjUh3hFduUlupnothxek96wMeqs7Z6ftrcQb3XRoj5EWvjlt7kw4kbg8JuJSgL3WVsJvp43jjxohJ%2FVqr65RCAPnh%2BUj8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKNZrnMDl7Tve2uzI2if3wGpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FXrbTcQRFZBFTdh3cP64pYKsJF1TG8DXvuOXRWh2aiSE1QmeK3ZPITzKHcbEnR%2BI8UXDwuMiN0qiOCsieHiTSvS6Liv%2FVrstEMbPhk9rtQyxcNZN5FF46Jqg7fDWNj5CaKikzsD%2Beu%2FV8otjTG2Ki5t%2FxAgg4ef62WIJT1K%2BzOB5HHIgooiEXETw5gP4vH0p%2FYqNJ8QU6cDV4F93b3tK4qJsRN6706ZS0T5jbnsNg%2FcNbT14VXavvHEZLK7HXfnq4UTeuJgZvRvEK7gZCw3B0%2Bldc9CZ6%2BLrr3HRMIP8g6lh0%2FxeTHri3FJd%2BHqZPaF2ZY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=38607791618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 S32CM503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=oB5mpnebbTUnNc2jGmHRnf%2F%2F%2Fw%3D%3Ds8ddYBSP%2F%2BcgHiiDRz6QN8cvPIK8bVDivzTdABgA%2FZ1hQ3qrx3p0MRIb3ekawSdvJx5r3n%2Bcpv6XDwwT9TmLp83oevOnz9sHaAsN3cIlqscpgFuFRAYZll4B%2Fxu3ic%2BueDHAWrWDgTBQr%2FArAURg4zN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLaqATcpPqlo4vhUVaizIgniKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGVt90AtnftaSTPtAPZlebLCTJ8Topjesb6TWGqsA3bNuKx7G3krbJiQXzryuwwOqJu4BhY18c1xYPDxEMRCAAlf5HLXtAnNBbrFmjxAvPk6%2F1QQzCLreNp8sjPDBjStixmEkgNlydjlvWfOn8cr%2FixAJAOD5%2BvjGJbnxfYSgdbEpFiBdPxTSuvYOb67FAYBAG6V2l9JSLLWK4ArDh6X8K3j03CHXhJ90DsA8t1KaNamed0jukT61DuKFnNGo5cet05h5Py00ZP8HSnfNJaBQUe3LnXjlDq%2Bb64bR6fdo7kwDpAMHL%2F55ID37N5DOsRHv6TPCnKVXrdmfxZPfRTC%2FJj4KoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39856013623&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=FbHXeXf9BF%2BxZm9t7COfM%2F%2F%2F%2Fw%3D%3DsavE1WywO25aeI3BOLuBPdG%2B4ULzOdqDxLcqIn3bCQ%2BpQ3qrx3p0MRIb3ekawSdvJDwW9PmF%2Buoe0qSLTdxHteOUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLAvqvnxCQ6O%2FOkXXgj0BB0SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4yyfBziOJqG4mzUumVhCeeMCi2YHWQxIRK4zuBeO2eitcNZN5FF46Jqg7fDWNj5Can4AcSbUMBSYVec%2BawMiX8w1r4dfP587AQ2K6HlNjLG33l7letkN68WEvdrUNJeA7aOGF5Qh4xc07%2FUBUElFv721kcR3BVsw0AJn3ASTwcFA9k8rJRWjVeKWMrfve52FfUTeuJgZvRvEK7gZCw3B0%2BocgDNOjlAWBAxmPDyT4KVPHHPQIvi7j23L4dEF3rtHCY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=28378464554&amp;catId=50000153</x:t>
@@ -318,202 +315,526 @@
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=VzhNW3ULjCRA0PHdC9rA%2BP%2F%2F%2Fw%3D%3DsZ8%2BB7LAhTSs1H24FAbuyc8VD%2F2E8cSmqeY7WwOZuRc7kEFD9EqEzeuo8lvy6Zeyvs7rK4q7bZp%2Fip%2B8TYNG%2FyibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKJ6LYABWm6lRkxVNeHofoG1PMYlxk%2FfAGgStypbKLIv8ikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FkzanJ%2FXB3x6JN5hW6oGEQ7NoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCiIupAP%2B1B38Ln4B0Hu7wgLHJM06m8XkkoABSxxLFFen0cOWfT%2FkLfdRLgnWHWAk0bd6phvBIKSJO1cR3d7XUHz63UIxPuuMx9Yb9B5Yr5s0rUuPnOprEY4DLMMUWoGbwQUO7dtgnPbKRpy2U1oT8dogN%2F1NgM4LgvOAJ6Euy6vnstjvabKposCRGuANxPOBwZNzbxSyb7Z%2BIusPlbct69McgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=31403668618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
+    <x:t>LG 디오스 오브제컬렉션 (고효율) 냉장고 M874GBB0M1S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=FLMiGs1puecJr6yQaMt8E////w==kpn0w2GY8Gq/vEoVrG0VVnFOSAEN6i9txkO3lE57i4bXXLt5yaEsgT5MoTezXfjI6X1ShazC/+zveVPbT+Y9eAZli2ruoZHNy1M7sYzV0T7X8jOVA8QH+bCgLMYGZKUeWUqWek22J+G4iQht13lHrJvfEC3YJJoPWcR75AwO/9Z3Z7bVn0iDB1KgI/cTy+iB/OfjiksED+668Wu2jGgu8mUNG/gTnTdXFSdMywcYhRvNkF1UykbTloxLS/IvszW9YnSMKe6b+NOfWVXtkf+TD5XNML1jVeZ4TJ5R1c05k0HPxBYVCMc9kVixWcat2dJKX90IAKkrqvPdjDckJnwFQF8HSEXsyMhFJQYb5hEOCiQKvNJ4BGy6UadEAX+axI2iC8flESeyTPRPO6VgzJroaOnMi3Wh1gPR0hmh0xYQrysXcOglzcm2upG8y4YH9jkKoF1kMldXW0hquAMCbtxdZh50SdkRjs+ndQV0Nyyts1k3vWeoI8y5POjF8ieJQQSne+uMermOz0OSP/MYlP314Sp5ySyATxO+QHXkr9D8PegHA/hJ3sujCB0qieMkfxpCRnU/Dkejz9DiCkTiQwDmr7gCTKV9EpJm2ivJkfau7MGFAEqZP9y2TLDS3JHIiAXV9Z+BblhC46qjt8Bq3Eg7ZhtWQct91jlQBdcmf2jaafUszzVLgh6ZZjf+o6zDsZF/EdLJX9TkM3Nh9XzECzREIeqABoPzCkmf+XkzJxsjJyY0oePXQnXYQL/N+Mstfcmx9bdfY1Sr2qy2qdiUCfiJ7gNrjmeMHxwcOop7VbO6uIkirQ/5kBR0zmAwyluu7TZwd1/kCnDVpEFjGhKXQQinFO21LPbS4/HUaiiPapqc1x6Y1fWdRAsiHqBdNFTimYShW0dlxvuls/ciFKqU/i26tIw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐리어 클라윈드 KRFC-306ATLWO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=5FVvoXchsiwfooKyeQfld////w==koACW+k+88ZTN7HyGEsn+dqSKwIYWzR6BJpKuMMH6t5kL0inXf5JNd1sl4Du3SjcQLAi59c8pus4TsadNm+4asFsMcthypt1alXj9ykMo9yBkLplTGI5YrCkLZl1W26R0i3slX8MZ/DNIi8BSkTr9agY2xETSazwtwwYPuFQzX7vGpVt7yDTbG95sj25i6WeUTXw9F1NNEx7GJZBqNQnwr4NvoIpc92kY5TKGO8TEaJHTs0x/QRbTlfswdBzY0zMuLnTrOwYfBkfZWfPQyZLiZfEDUXsK81K0ErRfK6pG1oWBbLpr460gkikAx7KiB9Urot+y4jAHomC/TJtJWQaQMir1PCs7jOcabs4lWSDEZdrl08oixR7DgJujQpbbhsTYxLtqSbtS1Bo8BhgzdVlvugJx1CwI9unXSOKLCnVHIzv52I4BNzxCklcI6glmx4+X8X0grRJ51sMBeUmXM8eAQnTNK9DwKGXQVkGPbS+wcLYN6vnStnW7EO3VhD9cU+1gCBK5FTNYYSHJIWGDhzrg3xW5Z5bF8ApyLbA4FJ0gKdMv5vZ+oRW8ucH1AWcUhOYL3ymKtK+r2le/lr4hRLnQXnE1Xy7PbUsTUw1VGeykG+QFeqN+fQw6U3l5KC5HonazSfqXWeECUCYOT7e6LnppgFNJ002TCSlUzw1Dul4ckW6PDaV70NL71IhGRps8CaB7fQwH/OYZb9PrJd7XxHNaXGDe6lG3Vn3K75TJZjNCbeKxRrWdb3agcrfh7WJFAA9Tifq86yYEETnqlgySD5sGYfYcgSaeKgVumYPZ6pqolZo=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 306L 엘레강트블랙 (RB30R4051B1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Y3coP33DzCGlOuXvvOEiOf%2F%2F%2Fw%3D%3DsuTI%2BeGx70Qf4YtHVNRXeVxvgDbd9sOM8NMaufL9UuOZF8WVxfV%2FmwmnX7Mz1na4yuNP2N4WxNMEKezZbqe3AiEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisfRL4yEsJh7%2Fz7vMPogyCp662BWhchF0erEGLZZOnRKWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6SQ9dnPKu%2F07gP7GzaIDDXGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVR8JL6Gb1ICskURRHotZfcy5w9%2FDMX2S1ZzF2txO07wpSg6TfFE8tXklgyaN0CrzjeWk5qPvcgK04O1fT0fLHVeaddLRIN3TSw3%2FmpAn9Kx%2BJIBFsk5rqw4gGd%2F1Zmmfow3ZEMI%2FfiyjNu4XHIMan18aiue7MFJInABmCpm0GPd6WdSlPOZBN6V54TTL6u%2FzFsl5xf6mU2HuIXMyJMe%2F9hkuxWqJQlMEZ2JeeRDf983p1WhZ3SMHTcLlpircdRzUgq1JIslBmdxaTx7xO1%2BPPoWw%3D%3D&amp;nvMid=20858302566&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 스노우 화이트 (RS84B5041WW)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=yAqeySHyZTZcJgC0rUMVd%2F%2F%2F%2Fw%3D%3DshIFlE2G2%2FDylubk8ghTSpucMKBEhADB9n3WPNohvyARs5nCytg3GiMUMnBaVqBbJWr%2FghoB95MZjBu0eVpIP9dof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLhFA9QgTPKAEcytxbsTJblvNrUCyioxt7z1ewmiHmHwVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Kts6vOeuVZkCY0glFkvPczokh7KNEkkbwBBKOUFOEErxoJuANnSMa2L1R49LP9vWcD0TnXNxl99GpZnIf4R1LSI28QDIftdPo5sZ73mZF1QCVDSJPUYWHvuIXHW1n0ABfuEDfFujEsJG9acs7qEzGYP%2Bn9bbSogU3rAzTe3NjlpPfbW08I60w3rxy%2BU2Ic5rKXUbDUSoc%2FXQ%2BJHYUubdX5hIf6awyNqkhZ0xxqsj5mQNauEcRynSn%2F8orOK7nc90ZVYBwy4ky3SWR5qReU8p2vKe3E0sI%2FFtqiIvjnZI%2FGpXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=34793800618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 255L 엘레강트이녹스 (RT25NARAHS8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=k%2FGz7nzDpXpWfq%2BXmVyLfP%2F%2F%2Fw%3D%3Dsq8q%2BDaO3lawK3yB7SA37tVzT3fd%2BBYCOH%2FWmKqG%2BLyjnSaHCvCuoi9wE8SzWjVqEHO5m%2F4I22qktJpFF2EX2AB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGJWhN3ojncQIx%2BKE72q%2Bkxfb81mimdRy%2Fj50mtG67FiwD7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90y5GApOn0eNd6kJitai5FCEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmwjMvz%2Fg4GH0eYpdXGxgQYaAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179nCc0PQlPQYmKyK3UGn%2ButyR4H1LhUZmmHanGpJydf1WHtWEqkfElM1WWWIms%2Fgs%2FemMXnWi8tFVUyCe%2BjZDgCKwZE97Cx0Uo5naFWnQAYQZK67qFZNDARYcZkRQNTwYwpyD9SHVzxR71Wjlvmga%2FOr%2BSDYFRk5KCZHLCBaUMz%2FU0IGsqEeZy8d2yeE1ngmqjNHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=15410881070&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE312)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zUhqHCVgwMA%2FL6HlDBNC7v%2F%2F%2Fw%3D%3DsA5Zs6vhMJK657kLX9D4BrmzphkuJmINdhdXA5drJbwxF8WVxfV%2FmwmnX7Mz1na4ypx%2FWv51magfAnhW3DT6ZSUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitsaKD8pw0%2Bb94uB4Kq%2BP2b0y9MZvJNTV%2BO%2FSn%2BlZ1pdmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6zeoU1p4Cs0yQXgrJeHuyiGovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sl94Slk09moK1slhJnJN15w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2REhwIHxCgBlR07cEV0VSC88G2lR2zcNaPOqlm%2FFfAi7xo95Av%2BLcv4OKi4jngHI9XKiiuYY5M%2FPx3LZmNUDACglGanll7zDHaHtj%2BAwXGcYMBhNg6pO%2F%2Bw6bSRwW%2FduOkDBQoIbJHCy4aJpdPqn8SppATRIJlN9bThb7%2B9eiItqwDfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 화이트 (S834MWW1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=5EsBCsJEdpNjOF%2B79Em00P%2F%2F%2Fw%3D%3DsQchnol%2FCzsJDwA8FWysEbdoKeuhK%2FdycYgDC1HqhLipF8WVxfV%2FmwmnX7Mz1na4ySSgHnk60PokTX2EF76iQCkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuHcdqZTHZ1Tw28DIYPrglgFqo6yRoABwWcMnn%2FBCui3mXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6E24NfXkBVc9I4KCzO0JWgWovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2qXBI8HH6qz1pqsMHi8a4nJw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2BX5Dqli%2FyKTFumIRxDWv1X8L7DdZcU%2B%2BZhTRewHXHILWq3QCzZj%2FWZ%2FGZHuztL4N3iaKBtNTEwPUIprTe6YFfbm%2FCQYThVfOZHH2yL59us12dSlPOZBN6V54TTL6u%2FzFsolaANaJMTNeEkIlWdV4FROkN6bEwXQ1cF4rooqvovftWhZ3SMHTcLlpircdRzUgq1JIslBmdxaTx7xO1%2BPPoWw%3D%3D&amp;nvMid=37620666618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 507L 메탈 샤인 (B502S33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=SoWyRpK0hElzz7lKM6h7Yv%2F%2F%2Fw%3D%3DsY4BdAR4mjfJP1pdCzLdduFVUyc2LTAIewP7Y%2BZOmMe9F8WVxfV%2FmwmnX7Mz1na4yaKN2%2BPXXZ4UEZC8mAFFTGUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGdh5j9x3CP%2B%2FsI7PoRPYKeGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6VxC0NYhpWcEhL2gs268GqWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRbhrw4L%2FfiW73RMa3%2FQP5M5w9%2FDMX2S1ZzF2txO07wpQXfA%2BqoZXHJjjPa0zXpCu5w2NapV1pNMincm78asJ2hhvWYxgj8YP2pAZTIszJedTQhkQq5hqDy7JCEB8cS41o9vxyIwyWNxoE%2FhY2J%2BrRZJV2dPF3zKmMdjBAjCWyF7%2ByAycMW2aNvPY%2BYuH0G8B5VmwEB2Awn7sV7g%2F568U5pTtoolK6%2F7xRJXqXSS8FjKyCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=29633390624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 화이트 (T873MWW111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=3LajTod3%2F79g28usUWkQEf%2F%2F%2Fw%3D%3Ds8l7n9iaGH0%2FVChsTWRCGrI0%2B%2Br7pMofbDbWsnRDHnWHnSaHCvCuoi9wE8SzWjVqEMAqLhaXjs8V29xz3qla6Zh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGIK2BwjO87gp4TguAWS0RhcJlzJlSIjTNhEncxttUW%2BYz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9g%2BaLEjXlV6NAFGiruNZVaiEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK3077T2lhsWv8r9lW5Wum1LSKAhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS9jQI1ts2yPTGhUbbl0%2FF3Hd5CllejDa6TI4njb7u04CKpQ%2BvySIhx1nFyolTOZnz6rmbqgAcXR54kVEB2n4LLLC0hiHfmfzmAI0X1cC502K%2FT9cRxpb0ICQIPgIZ2yqs4NIbMA07WXb9H2xiJZqWmc%2FLOPW0owX9Enb61QZfhRwBq7h9PA5SrIXrcWPClBGWw%3D%3D&amp;nvMid=33366468618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 900L 매트 크리미 베이지 (RF90DG91114E)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TV5Q73uVTLSajbDccSlIEP%2F%2F%2Fw%3D%3Dsu2lCF8JUOoP%2Fc9sGEY%2B9V7NajU%2BQPsf6S%2BkNTe1o%2B%2BJF8WVxfV%2FmwmnX7Mz1na4ye4v18%2BJI7nyqT8DzrVagIkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisAyNej0SOILr0JM1OL9%2FYngXCwg5wy72cEta0nsKfy3WXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6InfrKqMMa59zsqrAHmlAe2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2U%2BENO8OmsVwZFgXEEnAI4Zw9%2FDMX2S1ZzF2txO07wpTH5WiTOd8eskNJfQVT8h7fUhsDgDO81YN45IcsgHEsYQVv8Zkwm5iYP2UAnGgghH1BcgSh4TtvETVaVuOWHRvqtgJGYq6tRSbpqUn12MPwvC%2FkAuanOP7yVLyoikKbEK4lz0uW4mVx6DjXbDa%2Bm1Sujr%2Fvhuz%2FM2bOeEg7k3nONUWI%2B%2BHVIEWe1%2FrhOOD8xcR2LG46AOPNAEHrkF3gb7QGhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=46364964618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 그레이+네이처 화이트 (S834MGW1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=hCY6LdIZEcZDMElnhp%2Bl9%2F%2F%2F%2Fw%3D%3Ds39P03UuvKcckjKvRzauLOu1eeVXc6P1B9RleWmr6lb5F8WVxfV%2FmwmnX7Mz1na4yADF4Ncf5xltstTg77I3goUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuHcdqZTHZ1Tw28DIYPrglg9EkYUOHe17Z2XxbZiXn3c2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Amw%2BhJTIqXnoIym05aXPEWovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2AV0o9HQPn7%2FTZ2qckWy0ZJw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2BHvjK6rD8q2qCI9vDTouWn0D4HERaptcWUZM%2F5ihRVDHhak%2BKbMQAuGcvI5Ux5BxNVBR1YWazOXuXHtTLOqjhtoBKsWO7Ofd3kqWVETPpzTGFZdXUMN6Zzl2UYC16ucHOwtIYh35n85gCNF9XAudNimvLJ4lqTaWphCTXtCENQ4A1nJjbmlnieBZfH%2BoCxdMHS7zg4LGnLNsWxVIJpcUeNAau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=37620047619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 크림화이트 (T873MHH111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vmPmJ7koydtYbkHkHwi2D%2F%2F%2F%2Fw%3D%3DsMV3V7AUlfuM%2FhHL9%2BPh%2F6Cdw8a24qj7qz1tTk0Iz5Als5nCytg3GiMUMnBaVqBbJXKUgLOJ9YOf%2BXaqy2Dymqtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI8o1yuDKX8ZBYuEgd3dYETpZMrnWe3Ia4XcYIXSEg4EVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Nshbf3H7%2Bn3sn%2B2BkVDEGzokh7KNEkkbwBBKOUFOEErn3cCyRsUJwwlvHnZsSTal9qiypV6NPK3QNZMOZ45TwCI28QDIftdPo5sZ73mZF1RIcg7i%2BCpOapxg%2B%2BEe3abiN1aXAdr7Zyoz%2BdOnezFm5NjQI1ts2yPTGhUbbl0%2FF3H5mHyNMX81vFRXmy42FkDD94XRSdbdrvVUyys3%2BId%2F6Z6EjrBN3AJyxBukqcaZR57C0hiHfmfzmAI0X1cC502KYX%2BM1FAz4mN7L2fGUTypAqVWvif4TM9nd%2Fiz6iIfj1MDXbLr4qZ47UdSYZ6Ji6InQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=39286072618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 832L 네이처 그레이+네이처 화이트 (S834MGW12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BL4o5we8M9RMSJ1tbSh46v%2F%2F%2Fw%3D%3DsQ5%2FNGXCKMmC%2FrrZUnLEL%2FrS9ovT%2BJBND6qDAWZ91sg9F8WVxfV%2FmwmnX7Mz1na4yN%2BC6XVMiD7TGe4iiW4OdXEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu9u3y2GPJSkPBYYcmEjFtybg9NERTy%2FzrWPaDwq5mW3GXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6uWaDLsVAkZNSfMeElzVUCmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2qcOve%2FyNfC%2FrCoY%2Bb2bkqJw9%2FDMX2S1ZzF2txO07wpQfNBzLMiaGJMQi4SGGmNEOHvjK6rD8q2qCI9vDTouWn0D4HERaptcWUZM%2F5ihRVDHhak%2BKbMQAuGcvI5Ux5BxNjDNnfEAE5Vzr35EhUjmrKvJTHY2HkM7aYtu19v2dSYq1tDA6uPVEqIC97VEsP30qwtIYh35n85gCNF9XAudNiros%2FgiQO3t09hscoQZMJKKf6Ka7W0IPXatNrZAnp%2BvoBJ8YSvYBvFZivfhAhb5gLEHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=39910219618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 베이지 (S834MEE30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gSPCkXezgEv7igR8al%2FsTf%2F%2F%2Fw%3D%3DsVaIb6%2B%2BngTaLiEnVn%2BipJtukenI2fl0z7lYXKVQ3yRVF8WVxfV%2FmwmnX7Mz1na4yczX3lRCh3noGoHlhzJc5KUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivHN9MZpD8Ev7GxtyLYU7VRoxzeFCaWLjiObrYk4Ln9XmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6paY%2BziRXFSlgHOUpOrM9omovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ijDbjxhDf2nvkWeVoPvNF5w9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2B4GBln9WAdRB4u%2Bs4uoTUbPKi3N2BuYYptwWEXE2i6Ivx9igIP8kwTq5mHdDV%2FpWB2Ts4vauvH4Ezuf1EbOBcA8VZX16rcArMZeFVbvHTyl%2BdSlPOZBN6V54TTL6u%2FzFstKVKcXxwZTDMSvLggRncqDOiJLyZx8CG%2F9EMLrKOChcDfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=32714918619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 652L 네이처 크림화이트 (S634MHH30Q)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HDs7ka0gXX9P4JvINbCQfP%2F%2F%2Fw%3D%3DsWQdhw3nphx4VlYp2M6uJSYZAEFh7AaxWEUF4%2B01CZOts5nCytg3GiMUMnBaVqBbJroFSyYnZKkeorLQWV73EGtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLTW7SFYZx2N0wo8b040dq7QECf9xgpubXkPlvvOU45ZFfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7dr1DlXzfFwKnCPvkm938Hzokh7KNEkkbwBBKOUFOEEputb5DL9Kxb9CGN7p3RARkUygec38NqBYOfchpT8d3kSI28QDIftdPo5sZ73mZF1TtY6%2Fa2RZCgs9aM5EXwR6ZN1aXAdr7Zyoz%2BdOnezFm5JFDB9pgOchmNXR1isgFj0kpH%2Fb3l4DXuo%2FvQVbRtLr34ryZ4v8w6ffDAtYRPbnYYXLvoTlyt4oqJig%2BcMvNV%2FrC0hiHfmfzmAI0X1cC502KCdEHD%2FHV8hpTSILi5JBNPaNVLg6mB0jH6rsqJBAY8zD2d8uKYgY5oKkvgulPEISLQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=32710965622&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 507L 화이트 (B502W33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=rX%2FJH2uKk4wcNQgigGvNVP%2F%2F%2Fw%3D%3Dsh%2BKpevmAb751MOJ4VSX9zQV%2Ft73n1na8C8A53Z1kvfnnSaHCvCuoi9wE8SzWjVqEJ4jgfcZkrn6mfqF2iiWgXx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGIdJQPHhCDeCLVStSOevbbDRKT9GEedNz8SpmI4kc4Nij7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9dVzHlIUrsil9ljsg7e%2FiTyEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmG%2FIIKtF4BZMVc1n4AlJfCKAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179n%2BLQ%2FhANpPWWGRi%2FVxeGFPrMQ%2FBpHGvnG%2BTyKtoV%2BLq2YxedaLy0VVTIJ76NkOAIr3PIAV6BEzpwYMr2Vt%2Bh94Ih6ae6EsZPySszFxw00bfuKfadCUumSWqC8M0KariZgN0bFajy%2BrF7r7b6ZArkA6RKWaXJJR1wtrKDnr461WNSCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=29589282620&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 코타 화이트+라벤더 (RS84B5041W4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MxQRvqfGL7XGVlmpZQcqkv%2F%2F%2Fw%3D%3DsX0zrS32zKLwHV0Lcx9NBrVQhhDF6SWkdrUcWqiHJBH1F8WVxfV%2FmwmnX7Mz1na4yosjW7j5zdjHgUUb9UAkLikbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuOUIN%2F7%2FtH5Rq8oQbi1RMC1Ge5FOsHZ%2Bc85Hl48DeXv2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6m1jRol0ttw8fePdT5S%2Fgv2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2jswo9ysk7L9hGumYsj5LV5w9%2FDMX2S1ZzF2txO07wpSAtbrP0ljr%2BCDg6hZvvb%2Fzh0OcY8S%2B9QCiEAopDi7zuXn1pyuFHEhnNhTwE6vcgSsdctrKf1l0tSxN%2B%2BwgHC6YXTvQHanRctiYuc5oescwDh8rKZ%2BiO%2F5RRlVLo5K5owUo29MIPFcgLXzI2eR%2FNUeQv4YGjJCSIW1IvBxXT1wG91kP%2Budn874IiYKGYq7IsP5ANSl%2BQx5UXiVNv1%2F7HqqlhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=35753784618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 클레이민트+네이처 베이지 (S834MTE10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ETP6PdR42PI6TESZryA7E%2F%2F%2F%2Fw%3D%3DsYZZKSqvaH%2BpJ5E9N0xicHyUcTFPLlko3R1N60ZIPgYts5nCytg3GiMUMnBaVqBbJHkSg1BJp7TtBteXjvpXwTNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLi8aMlEdPps%2FjibHSyOHY21o05%2BNr18aCt9kPyrqvpbVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7YsrVR%2FS%2Bfw7v83xQPtg%2FXDokh7KNEkkbwBBKOUFOEEputb5DL9Kxb9CGN7p3RARkj%2FEsPc7suTTNi2KmEHo%2B4yI28QDIftdPo5sZ73mZF1RlB7lP1clgsGfyJnSjRbHwfmA2PjoJnPH%2BSpgS16EgKK4UdOtPygBSIOXQO41Ei8dM%2FIkNSBN8jy50gwmXSfle0TCDL5g7Af9eN1WaLGPuExZ9RFDQJvoVEftA%2FogCmeaxtYrMfm1Lqo9OFjcLJlVfcCi2bEk2AuQO39ecWP4%2BaXs3T4qzSBIVN2HAysFdoOSjZa985%2FKOj6lsHrK8%2BfJb24RSZL0OJOhoh6jigfWy5w4SwcLvxUEucVmH%2BcOht40%3D&amp;nvMid=32716524618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 메탈 실버 (RS84B5041G2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=VjDAB5l0hjiTt9STfeGckf%2F%2F%2Fw%3D%3Dsq%2Bm51KZRDfetrDEA07MRZohwTF%2BWfm81jWe9hVo85V3nSaHCvCuoi9wE8SzWjVqEsO94ajS%2FnMv9tv11UMnXvR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGJ0yMul8HuSoA1EHj7prrrZAj6prPxBsYwbmDV9fDwmZz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9TJZVoH1MUY%2BPa7bFN3LoNSEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30L9UzCnY9Y1Vg0PeZskGbU6AhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179n4isPjI%2FTgvwZ6U8aW2ecRXLf5x43phPpC6X7V3%2FDT%2BlPfbW08I60w3rxy%2BU2Ic5rJBlox8%2B87xnI3Xmcht8i%2BmFsvYnO4PrURtpW1HEFOXQNauEcRynSn%2F8orOK7nc903K0jAKk1z1j9dzv%2B6kn0e2CUIoA2aVKWokxTjJI9k%2FdWhZ3SMHTcLlpircdRzUgq1JIslBmdxaTx7xO1%2BPPoWw%3D%3D&amp;nvMid=34810591618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 300L 샤인 (M301S31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Xvls9ElDhP5aBB8g4uNvAP%2F%2F%2Fw%3D%3DsKOgeR%2Blh4NMY3bkxiXut1KtTrIBuz0OynWb2BRjUFJ9s5nCytg3GiMUMnBaVqBbJLS3hSYVi0ecNBCAl7C83oNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJZ9Fm0wi3hTOSCwKojcCdsgnY1sgnbloUUEYeTAMWae1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7n2QxtDkxdHQsnqtSagSsmzokh7KNEkkbwBBKOUFOEEqrZ0TNK7EquV0PvRXZCuMV%2FpDu7vT0bagOVjYrTdf70iI28QDIftdPo5sZ73mZF1Sz%2F5NwpMSApvUNADGD8WMs5%2Bb7fAmO1CyUKeTfRVTUDKOuInwfQ1XmfH35WvRpRXbBtH%2BZGldIAQ5QK41ZUBOD8wSzUhDfuUn6B5pTU8kq%2FmJxyHBE3CYnzhPLG%2BOCDMVVg%2BGSkmcUnNtof2XSLqbvI8qrASlXw1QUSw%2BZCMC2F%2BR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=29519696624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 메탈 그라파이트 (RS84B5041SA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vgL8FiCQySEM%2B2aqy0pFYP%2F%2F%2Fw%3D%3DsLbMMLzzc3FTCZcaPS2I6KRQigHgAB2cu1GLJmbMAwVxs5nCytg3GiMUMnBaVqBbJwJUWtWJSyHwnveVx%2Bwvp6dof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJQ7NC3CW%2B05tz%2FDZzppXy3jiOcNbBAbuIyKCNe3FaMblfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7y%2FNeHSl0VCA6FWCsUq%2F6uDokh7KNEkkbwBBKOUFOEErVLXInAnmtcBU%2BGWbS3rvdGjK6yHYrQErnZYiAzpnBHSI28QDIftdPo5sZ73mZF1QCVDSJPUYWHvuIXHW1n0ABX0BbJ%2FXv4T07M9%2FTC7%2FQzR4Yisd8f%2FnRp7vbqBcJhXYLILT9XOsoauFlNLNakxqp%2BhmXmOVYKm6O7PYOE3P5hJoFLUZ%2F8pkI9Lz9y2Z5TzdRN64mBm9G8QruBkLDcHT62CQW75E89IRwgQlbgSOm3lXH8DfSow9iImQD4cmo30EBNCgGhnJoYyA8V4j2ARcNDVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=34902568618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 189L 화이트 (B182W13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Pdk1iNm6umLQkUXaSRj8af%2F%2F%2Fw%3D%3DsKEwGktDLDB7FKvczVFSJBCVNg7mCZI2WTa95o1uwoNdF8WVxfV%2FmwmnX7Mz1na4y7vQ8PYu0r3IX9v%2BswFiYREbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGc7800yq2HC4mwSt2ig%2FgJmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6dfFO%2ByixpIWh3NLg430zzWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRAFQTahWQqzU%2B6P8CSx7V95w9%2FDMX2S1ZzF2txO07wpRPx%2FqwD4ONLJpg1RRd2i%2BOGQ35xLM%2Bvzm9qcKnp1RBLgvsslkF5yoqRzyAGZSqAzGyaoRYsjA1z7t%2BCLfYAg5pNZ%2BCiRWnlrR8%2FoHZ%2BtWUm0%2Fg8w8cKe509NmMZFQPeJQeDypf0rDXLvad7CUkqEpvuwQMRbq323YNsEuQA7%2B9Dku84OCxpyzbFsVSCaXFHjQGruH08DlKshetxY8KUEZb&amp;nvMid=29633570624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라셀르 직냉식 냉장고+냉동고 1100L급 (올스텐) LD-1145HRF 60개월약정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=DZ9+ZhFhvwTF+aXW/DAZA////w==kSDyOx3qr2ziYwu3mS6cmUN1LukiXpDFxWRtXs6d6SWafO0SBmMmop4Rwn+Ik0cw2+LzvXgQ4aHObk/dUZULG9ZcsxtFyHsOtxIvMnzAhBwtzdR20ze+u087a0LEx/Da5TClGxoATLxifNbB1z689z7o3ihvjc/w3r+7zpag6T8E8mpwddTyqKXSMnX8fD2iY8A/04QeZbwErOuj1oXq5joUhnnX+EARAndACSU4Ih2CNwCU5+4PbvjY9qnuHQ7/jtSBVdKChhCk+EXZ+ty3Y3CwzmIWbNgViGFmeEL290iFkOOAnYgBuECBpaaEfVDAuju2CiVQfS97rb5eKvBxOokjKh9nWjkHswuy2wqnMqffINPfqkpiU16kfGhV4rYuzyxCDgNvcdiXqwk5All3nqCzPfRr/AYUIqWMzAF+JXmNTzeX3rMs5av6d/k//uY+HEUerOgeu5dEm9Uqs2ObuVTALE4KQ1oJj3GaOfZz+Oc2j5Iq78XlrADsvt+JU4ZKpRALUTzPkmVa4gbRAmxXFEz9KwL0cR3HZ4sKVe/md4K2aTWvVBuGzkqVIhjJaRzHPZXKDQ88/mm9q+B3hfNLA7aUkyE/+mqyfm33TXJvLxPggaOKJPzfsBbvPEfCIRNYU3GXeY9tqlAfuK0LvjiEvfEtG8g6TzOdgIA0tgfjj/VaJL58TujNqgbZs1Ls7lN7WyEj3wjbiDPVpTn7ZZrNSsr7D9D/AgC/XsW0KKGeTF7zGI3GhZuT7Z9O8iI1q0UcW/JddhZqXIWy5SZ3ybSCscGq5tYeCdykwAisDt2Gxqho6OnsowqV4EnYN66XdBOeO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우성 45박스 업소용냉장고렌탈 36개월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=lw7TG8lu3fdeCWgDWOOHtf///w==koId0wiG3tCde1SAH2tV0DimLF9p8WMavQFlWUePOKuvsL3TolgLFw6dF2Ks9rK0nykEBy0tEtvFl34lyXrrmg4BzXblGoYVOJNUBQl/ngcu+tP6/qIylWbXKmLd0jrFsLfMFFzSbn72j20TOATzFflC4eh3fL//aO8Cgzw49bqiIMkvwseORJTe8eyRDb1zDzWqo9qomCzrVzGsvVWVZ0d1BJhbXu1UDRNUjnI7RGEoT0GN9gLxaOVLIKSlC7iKriQ8BtOo+VpddC+L/tlOd2c6GZZvvX0N8bqCyn3kdSjUlnZMi+hTVYIvi5kks6cl2aM3gtWQ2THjjf3Ol2yd3mHy9w5NeLoep0BJahvUn/9cTQTGXpwYs6RE0hi4kLiG32OoLMHU3oBnM4uC7ufHfT+T572ZL6swRjALRO6O05f/XUxX5vygqT8UyyGjNQ28vrBSXulCx/NHj6kf4B9tia6y78UQgOKWt1Qx1aVq47PMTUfQuFQjjxfX41FZcQvLn03AvpWCSGoOadsP2qPrQNUP+SX1vusIKHlVVtbjztNTuRshDuX+txVzaYpU/6H0RPZnGT0ppTXz8FWxmLFXPVRTv+Dnvir+Vh4SvZkLKBU54lo842Y29zVpc6UWBtiZikn+aXsm8z5exGNXrDiwScqCXabmESt73cTjZOs824rqVw2D2m7WmcsVux5aGP7WyUGsRl3XzPmF0HTn0+3w/IQaB4mdoryb7AShRV0UzZpOop1tK/KakhGjVTfRy/kKg10RCDxLXakxNduWajEJ2kZj4XZvJakEZc2TqL3g6ZuM+rSqcDia1ISjdPBdeTQBV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 미스트 베이지+미스트 핑크 (S834BP20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=pi1dh4XaQBPxciPU794fA%2F%2F%2F%2Fw%3D%3DsBV20xOxkHcs8k8qB9hZNnWp7bL6IVXJl0ga4p8Wu6u9F8WVxfV%2FmwmnX7Mz1na4yXTAcoiYXgHB3jzpMF%2BkaJkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOismSw913Tb624lMFSdAPaW9AGU76KJJd93yZQ6mUBGj22XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6AUAjwXGEdBSQU9R%2F8RzsFmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2F8qYs81BMnJ8GGntkXzh%2FZw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2BMChe5FueVvrXSHHBpIKoaJK5qOfzkUI9U%2BH8c9bcWcw%2FqGTWta1oT8c6IkoBBxe48fYoCD%2FJME6uZh3Q1f6Vge7IPrf8YR3XSkAUNbZHf8Wl8UMLYFC1Uh3o7MYQ3Qj0nUpTzmQTeleeE0y%2Brv8xbOQmY1xJcfHFmaTqAZuTq9xnHVgxEmc31OsI91mkyIg6A35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=30615122618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 300L 메탈 리파인드이녹스 (RT31CG5024S9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=OOp69AxpUzm%2Bg6rGJ74Tdv%2F%2F%2Fw%3D%3DsQCh6AchCBQ%2BDNyihOc9oiAkYML563ONzaaJl%2Bv3c4Ots5nCytg3GiMUMnBaVqBbJXjArUu5rCNZQ3Yb%2FzgMfwtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJu7vO%2B0GwK1R5BtZGxnuPmkfbLgWmsIk57ScYJ4mj2yVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Bkxh%2BfIAHTAmBWYSs%2Fl%2FUzokh7KNEkkbwBBKOUFOEErqJtoQhigNDs5b%2Bt%2F5mcij7uayE2SAxEVsaYa2F5%2FsaiI28QDIftdPo5sZ73mZF1Sz%2F5NwpMSApvUNADGD8WMsPHdWHc3BQatXSjqPAUrsXmaRH9rflHqAjJ1305YuduNLqgoZ6nNc4HOuVc0WG9ZNXTvQHanRctiYuc5oescwDi6juqG33PlmYHkEpEXN9uhs5bTUWGRJGPQr7R6bHQpVv4YGjJCSIW1IvBxXT1wG91peZ4LBBUdVIOwggFObXrRGMaIHyoYJs%2FNaPWYoqHQ5hWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=40545228621&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE012)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=70tIvcoCkSNydOfloG3eSP%2F%2F%2Fw%3D%3DswtzKkZeDXRZB11cdSI0qDkvSJ9TXvlu6Gl%2BHkLJpsCbnSaHCvCuoi9wE8SzWjVqEiF2TVRGgIYxQE6P25L5T2B4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGKxrDqGF7E8lL3CFno3vcrFINwmL7KADN2c7Gw1quDw4z7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9mbDK6bM0iF4yJ2N2KkmkVCEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30oo3mX54xWhpVU9zvLz0VpKAhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS5j0RBFaxXUGsRM79kP9udg%2FQO%2BjxSFo4X1su9zeScTF17g%2FXyzPjPZ%2FW7V%2Bev4jtR54Je4gCBzOFKrrtUjrYzbC0hiHfmfzmAI0X1cC502KsG%2BPIO2jVdbuiDDcVBrOTNff1dsgOlgcHCLsSDWhzPSlkj8QFcxg5woLqGsh1ZFnQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=35062789618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 872L 미스티 베이지 (M874GBB252)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=G87ppJoiMT3lN6CKsif%2FA%2F%2F%2F%2Fw%3D%3DsBaL5%2BUFMtqb5er8uW75q14%2Fv6bZ4mCud%2BaQf3ptMAs5s5nCytg3GiMUMnBaVqBbJpv0lqdAv4ux%2Bw3R0Ifrr%2Ftof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJ%2BTLfswkEZpCQM1Jp8qzRy7XtUVOw4yE7e9RQY%2FmIIS1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO72gnCTFHWyk5QlRQBv65dazokh7KNEkkbwBBKOUFOEEqY4TjxP3vUUOH%2BRX6AEuqXYb7IePQCFNOhO5xJtvzkEyI28QDIftdPo5sZ73mZF1TkP%2FynBMeXJuD37T7Rg0HhU%2BS0FGYmxucVEJmhFq%2Fl%2FyX3Mh3hrT1IxsLLnDeuphijriJ8H0NV5nx9%2BVr0aUV2Ttzp8K4bOzBhUkg6YuvTIOkD8%2Fkd8At1M1cH4Y5B25OIDf9TYDOC4LzgCehLsur5d9mUGz2EJk2Py54UcI2RJj6buwbqaHZ8C0T9gQzEJqNXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=40369362622&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 875L 매트 멜로우 화이트 (RF84C906B4W)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=wLHvfGIFDUn1FSYtNPsJUP%2F%2F%2Fw%3D%3DsBYtskvV4T%2Fk0IklHWtaO6DTiogHUYDPMTAIejcwMRGTnSaHCvCuoi9wE8SzWjVqEDOPF1tRQNG2SFN%2B2q2pCwx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGI4kOpmqmsYp3K%2BvFTvoU9HvB88kMSxX5eWmjUTZpLA4D7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9VJp6sw9FvJoojZphL%2FZgDiEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30its6XZcxKzp6RYoqEeCKr6AhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PGSidjYwi41AaQTWhxUxNu1RklQtQILAKIGh%2BCbxtxSIclNrgYR%2F3nK8uIyNurnBeuwP9L0j7YvHB2OKNn2rLcGX8wH3bCf1kN3tP68Mz2SOKU9LHSTjlMyHNQeoIILRcEaThcwm2jOjlPe7qD4n461n1adE7OVHVv1SNB0ymIw7fPZmvXsUaXv3s5LMaq1WGxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 615L 색상선택 (RF60C9012AP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=V9RvWA0B82uQNuPz40cIQv%2F%2F%2Fw%3D%3DsMZzDrCd64qeF9r78A4WKFYxdR4YWOvAvURuiydDmoprnSaHCvCuoi9wE8SzWjVqEJbtI5hh1TVyWqTJ4Dj%2FSph4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGIaBXUOZ16DQCmq041Vnlq45vdXWmPhaJ7ssPTxf3UPgz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9nF0Z6vDsD%2BMSgYkLbFXFsSEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30oXFLKnxpioHHb8s7uLtBFKAhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PhA0ypAJrWfVksl4iqxVGQyLeLkXlHdvfWb6yFGFqB8ujriJ8H0NV5nx9%2BVr0aUV2uieyU4K4KG4Jz%2B3zRbOr9M3nqFGKPXPUpcJY4hDlsnOIDf9TYDOC4LzgCehLsur50%2Ffz6qUMP8UGCabC090%2FzzZGovJKZ09zZ6HQEV%2FeEXpXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=39336461618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 152L 화이트 (RT16BG013WW)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7IAjVe3gVEncPDM9pPZQ7%2F%2F%2F%2Fw%3D%3DsZxv5olx08mEkFZIWENhzIzbG54ZmFjcb%2BVbYe3zIgBlF8WVxfV%2FmwmnX7Mz1na4yKxSk0Jk9jL%2FA%2FN1j0jQTPEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuv1pbV75hoOmp5O4R9fA%2B%2Blz%2FPtcLnsqS7PcpVsDUdTmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Cm2mOUBRY6MCYLV5pIh64WovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRXn3jrxsrMMIUvooelgHGr5w9%2FDMX2S1ZzF2txO07wpRpHXyIsSTywHLD8Tb8TMCz1sWLT%2BPCFJezskCBiKPS%2FdonIL%2B5Fo3%2FQA4BLCRM0bnQhkQq5hqDy7JCEB8cS41oPlP3Xx6sXQzJ%2FEz7ZDihLbKTFmG9ZAZg8Y9itzKnkROP9ozmdV%2FWs5eTR9VTjChbmirj5WXbt1oJZXyKMBVRLQF14Ja8chSjyRVsQnCf0OEOEsHC78VBLnFZh%2FnDobeN&amp;nvMid=33211662618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 메탈 그라파이트 (RS84B5081SA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=oF17x35WNXuh5gK6EXSfB%2F%2F%2F%2Fw%3D%3DsBMSdEn72k19CucElVJFamZY1i5%2FSrND82Hym94BzUF7nSaHCvCuoi9wE8SzWjVqEhXk1b%2BJG3bhCieBV26%2FhfB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGJC0yViNOCCkIFvtPDmocyqBZHyVivOV%2BDf%2Bm9OpJchkz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9k8tdTet5ciO71t0nW6kKzyEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK304Wqob6nHHGOFmG5hBiPXA6AhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179n4tEmTBKdV8J6%2FBfIomm8Nd4RGJ%2FZczbn4%2FAJfPNexlpNpAPshcgqD%2B%2BT0dcZw3euRhtP5%2Fm716GVxlVFmEHSadE4nBDsUQT2%2BWrGwmj0QWcq6enkN%2B7x0Gu238VsCLLUv4YGjJCSIW1IvBxXT1wG95gpcmBzdr%2Fg94W5SrSwXURssqa%2F2YDO5vZvpsi4fmWZhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=34900184619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 875L 미스트 베이지 (M874GBB031)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iPjayGYqHzmN%2FyWwKcTO2%2F%2F%2F%2Fw%3D%3Ds603S5MNbnzpq7u3GBK0ey7lw%2BJTx2E6j%2FrY6gxMsGvxF8WVxfV%2FmwmnX7Mz1na4yF1P4dCkqUU2GiRZ9QVhdtEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit2FfHqkQdKe8ajElHiKBwC%2BrgSwxRMHIe7JjJCDDVyB2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6d%2FrzvK3vqIykxdUwUjl3mmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2dDEpgsggrjsTrcQv6YHTkJw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RJeCk4TR6UvT%2BL%2BzQSmFeuUx6svZoiO9pIFvv0SyrxDL1XX6%2BKKmeSODbhgCO2lAxHLQTTVRGXwiTytJ3yER8Lg9v%2F3FMkEnpopW%2F87UZ3KgBhNg6pO%2F%2Bw6bSRwW%2FduOkNpZlSI0O%2FocV4tiZbEMre6Oerwcbx%2Bxrt%2BhUrXALg51vU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=40292474626&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 652L 네이처 그레이+네이처 화이트 (S634MGW12Q)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Zd9OMzYfmvQVCvbLGPDClP%2F%2F%2Fw%3D%3DslnQfdku2KoyJBjMJ%2F6NKulk%2Bj8gyCiyn66HfFfqzWHRs5nCytg3GiMUMnBaVqBbJWLajyiAdVyR9m4P3ONi%2BVNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIZW48d36GoLC6Wczajv%2BT0qTLQedx7kYxnrjge9gP6fFfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO72V4Lz9zgnNo1VAS8xpITCjokh7KNEkkbwBBKOUFOEEoBzgkgtpNKji1%2BSRhNXvU56pecOKAwYJ83p%2FU3%2BrhzlSI28QDIftdPo5sZ73mZF1TtY6%2Fa2RZCgs9aM5EXwR6ZUOnviQ2ySmDxJwtRSLULoKb7wKpZX5T%2BRx%2BOcaTaCJn3cRsnGvxdM8YptgRprGfqx3YrbVHCMuJnFUq2Ez5TDF9eN4T%2Fx9XzHXUzWRKNFzXFAuTY0hOaYzf07s3Urgs7UTeuJgZvRvEK7gZCw3B0%2BqkFLqGliajfxCk2vLXQI6HdTUHzkw5asdYCRr6mMMAz11SkXvPxCFL9O%2FobcETkVA1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=37733299619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 875L 색상선택 (RF85C90D1AP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=G6U8FzNIK6O3DsRZmvDAMv%2F%2F%2Fw%3D%3DsPeU5PEVPtJ%2Fv7vIjCnrPBfrDwVqnbIiE0Sn2h8TlzpBF8WVxfV%2FmwmnX7Mz1na4y9kZUuXvCV1f6bZMFJFv2HkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit12TN%2BQbcX%2BpvOaZpPHqzVO%2BAD2gJ6R8Wt9apvwfpIuWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6mHCJmQApmM5%2F4GoEXD7b22ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sqwP5%2Bbj%2FzGuWSNzToSiSZw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RFujZRC%2FtKiE4UeDHWg2a9qvheuq8n5bAFfRNhIKzbTjmCn7qH8D5T6ZB8rfWSmcVoyrAvHfwzgucniqQrAxRJf3%2Fn%2F2CkVODPd4AFGMIYswSzxwVRNV%2FYRemZK5z1sCEEYCOf0ypHkX%2FieKp%2FqsdzVVCrN6WclRao8zZPsxkDoPNjqh%2FZemCCOboDhnweAmG&amp;nvMid=38722607619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 4도어 870L 네이처 프라임실버 (T873P012)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=a5XyU4prIpccwSYjrGJmrf%2F%2F%2Fw%3D%3DsvGNTIgmz2190fdt%2BXFcmg9VS8g3UocxfdX1xRpK8RudF8WVxfV%2FmwmnX7Mz1na4yo4IQamAWjAr1kIDvhByJQkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisqodSmC%2FwiHP9iR7Btv%2F1oPhcVTWCnpvJZzeT49ovbhWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6hqr4nd7VY0nj1lB2K8lKomovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2e6TNtCSWqZgFUL5aygoXXZw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RrsVQvu6EJPzSZQ%2BSO1lY6T0YdpnE9NVhHEQeoCFFBQvGo9hzxOqeSZ4OlEFSUyKxHCPPlSOfwACW2cneCySUotRv6RHddW069x%2FtOrlnR2mUy967mlSa3mZfqZTLi6Dq2znPa40ASW3WW9eFoP7eOsF6hgInzyVDRFll6jrDtiwIGsqEeZy8d2yeE1ngmqjNHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=39908661618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 클레이핑크+네이처 베이지 (T873MKE111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2FREg6nTRmKixchMOSvkOsf%2F%2F%2Fw%3D%3DsabK3KeLhO8rf%2F0ySA32taUrAw2cKCvlrVIC1N0NBXKBF8WVxfV%2FmwmnX7Mz1na4yYghRY3gXYhSzJvggd%2FpFq0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitZ%2Fv6phaWNCeGCwJiseLsoZwjtvuBXitLu%2FRZrY50IfGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6CMX%2F6o98lJ62dkD2ITaqoWovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ZTy0PcCq7zE8FbjiERTYNJw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RG3Jg6nu2PafbFa7lX4pE6ehaNGaV5BN0Io4EeH6zKFJU4MGSBBTh8%2FN%2B8Z8zIbZ3a78dobiqSbWCq65sTQv5duYKfuofwPlPpkHyt9ZKZxWxOB0pKKcWq%2B8u62%2FKsdHrFz5nmbdR6Z%2BgF28vfhQFrxLPHBVE1X9hF6ZkrnPWwIRf%2F4%2BE%2FvMVSeo0Fb%2BzAQxbrMRPeP5nCZfhR2aH1zeC4c2OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=34100818619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐리어 클라윈드 KRFT-122BBPWO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0cdxrqirkXvMFmAx%2B4MYlP%2F%2F%2Fw%3D%3DsQZFdO%2BN5mM9ZbxnFkpQ%2Bx%2FXcW%2Bygq8nABLgQX6SofM1F8WVxfV%2FmwmnX7Mz1na4yWSFo2cM7SCnglXXsJXtDdkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitd9ohxfTD2AC0cMsz14p9T85fNzsALdOhFwbNglB5BDWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6rmw76ob%2BBCS6BqHjNOWkG2ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRzclfgQw%2FcZALe49Jjiidq5w9%2FDMX2S1ZzF2txO07wpQ9Wmk7waQoHpDnqEyWkhKQPlUUlB4ul2hLckyAwbACbOgn6%2BBEatIjYxhbM%2F4nptMsOzggH%2FaeaGcGCqLcLI9YnUpTzmQTeleeE0y%2Brv8xbO91olD2PmZ0%2BVmzkVVGkRQ%2Bs067oLrQWmQdlwHuE8Q%2FA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=43996282620&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 퓨어 (S834S1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=uy%2Fja0J7qSSIe9WxYS%2FMZP%2F%2F%2Fw%3D%3DsKRPqvVXF%2BUAu7C3YLrqJU98Sj5GLrma8ejlRtVTWQwJs5nCytg3GiMUMnBaVqBbJnG5t7X4h2swph%2FPf%2B74BT9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWpf4lxGTuAlFdQ%2Fbaarm%2Fyh8WYxvKt3nuHidxij3woh2FyI9PIvx70%2Ba%2FM3eIC5ucSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI84eXg982nRELY8hjR%2BGilpZMrnWe3Ia4XcYIXSEg4EVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7dJwu1WkFwM%2FtEFlnJQqbPTokh7KNEkkbwBBKOUFOEEpdWE%2BeBRb%2F5AFEsHrTurwihtDdVj8VFCkpXnPpT8M6WSI28QDIftdPo5sZ73mZF1RlB7lP1clgsGfyJnSjRbHwwoAdbvBM8ZN9kB4hWa89%2BR3e23s5NPGKBu5eV1heS3BGG0%2Fn%2BbvXoZXGVUWYQdJp5lWwJVa7rjbXHf7wqUb2wOmuDig8xyumLpungBoyfja%2FhgaMkJIhbUi8HFdPXAb3kGeYMigj5AY8PwS%2BOLTNPWyypr%2FZgM7m9m%2BmyLh%2BZZmFbDf4gHI5rSMJU1BWcIOg&amp;nvMid=39589472618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
     <x:t>삼성전자 비스포크 4도어 875L 색상선택 (RF85DB90B1AP)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=6ks3pzQSc1SiMCGB6y9KSP///w==kfD3CeOyJErnF/G/hn3KXxGfH5/qoBGKMmBgPv6BG9rnY7da7xcYVGwZi0ThUX5u3fH8lH/n/XJUrH4ePvldWG+p0KVm+I54+PKF5Ue0Ys5tNbDLrD5XqexKdBrVpxRuJbaSIycFxO18Hd2hbC2X8nJ/hNLvF0crq/ODjb8Fs7ajEicT1etCRLeVeO8z3gUrX7/6prZlCKYBUHTgntvMA+AnngiY3qNlSs9NRrxGXnlXZwabAattlAIugcC2ATFFKhpE0dvT505eFBPpg2rYQ8XiAJYVSeh1iyfoNhDqzdGcgrubzrxaqtYS94Bw/UyNcFwu+zU/5aMa7igfErKeg0WZisBGgYcZlDh44nnuAMfo+QHI++R89FLKAOq5Kkp/jMbBLq/o4jh8+Okt6xBU7lVNMYHbq+ry7If3Ccjy2zbNGXcvJvKqTW5cbYyISbBgS8lAunp/TILlGimZH/cdArjxO8uK2nTE0azhgcWSchF9UXDyZdK2DmlRCyVYqvcQ84CNt/S119D7qAOChDY7U0OxamrbuaMqwBM83SN88ZP2JFEz5DF3pUP0VL6jvae8ECfQcNKPUYwJ0UCtPVg4yb2NklfBdV5xtUx7vKdxzox95HaTZeuPHRQr7enFfRvCZ2Zg+lhN75kLjnAlgPXLYiqjTzobyBmtZk9+c2CJHJGFkoZKG7FgCVYaY8aVl28dYCao16w/YSTR+OkPRoFqmkL+e/81hI0Z2BW1LYzyi6R4HDBaIY6Gd/nggBhgizjH1ZtXIIR/+0bNIQMbKdPKbbJyO5+4xfriDM5P2H/+YQl2thb3bFGHKbHGK9WA0sWtTXMOFRp7QjNVfS01UjVNAvw==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 디오스 4도어 825L 메탈 크림 화이트 / 크림 그레이J824MHR003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=Jgg0T0X9klCduE9HWicwwv///w==kfD3CeOyJErnF/G/hn3KXxH7vS3m+1GlwTBhi5hUYcSU8SByC+30e1EtsaMoh2cQlH5CVO9/2y20IGRZMCYD8NMPKj3qqzR+Ox5uGJlNoPLtul3NnSEuTpNQBd652xfNmIuSnV3IEksiD5/hp0jv+5B4euIzodge1S9UVT/Dvgm/MkPrBWmU6E8PGb+oHhqDmJmaZmX405AteyVev2bas96ovRcVIqM5/rdQ51LMvYt9KjKobKEus2qgJ7XQOG2k6SmxdzT/lyjuHz9jraGL4FJWeNXy+I/ti6gyifwtGZxbcrhAlSsUtfYw06z54yvWNgo3mGnShiSL5u8pUqMacyTp62NbsF0p1YNK8VvXAWMSyjKb51JyP/tmzjdYmdZN2ZxOML6rV25yijNFOdOoJKrhkHVCvg4sfaRjlvJJFNUPlXVUhMlv4PcQ9W70/5Q785F3KsW4Te9vGfIci7Kr41Mpm6MLriN5LYAv041J3z+YnbfyMw3v1iWsZwqgr8dH3DywBJvS0Pt1bxAkI0D2RFz3V5NrgHCVRf6RG9nyi6vUl25nuF9MuQv1bnkD2h5hZMVguutM3DsW0DvliUjlKS387eg3z2plrUScsPtqcjNnP6jnHUAQbms+jCvp09wn4PJ8UEN4sX4cL+iFNKOXB7OcomqJx+RQ9b9NOkuVVWDSPn+HaYX0MYV/h7RABGqKktp1EReMJ9wMXdgk/oK5XTMaqS2dl0QyJwDp63DiUqaPrg3/0KpzB3x7XATgLZyBkAwnDW85WWJH+m3psEOB4lFgvK+601Ff6MHCfYDVN/WOSStZCxOuPzu2YZwDWGwDm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크 4도어 875L 매트 멜로우 화이트 (RF84C906B4W)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UEscHwwMZrrbkfsWGQPAs%2F%2F%2F%2Fw%3D%3Ds9v7RWLAYo2ULR1Q6WfhR4DTiogHUYDPMTAIejcwMRGTnSaHCvCuoi9wE8SzWjVqE%2BNAkhLAq3DSmZ1euWhzbpR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGI4kOpmqmsYp3K%2BvFTvoU9HvB88kMSxX5eWmjUTZpLA4D7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9jkqf1bKzmYESKxVpSXcCfyEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30its6XZcxKzp6RYoqEeCKr6AhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PGSidjYwi41AaQTWhxUxNu1RklQtQILAKIGh%2BCbxtxSIclNrgYR%2F3nK8uIyNurnBeuwP9L0j7YvHB2OKNn2rLcGX8wH3bCf1kN3tP68Mz2SOI5Iw77TGAJp6SqwPR7gM7EaThcwm2jOjlPe7qD4n46xHE4MJ8OgcYfdzkTWudw2iX6dUnj1YuXpDiNB2HUbUozY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE312)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qkia03tE3tGVUssKN5Bomf%2F%2F%2Fw%3D%3DsDuvvbXqjrPpZrKvppmArOGzphkuJmINdhdXA5drJbwxF8WVxfV%2FmwmnX7Mz1na4yHKgQbWvThpWLqeH6HaGS6EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitsaKD8pw0%2Bb94uB4Kq%2BP2b0y9MZvJNTV%2BO%2FSn%2BlZ1pdmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6ELSuCWkrH%2FRFu8JBKIZNjWovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sl94Slk09moK1slhJnJN15w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2REhwIHxCgBlR07cEV0VSC88G2lR2zcNaPOqlm%2FFfAi7xo95Av%2BLcv4OKi4jngHI9XKiiuYY5M%2FPx3LZmNUDACgkRKs3OEGgf4qJqiEaCbaJEBhNg6pO%2F%2Bw6bSRwW%2FduOkL7UJv66kMNFqQ0lelbfRCJGFX%2BNR3c%2FP%2BU0qrNbQd04DfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 306L 엘레강트블랙 (RB30R4051B1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iW4HnkEB0qQZwrh%2FIif1sf%2F%2F%2Fw%3D%3DsB8HpKUBx%2FxRZPsljyAQdFjh6mt9%2FLu%2FFX6iOZZDQX7ts5nCytg3GiMUMnBaVqBbJ5XjNZgjBDWo2pANslV025Nof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjL5lsEcpnA3ZDH8ng5y427XmAVRwLEA94YP0spFNdQuilfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7wlCRud72a5Nd3BaBIi795Tokh7KNEkkbwBBKOUFOEErGIKQIFXVAm833RiRKyLZxLx0O8EtZBsImHdgIlKtyxCI28QDIftdPo5sZ73mZF1RhzSE1nMyaPP6NUTqzLMmPGT3vE4FiczrTd9ngDCh2t7nvE3Mx144l3a%2FhasSNjwujriJ8H0NV5nx9%2BVr0aUV2HVvTez6sIJ73tVeCRUBvNqz47TdCvq%2Ff%2FdQcpY3NAdVicchwRNwmJ84TyxvjggzF6AYdeyoGiDsg8DcDvjMi68%2FspI7yvu9lXB%2FZy0CA7gnHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=20858302566&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 255L 엘레강트이녹스 (RT25NARAHS8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=N1R9vOqVvL1T%2Fr3L8psJ%2FP%2F%2F%2Fw%3D%3DsaTCKnHlzbRJfChSmiq29eIE8J3NAxLN6Yi9gRBLH%2B%2BJF8WVxfV%2FmwmnX7Mz1na4yowKyjJPtZHjo65E%2F2tCt20bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitwtDlrotYNuwsDkGcTryte020LshGE86i4dVxRiaO8XGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ68FM9EFweuMvEch%2BhClgxk2ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVR11rGmD3OM008LDaadqGjQJw9%2FDMX2S1ZzF2txO07wpRo6%2Fjt56KG%2F00N9ifMUvDVyJ9vVbzATaOCfZA32cKg0dRGtZRyLRf%2BICeLB7w%2Bw9Hf2ToiObO3mxprhED96MgZXYNM1tt5mbGWgASMnd1eWbJ8XU%2FXLKegJ7fvvqgeCnBP4PMPHCnudPTZjGRUD3iUwK5IvvuXBQyBDZOK%2BIQIt%2BjpFuJ5fjc%2F1GKAcJAYZJo6HJZQgjI8VSlbO1R88zJ2DVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=15410881070&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 2도어 507L 메탈 샤인 (B502S33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=s93ZNfJ9NHlc0%2FfOCnoUIf%2F%2F%2Fw%3D%3Dsbu%2BEpE%2BEDXLfHs1o6NgPcVVUyc2LTAIewP7Y%2BZOmMe9F8WVxfV%2FmwmnX7Mz1na4yW6PRwbR9x3Y74F0QTJiZckbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGdh5j9x3CP%2B%2FsI7PoRPYKeGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6%2BcPtze2b%2BaoqTxej1PEt82ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRbhrw4L%2FfiW73RMa3%2FQP5M5w9%2FDMX2S1ZzF2txO07wpQXfA%2BqoZXHJjjPa0zXpCu5w2NapV1pNMincm78asJ2hhvWYxgj8YP2pAZTIszJedTQhkQq5hqDy7JCEB8cS41oHcjbB%2BIDPt4iobps50KDJkBYa7kqQwbXWXUc0Qkn9cMBIhskkcnGy1%2BVSfXfhOSQlr1K0msc1ryZh2rmZIVZhpd%2BxzoUyvEEuaMm%2FRtHG7aCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=29633390624&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 652L 네이처 크림화이트 (S634MHH30Q)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=L%2BcabSaND%2F%2FxSZBSuzHYEf%2F%2F%2Fw%3D%3DsRqNmgaIwk9iS12XHApU74Dhr1mHxkAVUWWU%2BzmSh%2FNdF8WVxfV%2FmwmnX7Mz1na4ynVpAFtRI6n0baIbR3Ff6wEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiua4967t0gkO2Oz1aZtWWQcpOjqCOyHaHMYLrZo9wVKSmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6vzbzQ9GD6PzO9Dz1Qq5V7GovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2dVfgB9UCDyvbnauTt%2F81Tpw9%2FDMX2S1ZzF2txO07wpSA%2F6NPDcRFe6dAz7eU1c%2BjR7jObg2hlNcuRGTK5hFhW5e%2FkJ0Xh9S%2F4ImuWlX4MYuj6ScixUxwvOXsI8yot9%2FeFn1EUNAm%2BhUR%2B0D%2BiAKZ5hpCqQ%2BzZNEuCh2%2BQxcgu3sd1az2%2BnDQEevzbRazMRCHsgMnDFtmjbz2PmLh9BvAeWz2ATvLlmOzOY%2BLuESKWnKXfsc6FMrxBLmjJv0bRxu2gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=32710965622&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 디오스 2도어 832L 네이처 클레이민트+네이처 베이지 (S834MTE10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=2%2FOLLnjdw73HWUc9fTjXQ%2F%2F%2F%2Fw%3D%3DsNCtln7wwHsc4r4gs0ceiQr4XqsOKKyEaAPJW9XkLuVrnSaHCvCuoi9wE8SzWjVqE1tGN%2BVoka9Sql2%2B98RYwhR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLXFmf4iQqAeVfGl8ocLgf5L8BO6mjBsNMwEz8%2BpkpVeT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9ajHi3SCHWwi%2FLdzBmOODayEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30O5C9wM3W0fILnk5I%2FqHXbqAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179ndN%2F0D0mb0dqJE%2FbxADvmAIajtd6JeiYjiST3JSHtfAgTlhJTNAvbJsjzMFz2utTKfTE7EM%2FbsZhGlEAOdI4YEvI0fIFRfBZUPaSLRPGc3PLRGAlqbBL83LwsYVRbL1pQilIa1jX4PtWSa9kKLEf1RWJxyHBE3CYnzhPLG%2BOCDMUbMNIXspwIQb24XUlvYYdIiEAApAPlmVpb%2FdEc0DaI1McgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=32716524618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 디오스 2도어 832L 네이처 퓨어 (S834S1D)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TB0xcvw2kQ7xH%2BIVJob78f%2F%2F%2Fw%3D%3DsTvMayoRHlX%2B2BBtb9muDo3jgVh552isqLX3H2shw2ntF8WVxfV%2FmwmnX7Mz1na4yohXpvxhgMhhJ4a2QEJLpu0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivh1nxxswc4NYfPbxMPKazGBNeHDLpErF7SJY9e9fCLXGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6x1FKV5bualzS5bUHWtoPkmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD22BqJl%2FByTm8hKCvBJt%2BAdZw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2B3icJNMakNL23UsU12QuIj%2BhzEbaLwgRJ8xEQeb7tCL3mCn7qH8D5T6ZB8rfWSmcVA9tBOvLBPNSxp%2BLqJr4PWUsWnXH5VUzeECHPZWxQb5WOv%2B%2BG7P8zZs54SDuTec41mzAALt487TYrpeg%2BNr%2BacSx2bvUDWomdapSGiuv2hPrLVWGr8fvvH1mWvUgXPK6j&amp;nvMid=39589472618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 2도어 300L 샤인 (M301S31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UAkS%2BFmDzg%2BZoIxPlbp0%2Fv%2F%2F%2Fw%3D%3DsrWRC1iUxybNX%2Fz%2F9E6gFQo3p6LTqMRHoxpYI7JGIyuFF8WVxfV%2FmwmnX7Mz1na4yoslD%2BQiLPbBVqxfxttkYT0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitVmeDCAKm2GckU4K7k0jKyeT774gUS59PoJPNwAP4WT2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6nuLUJOC71uZAFWjVK5B%2B22ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRmsNZyrx1BTwnrz3TsoWlLpw9%2FDMX2S1ZzF2txO07wpSg6TfFE8tXklgyaN0Crzjez3fKP5HU11kahRsSqBzAr%2FVdfr4oqZ5I4NuGAI7aUDHQSSOCpscOJQOSdiSEFpHBNmnG9KdKkDiXDIJX2EBpW51KU85kE3pXnhNMvq7%2FMWywKMfbAVzw6QRszqfZR33T7JQ9YADwhm%2BRTfTOZ1aCZlaFndIwdNwuWmKtx1HNSCrUkiyUGZ3FpPHvE7X48%2Bhb&amp;nvMid=29519696624&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 2도어 189L 화이트 (B182W13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zC8OxdVakP3CAwORmYqxfP%2F%2F%2Fw%3D%3DsYUVhaYcTy9Cj8%2FV%2BuXFlJSVNg7mCZI2WTa95o1uwoNdF8WVxfV%2FmwmnX7Mz1na4y7ywXjgRo5bjhnzDoFD7xd0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGc7800yq2HC4mwSt2ig%2FgJmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6fm9MZ4Rkcipl43KeatFuMWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRAFQTahWQqzU%2B6P8CSx7V95w9%2FDMX2S1ZzF2txO07wpRPx%2FqwD4ONLJpg1RRd2i%2BOGQ35xLM%2Bvzm9qcKnp1RBLgvsslkF5yoqRzyAGZSqAzGyaoRYsjA1z7t%2BCLfYAg5pDtNJvcgJLq3zpoMsosDIOE%2Fg8w8cKe509NmMZFQPeJTaeVo2XIU4DGCi26m9HuF90CJ5UoutZ9pg0ckwoYM5OWS%2FBl5T%2B7ZFO5CVVgNUUsIGruH08DlKshetxY8KUEZb&amp;nvMid=29633570624&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 클레이핑크+네이처 베이지 (T873MKE111)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2Bl8oQsLf0uUgoTkQXJQmd%2F%2F%2F%2Fw%3D%3Ds9UHE7B4WLE1blusohAUYXMP3K1qjWCCWZ4oUY2FXxw3nSaHCvCuoi9wE8SzWjVqETiNv5XSX%2BYH3%2B%2FqvBOvfZB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGICq7ooQebAgKH26k6k%2FHRoMpGtOzwG3UQf5trLhlHJXD7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9KjpFjdZfBje5jHgYCJhR0SEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30EcTN30FXFR1zU2tBCfhcYqAhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS6pwb2m7bhKM3Mw%2B%2BCDYy%2BgTlhJTNAvbJsjzMFz2utTKprvh6oeSuaI3FNnvqI88lqOuInwfQ1XmfH35WvRpRXak3%2FtLjkGHEBYCI3dd%2BD8JbqVPR%2Fb3EY104BqnqI2lW4gN%2F1NgM4LgvOAJ6Euy6vlhBQgFyZoxPkLsMzg3PM74c8tk0y%2FDisJtnoiyvcX5NeR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=34100818619&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크 4도어 900L 매트 크리미 베이지 (RF90DG91114E)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Pm5YLIAp8Z44rBCMUoRENP%2F%2F%2Fw%3D%3DsiG3r4djxKW1vMaCC8qHmAUBBqDBva8aT5CEd9MArEBps5nCytg3GiMUMnBaVqBbJcSS2DhICxP5UbZDvuIv64Nof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLCaNSnUk6PM9xBVmuEGe3x1o05%2BNr18aCt9kPyrqvpbVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7%2BixdoPW%2FTqHODcor2VkVGTokh7KNEkkbwBBKOUFOEEoM2DNy1Oghb%2BFcuLFafGbB%2B0cfiM1Flb7G2U1B%2BHX0lCI28QDIftdPo5sZ73mZF1TTLXHAxxhpwuBP39VIrNscKKVTm1IsGwsyLb%2BcBdaEhmMpw0B2ExBJ96xs9TvZh44kZ0CmQpEN4v%2FnKdW9oShKFn1EUNAm%2BhUR%2B0D%2BiAKZ5i6ANP6z4qCtz4TJIummag881Gi44tUFH1uRUKbnASPQezdPirNIEhU3YcDKwV2g5GDJdTiemk%2BM%2FiB7vm5sjtEvdeJK%2FqrwPt8z%2BwQugHSiDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=46364964618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 화이트 (S834MWW1D)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=rE%2FWRVASd8xklNhSczApSP%2F%2F%2Fw%3D%3DsIZHUDADmHy3xvbhTXOfKGQIVGPqD64fovqpsOamAQAznSaHCvCuoi9wE8SzWjVqEsLB8JHlQ%2FXo%2BTVCpZ1amjB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLfzGmWaArtpYzdm9vrlUvoGRubvWtytvCc8hIDlIn5TT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9Zm%2BBqUVFX6beDgWINlADzCEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30RUYOCp1iJVL1hbZ9toA1fqAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179ndN%2F0D0mb0dqJE%2FbxADvmAPdpbJ%2Fq4EigHcPHpdvNEORI8NUOViPE7dVy%2FWCqsrPq1bgrovP75GcQ%2F7yqjSJPDJdgZoYtqdAvsG3XJa2YnO1P4PMPHCnudPTZjGRUD3iUmnn%2Fy8SE0yuNWGETg9CWXJAZ83jGg%2BXJKRjYQvKs%2FZC0o3R2VVeGwt8FQZtRZSYSBq7h9PA5SrIXrcWPClBGWw%3D%3D&amp;nvMid=37620666618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 344L 메탈 크림 화이트 (Q343MHHF33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=eTrQQodHTkEdOr18E6Bos%2F%2F%2F%2Fw%3D%3DsKCMNuwxxidWfvvDAEFAs6eN52q2y6uyKppWVBDG1MGJF8WVxfV%2FmwmnX7Mz1na4ySeuadMrm%2BIDPg4Ao7u5d50bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuuvTcPwXk6I2n4N2bXpUp0LI7CcZCsG%2BRYJ%2B6HC2EF22XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ66BOU6vUQeX6oYj0bVZ9QCGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRyxFes7E4gHFy2eKHI7T8L5w9%2FDMX2S1ZzF2txO07wpRPrnurMwJUXVZEhMVaQNdcKATgRaT2yOHZpwi4VpcS1Mh1lpGoypLjPKgXc2N93vpkq0WWes3u8ApL6VNtUzlJUMz%2BoYLE0Se7sY9UszUAjvjFS%2FxTwe%2B1w0HqfQsUl2%2FC0hiHfmfzmAI0X1cC502KqaNGIg5VfeLo6uSAHBxLJFtuREMyCQ1giLZGxlpCZIbTav6R3bO8xhFzypS8nH1oQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=43583415619&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크 4도어 615L 색상선택 (RF60C9012AP)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=xV7G8mB6ZfY%2F4iMvRm8puf%2F%2F%2Fw%3D%3Dss%2FaetFp1nMROH%2BkLk0ZXAC%2BnJeHKuRel0BLAJAAERuFF8WVxfV%2FmwmnX7Mz1na4yOIEzS%2FA1vP8n7NNNcUc%2Bi0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOissjAn%2F4QQ7jrf%2FopNoM2cKpff1xSIW%2FVcIkXyDOrtIi2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6DJ%2B%2B6j%2FS7TiBP01BwFCzP2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2st2h3%2BHsCVXNXOATE80FZZw9%2FDMX2S1ZzF2txO07wpQbZ3YCPkxqoBmrR4QJ91OSFujZRC%2FtKiE4UeDHWg2a9uJcsK2meq9hEHnJRdTYvADmCn7qH8D5T6ZB8rfWSmcVhEDrzIvTLHksHe8r3GKZ4EuCBQDrcR0OvovQzXpVW4oSzxwVRNV%2FYRemZK5z1sCEN899K30%2FkWEfLzeO20zIiLG18w6f3IBFFooW%2FMwFkg%2FNjqh%2FZemCCOboDhnweAmG&amp;nvMid=39336461618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 832L 네이처 그레이+네이처 화이트 (S834MGW12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=86B0FPeWHio1v8qDqMM4Av%2F%2F%2Fw%3D%3Dsz6ro1Ksv9vRrK38SF5CbLrS9ovT%2BJBND6qDAWZ91sg9F8WVxfV%2FmwmnX7Mz1na4yZZvKheDwAvv5%2FjMVUE5JnEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu9u3y2GPJSkPBYYcmEjFtybg9NERTy%2FzrWPaDwq5mW3GXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6WX7InhzCDueGm6SewxMBfmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2qcOve%2FyNfC%2FrCoY%2Bb2bkqJw9%2FDMX2S1ZzF2txO07wpQfNBzLMiaGJMQi4SGGmNEOHvjK6rD8q2qCI9vDTouWn0D4HERaptcWUZM%2F5ihRVDHhak%2BKbMQAuGcvI5Ux5BxNjDNnfEAE5Vzr35EhUjmrKvJTHY2HkM7aYtu19v2dSYqqSuX%2FmvScXVSra0tX6%2B9zwtIYh35n85gCNF9XAudNisQPDEsURT8WOclhfRqRGSL73OHHRn3FL9wqhiYM3%2BBDCRVW3oI%2FIjXECem7M%2FDPvkHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=39910219618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 846L 메탈 실버 (RS84B5041G2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=F1DmlYZaxXMEL%2BwX9MQaif%2F%2F%2Fw%3D%3DsoyXwQpELTDMVMJr4ps7gdEYwfE3kPkLCd7UsWuhXIDts5nCytg3GiMUMnBaVqBbJiwZn5eZrSAW2zJh%2BAd6jMNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI9miyK%2FHITtYmgFZfUPwYPc2g9ny18RzXycprbgHqkr1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Cn5%2BwFDFE7HJo%2BkMaqeW0zokh7KNEkkbwBBKOUFOEErddKQpuPeJCndk2JAXrm7DsiCtWmsxEzgUmojL0kO%2FtiI28QDIftdPo5sZ73mZF1QCVDSJPUYWHvuIXHW1n0ABxkufn3TS%2B6ImxTZ9ot%2BgnCEu9XjIPj6Ybdj2hI4I4%2BNdO9AdqdFy2Ji5zmh6xzAOzVpkL%2FeEupAlV%2B6awYYUv0QQRXDA4nZP%2FNrRis9crAD6C0XXk8ySaOQ0OaLzzIxFw5cDsh71SgNAkiM35bEcoBJRb0oVJAp%2BmgVwHmvNrO3LVWGr8fvvH1mWvUgXPK6j&amp;nvMid=34810591618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 832L 미스트 베이지+미스트 핑크 (S834BP20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HKzoERx6D4LEy3AAUPxN7v%2F%2F%2Fw%3D%3Ds4YiMlo9%2FuRPSxpLIk2HQ1zwmOSj3HTIo6modDxgSfxPnSaHCvCuoi9wE8SzWjVqE38gUkDTXT%2FjGBQlZtPXc2R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLp6GEBy53NRUYt98Ouk3scZUDbB1JW%2B67hEZI4Ubh4Bz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9quzLzqcw3Z7qmIr5m%2Fy4aSEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30cb6DLHYsS%2FTiWnneLQYsM6AhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179nEA53bCl1CZwNQJN54xUQ4E0xrzdlH9C2RK7BdFH%2BzDq566LYw%2Fefy4hY7RkMOQ9piQGJ8cdW1V1dS0hXlhRmA1tlv%2BN9CsmwP0JEt3IhB%2BM3AGIRfuyLFWo6f7sKw%2FlaT%2BDzDxwp7nT02YxkVA94lFyVHNgWlfs6meTBzj4WZ5DfnCz6zPgIoltx9TOzlZv3ZL8GXlP7tkU7kJVWA1RSwgau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=30615122618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 화이트 (T873MWW111)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=DffhfRsvi2IjufFVkXwlG%2F%2F%2F%2Fw%3D%3Dsf9DvYkiO5U37%2FspwJdsMiWe4eD1OZX6MVZqmpZ3BX5BF8WVxfV%2FmwmnX7Mz1na4yp3gnMTf2R%2BWFzsM6LmBnHUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitXpL%2F00aa0LFr3uRjRtWyF5Z48Jex36B6gN8neuAvNV2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6PYNSS2WdyfE3EO40IZ9PsmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2gyUq5ZqA6TTfh5M%2B3m5OxZw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RIaUyZLiXQeN%2Fe4boAzQs2QDwTnv1YFNYgqpUVpXEIQ%2BHfqy%2BHoGtHOBehS2r6v%2B%2FCmH4k%2BLExhAqB5zrWJ9hYTULDBOL23nkmrqiJXKKf4UBhNg6pO%2F%2Bw6bSRwW%2FduOk3MXchoqE%2Bc%2B2SXqK7OZon57%2B7Ki1ozTmIt4Qwc800kVvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=33366468618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE012)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=RaXrHvfZFugbtpNoTB1mhv%2F%2F%2Fw%3D%3Dsq07%2FiRHtqyaqIz8870fxJ3WRQhla%2F7ZWtICNR8FkBJZF8WVxfV%2FmwmnX7Mz1na4ye6E7PL9oqueLZqKEjeNrCEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiulNncrwfgkTVNmHz5GK4%2FH43q%2B%2B033G%2FOOex2lrrTroGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ65LZeSzxRAt51f198%2BzxBK2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ww5KRNnJTleLoC9MOplv8Jw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2REhwIHxCgBlR07cEV0VSC8w6Ha80AiN9uiyXy7SLKGH1o95Av%2BLcv4OKi4jngHI9X0ZC1QhQV7EvOzsXJ9jpdNv8EEbJhYMzUzBAMjX62mgQBhNg6pO%2F%2Bw6bSRwW%2FduOk8vAHJ%2FgCLLbbtcj7j45cd7n7RdbPsQ3ZyXSTelgMRmFvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=35062789618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 461L 메탈 크림화이트 (D463MHH33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=j/ib6abcpLV3D7ZswkGzC////w==knDk8KN3XpAPdAv1Df+VzGJCcZVWQhz1W/jyTpcsmDR+ul3MH2f5OXFXyF5UD8fENXa7zcmhegcVzSLYOpR7y2CBJq3aNj0mBU6/XB+6EGH3FhOKDgdJPE+olucSkxYBqMPaYv6v0C4Ot7nTNRgwLPf0WFkT5DAZ9PKjKduD6kK4n+x+QR2T1LgEsFgWuhAQjPCBddxLCmdYXx/PH5CMUQPj1Knztx/MrNOvpDcjWFan8lVIEQR/StZ/rWHRqkwBrGO2EEP4MXdqGfMhNddQzHV+ORDPrQgbAq35Qca5jYdO6YUCSHX4piutieivApFqkofHWrxg9EJd4ykFtOXegQqh93yyVce1HSsrqjQO/57zmfpm4tXC4CT3fWsUpiozhZHc2k36jjEUm76SNKQaxvrLO718gHKVub4PRoGjsJCYKGAPvPojz5MADSaFsnvsDE9E2PODzoSIWCD78LmNFuiKJvXkGf7oywb4UtBYoB5aWXKDnFUzhXaDQW3+motHcvNW96dmcLAhEYDgylymCiWKIKLxEVr/oplBfHgipeSzhRquA9Y/kRNxxgiUcb4TTvoAODsGaEZWnKSaPB8kUYW04ANTOwqqAvobHlJTGkdKAxUlX1riiCQr/qn9XXRx2blc/w84N2uS/AbTKKrkIrBOfHf/cSW5sk1OD/bgIlW/FHJptMbh18IODpN5D2AxADMCiqIoo3MtYb+EtkgY3Lxx6oVwtI+/XUmQiJEiQQa0SL0WnN+QgXT5FDj+9y1ugvsDQE9TJav51NfyFqETwxz9iNNAANyPTZlsvcOVM/s3i+uBbpTyoqBhxaembuEUDHd4wm3JoWu+G9H1rPXIOBQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 메탈 크림 화이트 / 크림 그레이（T873MHR111）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=Q7fPlv7hUig6LoeOMvESBf///w==knDk8KN3XpAPdAv1Df+VzGOW2u5XfYCoEF8pvEmnWsaVZgtlqrhXYBxF5R3avfGolY5xCa/W8Ao1mb5utKVLY1WfdMXsWDT6+6tdm3Qp5JwhTdkE6rQBX0OBrgaslMQwMnrvGZPldJePvvJ6N8pV9w/gwMmVib3KLRNN6efjLwCkOXZLGsb6Ut/69NrI7Woxi6hzca8acTprU7Qkn4gCq5FojGFiWZVSofdygEsLkufVz21SIqsPDdeSZpKAm4C63dlzO8c9aTPQunPBexx155q+4GFEfT6M7cnO3T8pe8FKhRbv9R2kSN9cxQSJKZky4d+lrcZvx8+2MpDW+gYEKNXR3qTJz91Cf+y8lg+DLjplDdHCNBIK5CjR6VKIUlnfRc3VwfPgYShrv2OX7z/7dsu5N81Xey5rJBln3/6edf4oD+laz4pEE9EUQKeLuEN5fDhn1L91NILNs1mbsS5m8XpPFtsvLdm8SZqHdF4npIJorFKdpjK2iO7aOYV72GWGN6SO97i5uSznc9i1BhhpBDmaOzItnck5niIZSVAl1sRJE82gAXZv8byvbbOZtwPlvCtJyr1C6UUKdM9WK4cuP/rXkWdmJjAMfoKiVgS4zdjFE94bdoX1jE+TfQ6EIFPB12eaaJfpjwPm3ZVW7as7ZHjgiDVBpxwNePcJJq0HBsu1YwuEBgpDaSb8YNuDPXxnFjgBedH4IyMUdAWCgiRTXwg6e5YE5WNuAU0iuDTrO3t9nrYFf8wZX7VJhnXfBdtmWJz0gYbP8H90TK08Fk72YB2sOxS304QNuipoo44DNKXCJhhPT5YZDWet829lKFC0/EDUpir5HIPAPU1vOUSQ0mA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 크림화이트 (T873MHH111)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ViJLQdGTfxX6sHpl18ks8v%2F%2F%2Fw%3D%3DsM%2FrK7avxgYb%2BHAkcJk9dXyiKvNwIMuRhk2b4rBiAcObnSaHCvCuoi9wE8SzWjVqEvRHlF9Tsh8o5YTuPP68loR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGKkcor9NyOVcju7jxhNNCcq%2FF6SegwsknciUh4%2FrPCyFz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90GuN2DWQXQQuNlvbQ8J75SEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30uhEYRgte29zy5WpLy83jT6AhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS0RDz%2FaTFeQ57qoHOX7MOR1RjYzBGXAMoSzyWB%2FbQzd0tgJGYq6tRSbpqUn12MPwvI4%2F%2BdRqN2EAnIrhrab4xuixd%2Fj1Nfh0u75ceFUB%2BxGFjr%2Fvhuz%2FM2bOeEg7k3nONTY8EMbutPp7Nr8yptUHsPuCHbsuYvkbMyAyM9DcQm79aGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=39286072618&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 875L 미스트 베이지 (M874GBB031)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QKZzhNXiYrQzG4HNnhnkmf%2F%2F%2Fw%3D%3Dsh7FYkyiG1xN2yKBYTGZorLlw%2BJTx2E6j%2FrY6gxMsGvxF8WVxfV%2FmwmnX7Mz1na4yZO8bNluP%2BsQE30ajT6Z0bUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit2FfHqkQdKe8ajElHiKBwC%2BrgSwxRMHIe7JjJCDDVyB2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ65xChKc7WPKkLToexUITRPmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2dDEpgsggrjsTrcQv6YHTkJw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RJeCk4TR6UvT%2BL%2BzQSmFeuUx6svZoiO9pIFvv0SyrxDL1XX6%2BKKmeSODbhgCO2lAxHLQTTVRGXwiTytJ3yER8Lj7T%2F11lx%2BFYSB%2Fx7vihDIsBhNg6pO%2F%2Bw6bSRwW%2FduOk0l3oM4Cdrcpf%2Fb8fNqjMDls0t%2BA6iVHpwzkkt8A4nJxvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=40292474626&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 2도어 335L 메탈 화이트 (B332W34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Ov8JPMQZEqZuHbsKckOdS%2F%2F%2F%2Fw%3D%3DsHuMX49vZT56QCNUfoiy9Lpj8Rid%2BNI6eecLTBt6xwtVs5nCytg3GiMUMnBaVqBbJAIxp2tHK0cCQ4so3rAD8J9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKVKzQ5vri1lAWlSP0WP3274WQ4c3au%2BkdD1BqzlGxcY1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7%2BiV3rXcZ9%2Fpso2qTIRLwljokh7KNEkkbwBBKOUFOEEp%2BSqU80aWVN3RquPYORtRYjU2N%2FVJQK2lIn0YT5skRASI28QDIftdPo5sZ73mZF1SodTFHSg1yvfOWpTY7eg0fTJ7UyJxEzSZVuspUbWAiBhE1HYG%2FyKikdOf07VJN%2By7QhkQq5hqDy7JCEB8cS41oLPLRmS42CT4hI9oCtjdnj9aHqebroHwXm7TblmYn5W6P9ozmdV%2FWs5eTR9VTjChb82HfE1GMXrWD1iOzBYNIzfwUxMUvtGWZISYgXDdjw%2BUOEsHC78VBLnFZh%2FnDobeN&amp;nvMid=33577926618&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 160L 화이트 (RT17N1000WW)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bZPjWAuMnxFa71kv9yjjRv%2F%2F%2Fw%3D%3DsOrmX5gkRve4lgDOrgbjV380IixwCZRT2rW4MSasqJ2ps5nCytg3GiMUMnBaVqBbJzrLGC%2FJ9AOSKisxnQ32iK9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKTTj2I6nDikSp%2FxXZALObEwRDRb2u0HINefy7KkkYICVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Cm%2BPLemRxOios599vV9oyzokh7KNEkkbwBBKOUFOEEq9AAD71VkQdOltoEs55Qh8sCVMps9BGazly5UdlE7Z1SI28QDIftdPo5sZ73mZF1QISe4G7CvbnwAG5Pc4G99zNpb4ws5vDgviuu0gghZpkhPCvsevTj24b%2FXGkDWLyrJl58GOVw2zsv35cH6WGRuO0z7Q0eplXP2RkhqnmCsu%2BMLSGId%2BZ%2FOYAjRfVwLnTYrURI1DeQqeKkuGAeeyo2OZgqTNfvANIa3lAKegui7jGLscJnQ6Dw3OT7hf4paQFMBB0CIl3BeKsFF2drF%2B%2BsFv&amp;nvMid=14374277201&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 90L 화이트 (RT09BG004WW)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qg2fhcSXevT4GdzCTvYlif%2F%2F%2Fw%3D%3Ds08jYtrru4LlePWGbbUjQu%2FIUq4iN6940MwAqLe9i7fpF8WVxfV%2FmwmnX7Mz1na4yNFaXgxzSbd43ZdGRGH3mmEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitu59lBoNLgxsiJ9WYp6mPBLtATlxhZOEmPQ7NdsySoF2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6XZeF%2F1X2SWFywZNST%2BT5EWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRKibEgT5q5Q8D1j%2BwSEFMtpw9%2FDMX2S1ZzF2txO07wpQ5jT%2BYrYV6CE9zAgZLhztSQh34IntOsVR5uYOY3tsHN7%2BIMDL%2BQs1kp1HpCEA%2B28CYxedaLy0VVTIJ76NkOAIriwX9fKrj%2BY9x5a7ELAOXKHU5Z%2B3dPd2ZaKpjPt3%2B9mGundy%2FxrSs%2B6R4y90U1%2FHsapsCgNuxsODZHXOEgSr9e0ArbKs254P6ciDI55Z0YROCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=33271915618&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 872L 미스티 베이지 (M874GBB252)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=JNYwKigpkR0gByPGU4tmC%2F%2F%2F%2Fw%3D%3DsyW2iseM6M4UvXEkYKfm3%2FY%2Fv6bZ4mCud%2BaQf3ptMAs5s5nCytg3GiMUMnBaVqBbJUqXRg15ILgBy4cCLEKKDWtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJ%2BTLfswkEZpCQM1Jp8qzRy7XtUVOw4yE7e9RQY%2FmIIS1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7XJ3jtDt6%2FTjFBkfhyO3Lojokh7KNEkkbwBBKOUFOEEqY4TjxP3vUUOH%2BRX6AEuqXYb7IePQCFNOhO5xJtvzkEyI28QDIftdPo5sZ73mZF1TkP%2FynBMeXJuD37T7Rg0HhU%2BS0FGYmxucVEJmhFq%2Fl%2FyX3Mh3hrT1IxsLLnDeuphijriJ8H0NV5nx9%2BVr0aUV2Ttzp8K4bOzBhUkg6YuvTIK68JcBs04wTSRgkDufuiFiIDf9TYDOC4LzgCehLsur5nPqFyaGxbOVRtERdIWjfzbmrbAcxCwi0k0s9r5m7w5tXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=40369362622&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 디오스 2도어 832L 네이처 베이지 (S834MEE30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=a2Iq%2Bb6nt5xbUI8h%2BFBLH%2F%2F%2F%2Fw%3D%3DsDYIeA7FshUe64ESWohh%2BqdukenI2fl0z7lYXKVQ3yRVF8WVxfV%2FmwmnX7Mz1na4yoKUx6BRS%2Fqyz3v8d8M29akbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivHN9MZpD8Ev7GxtyLYU7VRoxzeFCaWLjiObrYk4Ln9XmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6qF3pFB5fNbJtKoNduTj7ZmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ijDbjxhDf2nvkWeVoPvNF5w9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2B4GBln9WAdRB4u%2Bs4uoTUbPKi3N2BuYYptwWEXE2i6Ivx9igIP8kwTq5mHdDV%2FpWB2Ts4vauvH4Ezuf1EbOBcAzUdtjFD4Myj92kRWohfzzqdSlPOZBN6V54TTL6u%2FzFsUEtwdzZsqurHLeBRzMYO0lfrO4jlQgp4Qi9gCjD6mG0DfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=32714918619&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 클레이민트+네이처 베이지 (T873MTE111)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=mnIfiWUbPqVVinH%2FgmyjEv%2F%2F%2Fw%3D%3DswqT1sPKOiBklYKqgMt5OER4oprwRVAQvzKYIbz3cQBFF8WVxfV%2FmwmnX7Mz1na4yGmxSeRLv1cQxqqZC44655EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitvRExY6Vqt7v7%2FA1zPi3Sm7efiNdKwcgAlXh9zo8x%2FDGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6rB2R0z6lANzUl02%2FG%2FRxW2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ooRxTlg%2FtSM6lK7UQYW1Q5w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RG3Jg6nu2PafbFa7lX4pE6ZGQHfQUm%2BlXHMSbnKuMHkRU4MGSBBTh8%2FN%2B8Z8zIbZ35kxCti9S25sMnXmYYzstb%2BYKfuofwPlPpkHyt9ZKZxUq4KmlfmfxXiqWsX96a3dhptDcfExLb6xS8ODsEBxz6BLPHBVE1X9hF6ZkrnPWwITbEU34t0ESAN9w7BAcE4Nn7e7h9Mf260%2BlH7vFZ8kxj2hopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=34099634622&amp;catId=50002558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐리어 클라윈드 KRFT-122BBPWO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1LW2Pb0gHnEUtyxru0uPXP%2F%2F%2Fw%3D%3DsmlK7kVE71QX2NyEyQFPaSkqFe55a5%2BuZbGL10xJ55Jffg3Ayqnn2jcXKeBzE%2FyL92sgG0s%2BzTJLwS9FShVpMtYZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX78qaVGVlZ%2BFK7Pq7Y%2B5Sn%2BGSO%2BfmRkoodgscA17nkdHj%2BxnNT6LOlvs068fZOUOVd3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwFzTDVhWZ9bElJYdIa6ISdH4Ogcq1OCD%2FvuVBC%2FX1leqBgwsyeaJRUnqTuM%2BPWbJw95sPULGxW24hMDtPG7bkkiO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4VXfJeAZhlWDOUVjaniDqJkC3javcbDoMJ7LBk9XiJmykqNGnYP2mQGFwl2o9AJeRN1I8QpUndmojVm%2Bi6%2Fks4VjLTyrvYQYKw83enrgg5YxAtK%2FlJjOKzlJV2IEBfprxHoO0zaB0tbjf3idssKiPbV5gp%2B6h%2FA%2BU%2BmQfK31kpnFZN7IVOgdMz3uvFvh1yXZvMat%2FKnZzeRVS1%2BCTVHYRcKjr%2Fvhuz%2FM2bOeEg7k3nONbeBoqJJwAN00%2BYiZimLgdgLmqY8bevQY7cxSlnx3zBMaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=43996282620&amp;catId=50002559</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=L80Xq6KuMNkRe%2BHxSy3sYv%2F%2F%2Fw%3D%3DsHdPPgUIWWKtL%2FjIGmcS%2BmcCyv3UjTbi8%2BiNZbqW3dPtF8WVxfV%2FmwmnX7Mz1na4y7RQ2M9kIGQ3SF7Hi1aTYXUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisAyNej0SOILr0JM1OL9%2FYnzgxk0L%2FDxEQhFPSvD7%2F8PWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6A8HCaV6%2BV6V0qTcIQ1YgOmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2iVNDssXYHKVfQ0ZvLkWpMJw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RFujZRC%2FtKiE4UeDHWg2a9vnkKURz8FF4kD2iM3PIfOS7A%2F0vSPti8cHY4o2fastwpknkXF07C01xrxM2esNkBfF2HM6IY3lkJc5Yp3uVp7kRpOFzCbaM6OU97uoPifjrepM2wRTO9b%2BW6ZtttgpMw1psVVWSbtxsRSYBKj62wAbHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=46364919618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>씨엔컴퍼니 쿠잉 REF-D121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=H4%2Bwq%2FGJ3hox1ULzQyYfBv%2F%2F%2Fw%3D%3Ds1DNn%2FS1ZuhikGQbDdfC%2Bhyr3hTUzimcHD%2FT7mxTPQLvnSaHCvCuoi9wE8SzWjVqE3BTBHSdmHJaHmg5v8ObFzR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGKSYKjfOY42cKemTMTw4dyGGMRvx4zHbv5Qw42BdYXvDD7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v91Ws53%2BF%2Bcp1tLn6wVkQYmCEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmsNdfRB00D8dDCQZJJaxUUqAhfbmRc6T9Q91MqoVII6oAbw086LJZFhblMP40GHxaERpaZctTJXAaC4Am6n2eQbJbxmWwXK8pc%2B%2BUyhZO3ihW%2BVwzHKKGI38CYEC4w%2BC3iA3%2FU2AzguC84AnoS7Lq%2BXuRu0yAyxLH6pkxTjzlE0n2kA%2BMASdqBTvXdU6pNEKUV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=23020565491&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 870L 색상선택 (RF85C91D1AP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=SdZH69Vhr3oFZQhPtoBCJP%2F%2F%2Fw%3D%3DsIqNPz4LluOFRyRrOYfhL88uvOc7CLpr2haeBo3ac0cFF8WVxfV%2FmwmnX7Mz1na4y3glNS%2B4yNbNaBexifMZX%2BUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27pdlZWOMWFWulh6nObuNKtzRj%2FaYzcba%2BmB16B2j%2Bau%2BoUU50RWZFFoQP6NWEXs7YZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuEEnYIemGhYynijZiRjFBHNskUX6R%2FiVPGLzgJ30xt2mXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ61uDcN6eXdWBkUFve24cnCmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2I0Mvc%2FTT89Uh8bulQm1Xrpw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RXDaum6tqhhx%2Fm9zrc%2Fi6nDdgkJzsujXNkyx2KqX7kGPmCn7qH8D5T6ZB8rfWSmcVVLYEz%2Fc5XAseBY6xB9YBJ%2BBLIiDDQi2UmKa2mDXKjAQSzxwVRNV%2FYRemZK5z1sCE94cNYP4z66l%2BcLXH2ST9171m%2BY8BukUsQn3U2fLZhQ7Njqh%2FZemCCOboDhnweAmG&amp;nvMid=38697341618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마루나 BCD-138H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=FqsMCYAPS74J0zpcOaMx4P%2F%2F%2Fw%3D%3DsMdQfuWdPr6wtCVJPCUCGVpT3J7qB%2FUgOpYdsAQk3m%2B3nSaHCvCuoi9wE8SzWjVqEkQlUpU2UT%2BRfWP0t7R8Jfh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGJkrMGCe%2BeR5kVs16CQukq%2FN9dWW2XmGOMxcDYvyZtxoT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9t55w5yngl6t4GorqnOHZKyEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmqBLNiuykoXn5avfKXxUnDKAhfbmRc6T9Q91MqoVII6oqig81T1JU%2BktEum8J3o1aF5mk7sLA2X1iyxhsuLNxByvjbnK9EhmKl2eyNraR6ERqLRTR2c2YI2y9ILijbQNTiA3%2FU2AzguC84AnoS7Lq%2BagbaWG2KymsCdCGV1zh8DxmBfti1CgKnwAuPEEX516dV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=20593870583&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐리어 KRFT-122ABPWO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HmpezuS%2BGHEig0ukkdnjvf%2F%2F%2Fw%3D%3DsRhanDo5kZjty%2B4%2FrVSdb%2F7WhEFBvyums4ejPNFXgszjnSaHCvCuoi9wE8SzWjVqEQA%2FJ43arxwYjzRhGq8UsfR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1otSt25m7oICp6VwBnJ%2BIjYP5H%2Fkg1AYjBYL8cmzVgdiOTlKK18%2BxWkaIflYgP2Qvi4BsJjzV%2F3vl5Lmd9HbkUGJh%2BEbtYIS%2Bk4aNs0M4IqeRM1A2Hero5zs%2FU%2FdPXRX8eD7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9IM0pycQCh%2BMq%2FCsF5Or4qCEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmzLe5eeulDgtZFBMODyv6NKAhfbmRc6T9Q91MqoVII6p9fJEUsX93Cl3DEky949Wv9VkmWsBzK5rX1wD646HRaDZ32DFngFlGLMRM3Ov9QzJqequf%2FqPwAVcMAzFNGEWRT%2BDzDxwp7nT02YxkVA94lPS6%2FX528oJDX%2F97o8ZoD0joq4KE7BS4vpBrWP6vJkyOnzrwx%2FXNxGcfOVjAdqhkNwau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=40988845618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=hVhvYPDB3xQAhCp0EPsR+P///w==kkOCcIEFkPD4ZZ5GaX1+cyLFZaKUzBBB02Rmy/YhU4rXHheQ81OFcpLDETj1pKviZF5++yWWUSEFAjh7IxYJUPXhWg8lhLP1EQ2DqfwJ0r053c4zYemNtHMg9CmiwXVyTQZEnz0kDDR44hWCTTtTH3ESPr8WWKzzk0yXTGMfsPOVsB6jWnWuSRFKirCD1Q03yLRvoZAW/8zp+iypSPokb7XGmuGNstLJELOgm1JuZAsN+Km5lvgW4gJW7E0w1hv1qNV1oJ010sYUBCPRe0xE7DbiQSpqcx+RCMTYV2PDliSpuWE9PT9wzCZD18vCChIXNdmUzIg7LV13s2h0U5YyllApZpL/M/mUEQK/GMnNc/1bmLzyWHFEV0mJ2pleE30gGAmN7Ii9t5cm/q1xKcMhkepymlbmmmsKKSfr1nDMFgUnkaVXsmroBf0GtVbIlju353JYrVHdAdwYpmP38blMNP6IlwdytFju0Bfq+ucSjyrSEhg5dcUHBD3OIiRWb9FToczvfr5unuTaG3HnBKQIUl6cFkP4zU4nGn7OPGTW/zgNlGmjnVUoCJyyYrXdVxlwJDIf86vVbIZpx0daWriaCsQz2uY7HqKsRRKZ5a67jvJcEmqEcHIniUP8l+lKvA84H6EmVUFa9uzIymW51OyPJIUD7pX5Jf0WswX167+lMXLn7Wyk+g1pfQVdwxRZM3IlFuf9Pup3xdx66vJEZRocJchZk7//nb/16DtXSyhXa/4VtKk+abBfRjUsd49W/zj2Wd9saCJPJN4CYHbXIXElXou9VHkHSU1bD6oxCpvb/mAaedkNPtNBFsnwL1fiX6Jh1ovOjEAHJY5I4Yf7Rt6/Zug==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크그랑데AI원바디 WF2517HDWWD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=pzXbApieC19ohHpcD8uo7P///w==kQ5Hb0KcS0PhZ4TilJnnE7xVcQIvYpyPLlh6e6Wv5VHEialZRs2mj74SNmwClMHdw1RgcWT+AhNl1Ckk3yAwwFbPRWF+WcG3vNjR9Xusb/j4HSOoQPHt8xIbxq4tsaPYABvzFykzAUs4XCWuWEM3Cp1cDz83YL1p+4BodOIAzfNx+RdcEir6d9+ljdoXH5hI4/4BbWy8facHNyNlc8wI8b08mi7nTRgp5gBs6aOjGrEbsY+cUG5YaAyo5WaI3zNx5vBnT7oHlVDWE7lnHpDNnY6/OyzbJP4VP+0hrGtOUELbWoMUvJaa7lPjtTN6oCmQ5kgDy/joB3DIULEIepuRJbXH6lKkUnyDs8C6KfRsJ9TOy4mPo10beGx1B99voxgMf7xlutQJGVGWNECdVUwSs7sxnnYsLSxiTrUYTnwfV5eahR1uGR4Oy9afHFwHr1+o0kB5B2lYd4cRinDPGktl2qoYvjCdDU/CZtj1n9ESSevSFjuorPzqWIWKl+XjsC9ZOmK1FQIMrLmDwCeSt6/0GkVVDANgGb+xjwRosgXMOZ8eLDktMAmerchRwOl4eCAXqPfTwU8BP86+BnQeZ2XpjCOrs1FFYc8Ywq3SLX3blgsEmp6vA8aHrr9YGL/C+4qutQcyNRk8Jp1ZjvoSkbS6aNo9lsAqNqtMaO9th/+KiFpTrc0ufq7cIMfz4DMSfCpWFrCNTVVkU7RGpU8mik50NfN+4txtOasL8k+tvWou+cSPeBMuBF6Oel4fSng3qs1py1qqbzj9Qdfc+KbWT9jrAwe42k2gLEaN5z6beMOe8K+IzeJ6YaLIKNP1nNq9Bx6eidgeDQs7CrrDp+8I3iPmitw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F15WQWP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=q7VX6HYMx0wBqf3UbIMtIv%2F%2F%2Fw%3D%3Dsqq8LN49gjCF020SlMMC847f7Fr38sAeWiMgmkciVBddXa4YJ85H8DevQM9Yzo5P9t%2Fe8MLuGFUvqU9NaDyRg6kbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu%2FJaz2fEGsGWG8bczfGHQPbDFIGooqqqx5yyVs4LGd6fzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6svmWyz3GrjgsUXWBwSXqEWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ%2FNf9ZQum3SjCOvOEyVKFVZw9%2FDMX2S1ZzF2txO07wpTdRN0Vf2xeKknU1tHRmxUW5gp%2B6h%2FA%2BU%2BmQfK31kpnFQBjt13YGtb1Ur7qlY7wFOMsMl0HqBS2kuVkqayaUUNAjr%2Fvhuz%2FM2bOeEg7k3nONfrfuCYTUyKhvRkBbvC29OS%2BIKX48kPKVlc5pm%2BFaMl4y1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX24WJN + RD20WJN (W20WHN)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=4j9H4Frc%2FMsuJiKCqgGGK%2F%2F%2F%2Fw%3D%3DsEuOQIY9fBQDqj5L2QelMkHC0pM4vDnkdlNPMmEJhP3BXa4YJ85H8DevQM9Yzo5P9Tv1qIArI%2BdaWYUpJZKMZBkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisFFZDn%2F3rwPsWhq0LCgxTRJWLO%2FCJf95hUh%2F%2FQFC3FYPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ64FD9tzGVwu3KW87NFG%2FboWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZGMtdQGAhFooO6mq9Ovsqk5w9%2FDMX2S1ZzF2txO07wpRBgIFm8n3HCJ3KzTMl0v8Reb6Ziia5peSIjuCiVsILUqOuInwfQ1XmfH35WvRpRXZ8yaQK2y0nXXcpDAyQX5hE5SXgMu7c%2FPSbJjNqBip5v4gN%2F1NgM4LgvOAJ6Euy6vlDYMA8NeOpSQJGgxKwJmowZGhbipFGNhFZqYzwJNQ03OR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=37988116618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2Fixv1n0YJ2k3ei5ePcnzEP%2F%2F%2Fw%3D%3Ds0ydrgWelPyuOGqNDncpYozM9781CvV%2BoEO0fkH%2FQwBPdpgAIic16NITt4jHu2Ti7SEQiF9P3eGCx1rHmP5p0Ph4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJO8AGGLJ0SUd0jfy6C0YZxMcEsZSa2q4kH64yJc4dwoRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9kHCoq7E1FLu3vzW6np9iYSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne%2Bx9p1gEc5kUad0pfAIpIJqAhfbmRc6T9Q91MqoVII6rdm80A%2BUh2kB68emHos4KiHD3RS66lkvbDqvJwjwIKj4yObbnYymB4quMPRNdv5BwGwYe4zbjvOiWG0fqh2opKT%2BDzDxwp7nT02YxkVA94lNuwP8vVnM%2BxFO9j8%2BhBBj1iuLvOCn04NiSppeUGOQt0ATQoBoZyaGMgPFeI9gEXDQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=46032887620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR16MK2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MvocOHnA2IY21hpIGJdexP%2F%2F%2Fw%3D%3DsgdhQC6JdZJ%2Fmj%2BzNw2lQSQOK6TjhmnSQFzHIpmmkupTdpgAIic16NITt4jHu2Ti7cs6%2FTeUy0bMfkWiKkCyJ2R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGLycQbS1MGTYQfC1kF4IYx%2FB0vtxjQ6w6TdfmXtUsvKMRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9ho8J08yE7lB3I6vicCovuSEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrko6Jc5FxKu55drZC4Kqvs86AhfbmRc6T9Q91MqoVII6q6gBMFzLFzWXUEgstHis2qo64ifB9DVeZ8ffla9GlFdkdk%2FWfTA1klTmIs16MKh8uZ52VKGbZyHywRMNIyUppgYnHIcETcJifOE8sb44IMxVs1L%2FHPsNsZx3gIhHzTjSarViMIgsTb9KXXT6CTYZbRxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=37019031620&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR13ML2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UzWEmR%2FTBhdV0LCUo3LbB%2F%2F%2F%2Fw%3D%3Ds2Gb5WqkkXXt0PyZUjDObHGLq0i%2F9NHIt43nGJeNR4lhTWY5MvHExC5BUTXXjdBTu%2F5AxfEPh61BzrDX9fMV%2Bitof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjITq3VcVol44e52Dnx5EHs7ts4nNxzJabeEwTBCi54EA%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7iI9uvSWBLDzpMtfviciYbzokh7KNEkkbwBBKOUFOEEoa%2BDgo0rqijIQYmK6M%2B%2B39ADSR27OVVpLDAwtgcxG1XyI28QDIftdPo5sZ73mZF1SURayOzFX4aDC6yjaJg0pL5o%2FceWaeRLYtdVRyNcwZr8ru21TNezzIEv0CiA1eMytdXxbxn31g1oQzocEaDFsoASIbJJHJxstflUn134TkkBv7PHLAVQMsuCjqmwsRn1W0fBvhagmyM1P7zf7Jggq5gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=37769600618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR16DK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=j6hns3B3xd8%2BkbHEQ6c0RP%2F%2F%2Fw%3D%3Ds7L8SAx7eRHvhlWSrxHdwU6c6RcIBJ2FWnn89QTFhGbpXa4YJ85H8DevQM9Yzo5P9EZ4qxODM2mAr02LHpVitCUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuTd3gs4y6BKmP%2BGdBZU8v%2BjY%2FIQjDkM%2Beq1toC6dXy%2BPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6LW7Rvt3YcgulumH%2Bdwi7wGovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhclX8zE%2Bic94Uw6oylD9S25w9%2FDMX2S1ZzF2txO07wpRhm542514Brl5NnA2%2FrmuizhW4ATNeHpR4SJdEbQK5L7N5RIRR6DdDvmM49GFRxapDC%2B19wC4%2BT%2FIx%2FrR2ckmS%2BgtF15PMkmjkNDmi88yMRTriUFX9xIEQJ2tO%2FUlCGXFxV%2BOfirGr3sp3ZKg%2BBf3WhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=41412181618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF21T6000KP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zFvE%2F1A83ENTnoLN0N0Jzv%2F%2F%2Fw%3D%3Ds6ZwD9Yos5UgNaNSlvJ600P1UX0KjFMFvZKoeNoGbGcxXa4YJ85H8DevQM9Yzo5P9aT9fhkyrNGV7Sqtl0mkxLUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivJCOxnDowIGyIoxKFJwlTYExqE%2BRgMNo0tNmRo%2BnFKyfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6tWo67480GPLDKk5ztBLMfWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ1vaIpXVZBKpy26S3BJoUqpw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI6zYv38MEmQJ6XIPPOhIeYXX%2FK%2BxJzNGZPJ%2B2t2XXcK1GfAFGmNyXodoMY8%2FWKVYviA3%2FU2AzguC84AnoS7Lq%2BU5iJGgvfAHa8MKCqLvJP6dsJKprDo5EZ66gIkXXpp1B5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR10WL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=pWlKx3Bca6s2S5i5Yz7zuv%2F%2F%2Fw%3D%3DsCgu5g5%2F%2FWcx0yHONiWqIf0CQ223twFNs2oRt1TT27YVv3IvWzocaL23pIgghihKfJfcZ1UNbaOX342DQklArPoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7lbr8gStNdFzYW3MsrtInP7Y9%2BW%2FiBAvBkJnYcBrn3%2Ba%2FLM3znhwuF%2BJgg8so4JY23IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwHVXkm%2FPL32UrGQ19r4IidTA%2B5kmAGvfOP58ZlSi7FGnDTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4UENAEY7NTQ8zGqd8hXrhwzwIecWl82YHjSa8lzvfXZ3kqNGnYP2mQGFwl2o9AJeRNXIrRZH2sIJWq19VUSO0iTc0N0ZA7Ybxl5FBnW6rfvmAtK%2FlJjOKzlJV2IEBfprxGySfmMHa5wyOVfNsuM0Fxoh%2BJxhNb7A7nymiUFGGbOFtzJlF0UuFR8UgQT60DsiiNP4PMPHCnudPTZjGRUD3iUaGSlxjQDNAwb6T8bswycDZP854sS2muswNwygDlZISvXVKRe8%2FEIUv07%2BhtwRORUDVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=27058613526&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR12WL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UMER2AWWtfsnxUDv2tk0%2FP%2F%2F%2Fw%3D%3Dskk3lJTvmWuygMlY8p%2FpgoOfsQTOE0zdFU2Dn0MK%2FiBhXa4YJ85H8DevQM9Yzo5P9FNGcMraQSrByBzfVDhtzGEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuSCJK6PgzmF0fwhlVm2%2FVPCkeeAb4Dw38z3aq65trtKPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6%2Bxc11z0UK9eeGrfPKiq%2B0WovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJh6d0HjlbTgLTHPrHHPW0fh5w9%2FDMX2S1ZzF2txO07wpTDngjr7oYPmCDfIeNH33%2BQzhW4ATNeHpR4SJdEbQK5L9NnDI2wiW8G1GGiGlp4K8jYCaRt8Zs8%2B9iwh9YAS%2F5T%2BgtF15PMkmjkNDmi88yMRZhm2GppXAyI3yZV0C%2Bwp6txV%2BOfirGr3sp3ZKg%2BBf3WhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX24WXD + RD20WXD (W20WD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=JwZX23ynK%2BeF7RF8o%2Fcdev%2F%2F%2Fw%3D%3DsT8faFXpd6y9UVY4KmQqgpiUsXZlmO91dIIEfXbJPFjpTWY5MvHExC5BUTXXjdBTulKuuYzlbQqe1mEE6w3R6w9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIA%2BmGEyV7XHYmzStGLPELNWRBwCHEVv8LP8EhwLOkTuf7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7g4WM9NZU5XBQ4SE4CZJGrDokh7KNEkkbwBBKOUFOEEqs8qIwHV9QEIVe60CH8figh%2B8wDXZAdbPK14AoftOdQiI28QDIftdPo5sZ73mZF1ThjYWajGHDUkffc1Yr6yc0OPBB0FSabwykBwDizpRTjs4VuAEzXh6UeEiXRG0CuS%2BLgK%2FBhC5APSVL9b9zI2ScXDWwqvGbU4EV186t%2BRQHG46%2F74bs%2FzNmznhIO5N5zjX5i8ZcTdJMzoezylX1DKtZXXfI%2BfJmzWIKIthvxZcfIWhopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=30402965618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F21VDSK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=S66oeLce1I8uQM9dY9A3eP%2F%2F%2Fw%3D%3DsmbMoelJ54ZOzGC6c6%2BJoDOiZiwD7m059UN6RQcfDmW5TWY5MvHExC5BUTXXjdBTuFaTdO0zio7N8ZjXyi1Xw2tof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI2RLi8MZ8B8yIIOO2FzHTTQMM2Zwhp1N1JNOL21FUAff7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7DhlGJB7zRtOMSdTRxYTeRzokh7KNEkkbwBBKOUFOEEqMYqPMAUZ86O4m%2B6xkww9KoiAElhEsJsmQyfDzyzgePiI28QDIftdPo5sZ73mZF1TSR2Y5vu8YhkLMUYfMKJQnllYSet7WojDJmXyLS2Lxxia3RnL0yWh0zGJfod5IRDDw2bvZgoLdeG3JX9kJnaOgezdPirNIEhU3YcDKwV2g5NdG4I%2F573zKzoyfHp6aVAYEU%2FPIQwYE3KIZT9CbfLqCDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=38674238618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF19T6000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2Ffu4%2BjX0CMs36u2AfSU1Fv%2F%2F%2Fw%3D%3Ds99fth%2Fhy6PB1ocur%2BoacpsVxobSXo%2BFcxgqqSq%2FPoktTWY5MvHExC5BUTXXjdBTuj4Ar6vyHNVRvkRXK%2FUbm6tof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjK571g4EcptLKEzLlP200OnQjYfvehOTefRUHU2kROyhv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7aXM5kEV0Di65xVzqDdBCbzokh7KNEkkbwBBKOUFOEErMPSFuZmibLdE%2Fr0%2B9zxuKiy%2B%2FOemSsIhTVcOZ0mZ5LCI28QDIftdPo5sZ73mZF1QFET8JCQ4MYnraiXT2FEJjuwP9L0j7YvHB2OKNn2rLcPOK4KqtpgSkZ5m5DK1GNclh2i%2BAOlen5nT93DvXcy5XEs8cFUTVf2EXpmSuc9bAhGqCvFdaLMHvbNRv43w1f4nbUzd1l8YYSEf8FRu5SP6QaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=23057107491&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF21T6000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=3z6bRs3GVC30SoMdjSPPy%2F%2F%2F%2Fw%3D%3DsSzydnygFNe700LB%2Fhj4V5Fqpwhu5rNn15uj6ChZC3eNTWY5MvHExC5BUTXXjdBTuFlK41PF14%2FTklvzf5itiTNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIS4iBZ00sGCDB%2FnF05qNdBmmf2nUY78%2BH1SHCoUoG0Dv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7gb%2BcQrv0yQa5LTkK6iDG9Tokh7KNEkkbwBBKOUFOEEr6wJm1zeW2yY8Vzix4UfoeWyPHvzy%2FfdmKbIUVB5Y5tyI28QDIftdPo5sZ73mZF1SxZF5zXhAmtakyF%2Fpu0aiZuwP9L0j7YvHB2OKNn2rLcIolx3XTk15fcAMUyct77CuBpXfHwmyOx%2FuSaRazCnb5Es8cFUTVf2EXpmSuc9bAhNoNnfHf8rluJG6xiYIzSC%2BgTzyTJEv6H61yBrlpv8zDzY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=22369783605&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T19MX7A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qYkvPT34vUHUTzkOkPsrlv%2F%2F%2Fw%3D%3Ds4gMPpbGzc49yspBxnKgw%2Fhw3joN7FH5RzaqWcQedNkPdpgAIic16NITt4jHu2Ti7b28eV3yPMrq2MHxXmkQe5h4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJlzw5Jk33arK2mNGJ0eDRZtSQoVZMQuTttAEqeeVdaxRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9SwroPLt2I93D0Z0OTU8ZbCEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1EfrkDCqJt3LFjuQfwlVzm3%2FSrqAhfbmRc6T9Q91MqoVII6riuf69lHVoJk6WCOQHOJFCo64ifB9DVeZ8ffla9GlFdkXLcelPntvDyX1lo%2Fv3712vb8hECg5tcUA9JkamQNX6YnHIcETcJifOE8sb44IMxfd6ytKzpUS0nUa7ldiIh6NqVvjrG4EUB7wOWKtPCalF5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=37424591618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 WW90T3000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iR%2Bi6vuaVVNQU9ZGExL8Lf%2F%2F%2Fw%3D%3DsyUuRlfHd4uKwJNP9GrnX39C3hFvLScc%2BWPUmLbVHRxjdpgAIic16NITt4jHu2Ti7oNFOnrrmb819mAJNBX%2Fnrx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGLo8QqR486Qb9NwTuVRRGpASxPO5t1FgX3iJqF1%2BggxxxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9A78kO1%2F8DZMcJHMM1uR9HCEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynez0LcgGndb4HPYYb3KwMmKaAhfbmRc6T9Q91MqoVII6rixcSdsltr0ZO15mi%2BSdLl8tjTdlkUA3qFKR45INvELvw7lm5BlcVipH5PQmiOqOi91VTYmOOvxiJ4G5vrJ%2FEfAYTYOqTv%2FsOm0kcFv3bjpJbpmCKQ6El11VsYi8y1BKWq%2B0r0kzMjSNyYPb6EkPnmb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=27570689522&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=8t%2FEAag0lWErxKGLhml0S%2F%2F%2F%2Fw%3D%3DsmgOF1%2FhsadBR7lZjrMXgu%2Fw4U3RqODzmXOwu%2FFM1mURv3IvWzocaL23pIgghihKfe4TKs9lH1J3XuNHknQ4Jy4ZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7lbr8gStNdFzYW3MsrtInP7Y9%2BW%2FiBAvBkJnYcBrn3%2Ba%2FLM3znhwuF%2BJgg8so4JY23IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwEJ5mjNKBk0mrpsLth9cRnSk0nJnCYjhpEJVjUmw0xp2zTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4UL%2FFM7r5avCjKqFAybufF3tfbzucaOkX1DmZYBUHYeWkqNGnYP2mQGFwl2o9AJeROxHkhEHdREH7IFYwJbHqX0o3Js0STS6NDYuJOZRIC72wtK%2FlJjOKzlJV2IEBfprxF%2F9Sv17rQdTFoIcxgl%2FxlpzhW4ATNeHpR4SJdEbQK5LzzBv6LEI21rXIx83kaVmbTbtayXNrNJoF9W9M6SCTmWjr%2Fvhuz%2FM2bOeEg7k3nONVU%2BgM3IguPCabtUoe7zvpM4gQzjkDnx%2B3xi4LRsGzrTaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=47554509618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 세탁기 건조기 세트 일체형키트 화이트 세탁 워시 타워형 9KG+9KG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=f%2BRMa3hwwfzO646zafXekP%2F%2F%2Fw%3D%3DskRhYrIc0jYenQkZd4lOs5N2mhPfSXDYxH3OO5v8TN89Xa4YJ85H8DevQM9Yzo5P9CHyP17rxuIpsGILJR8YVKEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9MBbAUTLhEczrfo6o%2BFCYJ9koDZhZTyE2PqJzLGA4wO6tGbYcSo2qbK3jSv4hpgUPhboDTL4Rf6JriBnfCu7F0rPS4NbRfaB7D5RDQvGWVWBr6kdrp7BvT8OlwZ7P37YyZp%2FuhVWf5tMOyu5R2EADu%2F6zYfEIQ8h0eGU6DrwvTOSoMOEH%2Frm%2B7Aqe63SKygo%2FR4OWZygDtksqxzFmaQY5mQqCMPVDusO3a8AnP8N546aXvAO0CQWnsNX4fatbCBazDXyH%2Fh5EpLEEszuclHACoX%2BXuoHIaFL2hz2BRSDgpzn4VlNRzbtLNtp88JVSOmLUOKjze8xM0c2w8MDQ%2FDTu06o%2B9WNHBtOR5OLYzyzHrSKnSnNVJ4WfpUxFRzNd%2B3GH9rtrxZJtD7sgDSSgQCTm1mWYd3DicxPcvaLD6lnhQyJ5hpn2FuYydAY8XUBZpcje2n4i5HrkCpKMBjwehf%2B5I2R%2FtH2O7r7uPOIojBH6lxDhF5PwSiHHaSUvRO57UA27H2X63%2B%2FOSzAvK7f8zdRnFUHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=86228615052&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T19MX8A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=IsV1MJ2bNi6I11VoDpgHPf%2F%2F%2Fw%3D%3DsBfEMw1kjVy2zgcSA22ewf2F%2BqqcvXxWNR8ICgRVydpbdpgAIic16NITt4jHu2Ti7F8StXQUuvZpqf2gjDeRSOx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGItT2f7etU8w6D8T09odCT84NXCsxClvrRbIWealX%2FW7xQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9ktrMRn5bDvOkVhfkgSnr7yEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1EfrkJAG3vQJnoo5gcw0Se8DLA6AhfbmRc6T9Q91MqoVII6pq5OQokZLf4nEMIuD99droo64ifB9DVeZ8ffla9GlFdmUGBvlqXiwejih0cSeIuv0MBLLVRgRBohHAREHEgB6aYnHIcETcJifOE8sb44IMxR2NsCMC7o%2BkwSF4XLmUtu6pv5cPWwykMf2NzODdS4FY5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=40438529620&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX24ENE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zsL%2BZntOnDYB9AS1e37gQP%2F%2F%2Fw%3D%3DsOR4nG%2Bujc%2FvhTCxxhsEPpXJMle4OvoTQQhBI0GsFbxrdpgAIic16NITt4jHu2Ti7z0v4CaOeqofrcQEH%2BOkT0R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGLkr5N9d%2FZIneQbi1QEYT8XYiix3GIi8nj7dxD7DkOOZBQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9Diw77bB%2FgtQiAzJIeM9SWSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne1evR2cSIBPMhiHC3hHh74KAhfbmRc6T9Q91MqoVII6rUcv85jXBgoY8nMZhX8DWao64ifB9DVeZ8ffla9GlFdoQ07dSZwyP%2BrHRP94uAllK0NGSYmiABOavRmhRLcm3siA3%2FU2AzguC84AnoS7Lq%2BZCEXyXxZAGu9LklO2pdoCxYGG4BYJ4N76yC16qoRoIsV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=38010628619&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T17DX3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=o6ZK8K2qpa98c9LDRfyrIP%2F%2F%2Fw%3D%3DsIU6UW3PSORSCD%2BBkRmvQmcP1FjPsRfBK1Jzf1FbWHSfdpgAIic16NITt4jHu2Ti7ZiFyUtHQ4lBM44u7aInleh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGI6AzAAI7xV%2B%2FxwkGJ2r4O552Fvimgf%2BgEm4IRIAccq%2FhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v91caLigwbsRMvxMS8c4nkoyEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1EfrkBuf652VVqMRPq7TOYW%2F19KAhfbmRc6T9Q91MqoVII6oINhbFNjreqvgClj9oC7rP8jR8gVF8FlQ9pItE8Zzc8lfrTiF%2FuLUO%2FDdCFYXE4WB2arnwslJsZDUvZrOV7b2KEaThcwm2jOjlPe7qD4n46%2BuvpwAqpEbwGD4huiU1OGng4%2FWnnbmcClp6bAfGtqwfxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=37102400618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 WF24CB8850BV + DV20CB8800BV (WF24D20CVVC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=5Hkhmp3Asws49g8OSok8w////w==kBCxwR5iWNOds/9b78jR/7AK/rRlhpJSEFlbo4l7z/VSJ1abVLiSzczF5AU+NCl/3hAv6Png5ueHobfr+EI/1cgG6tdD7ICRAjkhYZiNcIQM8vbkQN3n12XOa/BOOav6ioJCIv19gCz25QvWx88WUNwyW/rbM/eTKDdjzVuTWq5QjdzkNs8j6oQ2AL5LXm7MmtHlOYlsFHGpXMdxivQUW5Eu35uDvzalRcshPsjkOex2giB7KOwAGLvJHlNVFTZ0Cjv98kJHPnKl4fLzlzC7CULPvcu3oc9AWKCcOLSrQlZuvvXNEfKl8OSumx/KOwxwKgWxq0XYkOZCwO09MIBHDRyab6fSOJSupvQKTOLaXOchlvtLHbPax2ojkJCz8QBzyYT2ESSmN0/gfMeeedvWljZpfYPHkL89EymIcJAZGHWifReRkLguKnK1OcrTZ0jEtOm7iurG3ROC5I5fkYAFM7gL3x17+zXqxi/JnHwcqAktHHjT9Mnf6+OBGfhT1NpEInRlMJer0Hvl/w/SDdPA5XqwmHGbMwWI4c2xhHh/otb2G3KcfCX1Z4619kuyCbwu07SZEu2pCEO76IurYwy29xiPC439ysM7qKXSSjvN2z1VCGpNYk0ShZ+ffTWMOv9VHF6IXOnXrxctNSys+Bt8f2CdM25FGad+W2ISOF9Z1Pl5sUYmnyCPxcoczRJyg+aGiQDrfrDqX+kBeU12bO8uhhFWvD4MaHieCTwyUal3WObtgrRRyJoLAV1kKdSlAShavvuznJlhaAk1xw7U8XNWTOEmcOYrZJMQ3082XfXJVCJ/ly7y0+oQGcm7MOQElV7d6ovOjEAHJY5I4Yf7Rt6/Zug==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 오브제 워시콤보+미니워시 FH25WAX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=3a+SuXeSiohJfZJ6Ikc6FP///w==kFxwOT3Zblt46vrP0BJ5+O8n83B/5WTadKsqdEMZuNKlGHhFeYf969lLHkCzQjCC/S26bQoFhzmwB6VGZ+QkXuXMvR/GqDElyGmNiJFZTTk8cDD9TpzZVn6SHAvhWkRVrSmCO2Ck511N+1r3apiWKvBc9CP7vfEFF662xGrh/BdWoq1IhDQ1c5EnYiRHRvfbadH8Pz572VKE0s7d7MPEhJMdOe4BlIYWcJeanA5N12gSetW+fZ+uAez8lfIH5kOYXgcaWccLt2LzN5k5ubBal2g+X5iHVQUVtKMth5nsFarpBTrMovU8kbE650DmjCTSNOSFICYXJUdULdf81jIAmiwKvDa7Ubhnz6lyyA4HQLuWhaSRvASGO8yw3ALHoxPjQFDKZp4RSDcK1WYh4rKCxOAfZnOWp874022FWmkPLRbtGaswoDTu+mfg7M+FPvbsxdsUrtWu8HeDa6xj+mpNr6QzWDAcKceAvE6SFADeQ4JoLn2rwWOZ9Mc3yqBIUioUw2+1QXPo0ssJsRuiCuEC4oXDf6wZIiWA/E27dPkohKu/lh7LFQdiyZf7veOMKgB4LXRs7qF5LW++l5x3XKtXF6iU7MjM82xsp+nS3ubqCywgLKaJQAQ5+Cmhf5sI2eHFoPsWQfmGc8EHbZKXpJMSWf+cHAEQRd9hactWgd7j9RoE67qxCKDNRam998j3v6VQTO9K1cip0XsxmzVYxzAuQaZOap2kM+dLeSMATuSABaxY3K3ppGA091WU23CyFp3vDsciBFx27cd895nJElBjjjGIybYk3I3Qan9A3oeO3t3rEM+Tku0z0Uysirq8TdRrm1XbImuaqlGGhuBPbAL0QaMIk7kOCwCHWboxUzb516sq3sD2+i8LVKFLyxLrbY5l0rgjmTVRM499jTnRDbQCwSat3JbFTD0omzI1pICOvoaem622+dhz+VdWReAwBl4v8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F24WDWP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=mwBSaAgW5Rjnz3VgfEOgfP%2F%2F%2Fw%3D%3DsdaW87izQx72vzGckVsYDdsL8WeiqQJFHwjvHgnH%2Bt5XdpgAIic16NITt4jHu2Ti7D9D0pn7wNn0EVal330hv6h4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGLNUlagbiG6Iu36pKT2OuUIHgWaXjfnJaVTV%2F3JOrmQLBQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9yLA4MPEMa11Q%2BIlbu562kCEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneUOX5G5ci75293hKh0GnpKqAhfbmRc6T9Q91MqoVII6oyUZ%2Fv9jdKSW81CY9KRqCbo64ifB9DVeZ8ffla9GlFdoyzud%2FOT7qlEoSKb46wMPsp9ZkNwVikl3kpUHv3JZ6SYnHIcETcJifOE8sb44IMxUnklRxek7iOvzYLISz3AgXozgrenolt8xkWUNX6x2pE5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=36820811618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데AI WF24T8500KV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=SSpAcNYicXn7LU9bnIRGE%2F%2F%2F%2Fw%3D%3Dszdy1Af9H3dA1yaHv1r3YpYvXBcyP9hiC1x6A34J8YJFXa4YJ85H8DevQM9Yzo5P9NyEeFl3%2B5DnPC0d8BJmRvUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivrgMBr9Y8%2BA3zKCWIXGqbC%2F1J%2FmDfxFN6CZAF%2BtXmWL%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6eYk5IVRks%2F3cJp742vJtjmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZL4fiwy3HAt67D3Zadc%2BqLZw9%2FDMX2S1ZzF2txO07wpQwzjRX%2FyqH7RFgpfkzuNGyGR0DvfMRdBhAYxbOp49GVRiNQqqyY3WOPY%2BUwosYvbEuXMpqGjWh4v%2BDsYMoQ2LpiA3%2FU2AzguC84AnoS7Lq%2BZPGjTGp2b4bmwkjpD0toeabWAmcB%2BdfULPXNyS%2FumgVV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=24563349523&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=mz8UiwVa9BvWNJWUZDM37f%2F%2F%2Fw%3D%3Ds5byrvUM62eNOH3ZdYfqqhuNxSOnFaU8mWqse0RJzkNRTWY5MvHExC5BUTXXjdBTu9wrF7uPThR7CVPr7lvC6q9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLTfuNr9h3blJGODqS%2Ba%2Bf9KFtNg3H7SK7NDW4r0oEt7%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO75IOLPuCQa0o6SFoTN6Mrfjokh7KNEkkbwBBKOUFOEEqU6CylVDfYdAHKYHHSisaVuyJP9JaVHF38dxF4l2qNxiI28QDIftdPo5sZ73mZF1TVvRWJlI5JwnI91aEz7%2B3hYwV61w9WuCZIY5RmLScfucXKq7Xzuq6md7Fk%2B3VzFbbOFbgBM14elHhIl0RtArkvhj0Sga124PmhxEuXjYGreuS5dxvDvuTvKz%2BRim5u5g6Ov%2B%2BG7P8zZs54SDuTec41El4VeaFDFDveE8U8XiRa7TiBDOOQOfH7fGLgtGwbOtNoaKZHilHbuauHUigNM5KA&amp;nvMid=41552299618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WA16CG6441BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Mc7mIBMC5olpzOBfhh5YZv%2F%2F%2Fw%3D%3DsO382hMJk%2FCA1%2FdMKcIfXLRTRTQ%2BJ5HtGAu8JnZM85KTdpgAIic16NITt4jHu2Ti7%2BnDNxhTwoLqbgmfjn%2BPxbB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJHtUv7ZzBJnhQAK7c9HWZq3r9XhxJvi%2BSuoX%2F6z1xy1xQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9MBdQDr5Zql17OfvyWw5wByEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrk0Kg5l9Xhxj%2FeO6rAvLLpfaAhfbmRc6T9Q91MqoVII6rgZPeqh%2BfN0nMMk9SyqOKg4iq1YDqJB4P8spkiLKAd7qz%2BmqvwCMjFfkvILX4GsWpTo0cHztKaaCw4MOPJVcKHUTeuJgZvRvEK7gZCw3B0%2BlV5omGtt4jE2ZQrp50PkPd2R%2F0pQhb396v3nZZ57KaX86euOFlqYxGW3xtmz76xsQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=43749532618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 FR9WP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=d1t935dKEYTyHN4J730R7f%2F%2F%2Fw%3D%3Dsg3d9pJNF6hMjETZjOpb%2FCkk19iLWM495V3R4fNSjRR1TWY5MvHExC5BUTXXjdBTuecN3EG7lQHrWbSmIhSOx6tof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWcV99HGCPBjE7KOI8WJ5Cn81DzpYKh8nD2WTEv4FAS82w0N7OlCJMAMGSySl4LgUESWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKOETJFLis9NqEfRTBnjb6pNA5tTSoFLegn9WmXD7bg4%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7EL%2FukQseOkb8k3iSh3aIkDokh7KNEkkbwBBKOUFOEEpZ6UqXIfqC10rfceev8%2FrW4cnakz%2FSX5sxspDbCVQowSI28QDIftdPo5sZ73mZF1TYvE4cqhn%2F7b9LObffkynZcODIzgo%2F1sxyXtuxBzw%2BtLIFjgL3MNDCyqQ1gjkKD0eUy967mlSa3mZfqZTLi6DqDNQK05J1HpP5qyz1eHqf%2BMeKj8%2F5MWoImq7%2F5QDeZ2CEEMN%2FBstf57L76NYEY9S4HRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=35828081620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 WF21CB6850BE + DV20CB8800BE (WF21D20CEEC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=nernaL876TueRhowGeHkLf%2F%2F%2Fw%3D%3Ds%2F1SCbQ%2FWDfRFga1QdA9jjSngZgPL5aIEj%2F2E%2BfmYPyHdpgAIic16NITt4jHu2Ti7t8TKIMOp0dv52AOXvPFgmR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJXCQHjY9Qo2pumuaa1Awk65zczRMHWI289vAW3%2BoSBUxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9OCCTZKseBsf%2FHfiv%2BsAlaCEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneuRneXqpBwm8%2FYP43dKPgK6AhfbmRc6T9Q91MqoVII6pKvJq9vidYJOjXOCjt9LYUgJQXDpvxK7wk2rZBAhH9ek8x4jyHD0GBgCMVkNAXOreMynUk2wAi%2FHGnnFJC9BabFUONs%2FwVEZGN8xQWeP%2FhScmar32jLxqA0Y%2FZdmOfVZ2dSlPOZBN6V54TTL6u%2FzFsb5nDyBq%2Fl6b0Fmn6NUYfg%2FmtPhwYuE%2FlAwRcX8jaVGoDfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=44947049633&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데AI WF21T6500KP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MyF%2F1SboYPGhEPNosBX%2FIv%2F%2F%2Fw%3D%3DsqCX5GZuw5rZ3AkFly3hybc20IsBRlFFkT2FF5zVty0ndpgAIic16NITt4jHu2Ti74NuYea3oC2aMwjgWfsgDhx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGLYOm%2FwxNgtqTtiJEjEiedOrig6LylH42T9AnGN3N%2BLRxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90Ia5WqZqY%2BBMgXXeIFiXKyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne6IWVrC7wNgsiz9lEU8E54aAhfbmRc6T9Q91MqoVII6qsn0QWNSKkmqQVIZgRCyNsRf%2BOgu1JhbtdSxfdUEB5PDA48BEHy1Xu1uIfjWVVDjLz4svV3n88T9i8x9g7PwB6AYTYOqTv%2FsOm0kcFv3bjpPKMqCW%2FKewk3D61u0JRCmeQrKqTxjqzAUnZjYJPoJ3pb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=22057435422&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 WW90T3100KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=75JgxvYrh8%2BaZUMWo7%2Bre%2F%2F%2F%2Fw%3D%3Ds3l8Hto7FuUohzvym7HjN4wbOTER7%2BQI%2Bi2hXQ6UYc4Rv3IvWzocaL23pIgghihKf78dDfEZTMsgBcB8eO%2FSdtoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7lbr8gStNdFzYW3MsrtInP7Y9%2BW%2FiBAvBkJnYcBrn3%2Ba%2FLM3znhwuF%2BJgg8so4JY23IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwGJAj866NDZXZ5K6t4RzK5SudoH%2Fpvqj2Q7wpz24NIwEjTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4WR56fERnMVhU8oQY%2BU3olQE20opXV4AwCy6x0n7AhBP0qNGnYP2mQGFwl2o9AJeRNA5NuAjM3LliqSXyuUPjS%2FJ9h76Qq8uc6689COfNNZ6gtK%2FlJjOKzlJV2IEBfprxGhw0qHPnxY1lLx99wgPNUeh82bo6KWdmysk3%2Fp%2F4UcbUpj%2BWanN5zjdK%2FrvrQeMkEIT4GKfWXyFzMfknbPyZr6v4YGjJCSIW1IvBxXT1wG9xwPJy5N1s1G%2BVAWHwGHdbBxV%2BOfirGr3sp3ZKg%2BBf3WhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=22542989885&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF21T6000KW + DV17T8520BW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=uZ9SnSvx0xmKEcfh6%2Fp%2BjP%2F%2F%2Fw%3D%3DsEG9z%2FGZUWemMb24IvqPqW%2BEIrNI2dYQZBD1W95crehhXa4YJ85H8DevQM9Yzo5P9J59KC8rxkM%2Bu%2BjKMp%2B2%2FCUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuKkgZvZXf998KAN0Qs2wWIAPXMrr7YeuDJH0i%2FLQUyE%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6CSpUYksi84qfkHfjlPjGXmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZbv%2BFIHbEjfVKjAn0Pj3QBZw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI9fFAMpwJ4bBePN1LtpjPsvI0fIFRfBZUPaSLRPGc3PKyVTEauU4VfEnGxsX8p0vsaehehw41QgXBVxCnCUWS5mJxyHBE3CYnzhPLG%2BOCDMVw6E01844tkfqUyV75aXR%2B4sfmMKGV75UdG%2BS6jsoqcuR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=31231120620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF24T8000KV + DV17T8520BV (WF24T8000KV7T)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Xyyi4oB6BRPbEhffHoXEjf%2F%2F%2Fw%3D%3DsJ2AcPLfojXKwHBm6aIJT6EDCIz%2Bvtd2VPhYonstUuflXa4YJ85H8DevQM9Yzo5P9AsOFxNIwXhaDE%2FqcADowQUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitIQddUwj4iIMwp7eGFov27LyT8idGdHqTk1XSc%2B3AmyPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6DQRdOEMlXQNyEF%2Bvn1mxu2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZeOkv050Az1ycU4zZH%2B2Kxpw9%2FDMX2S1ZzF2txO07wpR0u%2Fsk7b%2BLm8QlCQ5%2BkFtox1tsftoMhe%2BSezWFMve5vBSdsXDilSHQZ0fRfX56acHyNHyBUXwWVD2ki0TxnNzyscj3MXlIpxcGEWU71Di4NrrRnEaoXrbuzeYwRpleUjZicchwRNwmJ84TyxvjggzFLLrdvsyUMWueHv7MjXtHbzN0q1defEMl8F4%2B2s%2FoJCDke%2FVP%2BgM94BPZkP5YJ%2Bex&amp;nvMid=25883545522&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T18WX7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=NpZqRQTioIaMII8c%2F%2Fjc2P%2F%2F%2Fw%3D%3DsunF1DtpQHi7d5y8GY%2BeuFKEkQ52pJTHzVBuxyBYb8BzdpgAIic16NITt4jHu2Ti7sx%2F2A6XMABD06fLP87Y%2Bnx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJlzw5Jk33arK2mNGJ0eDRZrepTc7zWmop75SeHCu3OnhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v973z%2F3gKNui88N7Y9QCRnQiEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1EfrkuOYqkLv7O3OtsKWg9pkBs6AhfbmRc6T9Q91MqoVII6o0%2Bdj4dLj1skYnxorNsOQc8jR8gVF8FlQ9pItE8Zzc8okzfAq73Snx%2FlL9wgKxKkV4uurkZLMOLn0ry11Xtf8iEaThcwm2jOjlPe7qD4n469F4Ne1VX65RalaDAtx%2FqWlBK2SzeS1vYuv7r5j3i1QbxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=37424382622&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T21MX9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iIsbmhxwy3%2FCYMU3ZdFzfP%2F%2F%2Fw%3D%3DsecEdmt%2B4Jjag4lNrc4g8ZattdcIaPbINnVL%2Bk62oUm1Xa4YJ85H8DevQM9Yzo5P9s%2B%2FxyAUObHB8U7sIgU%2FrqUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivZ%2B9lBZ2qjtKH7E6Sxj06x%2Fc2%2B%2FgMbZYOFRItzYveAkvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6RhfI2MbiBZ%2FoUxsKiZ4DdWovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhzraJf0c9Yk4t25OVp9hx15w9%2FDMX2S1ZzF2txO07wpTfDomW6hDdnUgmQfY9NHWUzhW4ATNeHpR4SJdEbQK5L7ih4uIMkWBFL5ci4KACTXNQoMK4kvsdgnJ5BLJ6onL9%2BgtF15PMkmjkNDmi88yMReBkvPxDlz8f8sApJGHOFN0Ul%2BJyBMfhyqt1rFPgUulAy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37426295619&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T17DX3A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=dmA%2BEDBLgZwkt2dHCSNJ%2BP%2F%2F%2Fw%3D%3DsLXcoHDLBHnrh3mQI5L8ywNqz9xlUCrUhQh4LPG9alRJv3IvWzocaL23pIgghihKfCsVUs8LubTBGvp5j8HoroYZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7lbr8gStNdFzYW3MsrtInP7Y9%2BW%2FiBAvBkJnYcBrn3%2Ba%2FLM3znhwuF%2BJgg8so4JY23IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwEDKBzGFT1P6ekeQo9w%2Fk3aSmstIe9JBj%2Fw4c4Jw7tQ0jTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4XLO3OM0B6R%2BOEZhL95L6MiYuDX2k7LeED707c4N2%2BrWEqNGnYP2mQGFwl2o9AJeRM0NfiQqc7lz6RkqNsNl29tcl%2FzX4B9kNoGw0qYUFklrgtK%2FlJjOKzlJV2IEBfprxGeV7v46ZfyRbv%2BKP9FI3wx2N6VV2WlozfA789973w8rcBLtJTbdMq2H38R9lLM3pzC0hiHfmfzmAI0X1cC502Kqk198Af1AYkvPyUm3XGQ%2BJvnb7K2ihsOpkS1ENiWDRqQ%2BMQQRSuVrpKm8ndhhZzDQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=37426294619&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데AI WF21T6500KP + DV17T8740BP (WF21T6500KP7T)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TlpWT%2BF4Bc7FV15VYr%2Fb8f%2F%2F%2Fw%3D%3Ds5QRCscK7g9krzHvGJm6LsaA1t5Oi7BK9e1UkLmHjUyZXa4YJ85H8DevQM9Yzo5P9dXfxgWCpqLY%2FSGtwgEVdWEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis8I8Ph2604LrKofaAhp9JPop5yMLNTN36LCZz8zjPoq%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6ZZqeZPtK97l5vwYeTGOj6movNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZJ9qhtfbVC54r%2F9iA6LHQw5w9%2FDMX2S1ZzF2txO07wpREs89PI8iBlQO1apndqXJRcIqVvZ2ltRUIrBmNwU%2FKQWBOHsCdit0sLCqCyR4wel3yNHyBUXwWVD2ki0TxnNzy8V03KzecmWDYoSEdSPnqm%2BIIOcRY%2BVeHcp2%2FXXrQXEVicchwRNwmJ84TyxvjggzFuOMvPV69rWB3Z0XrJXPIcaYHrF6qa7Yeaul0KJ5eovHke%2FVP%2BgM94BPZkP5YJ%2Bex&amp;nvMid=30976793620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 24년 신제품 워시콤보 세탁기건조기 일체형 25+15 워시타워 세제자동투입 수납함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=enVH7fAAAHsAR6iPWHo6iv%2F%2F%2Fw%3D%3DsE5xH3DYtj1Z7%2FqwbMB7voZRAP6NHZmxHd2AqLN8cek5v3IvWzocaL23pIgghihKfTfjcY3PRTPPmmDs8XogrSYZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7lbr8gStNdFzYW3MsrtInP7Y9%2BW%2FiBAvBkJnYcBrn3%2Ba%2FLM3znhwuF%2BJgg8so4JY2JxfYBSrxU%2BHc8r%2BjyXxpORDfSDBvRkBad9fdnOvVrJGLtYSYFFrkGj8LhCvm94pW7bLcG%2FDYKTdPKSVZ8DB6dxQzz3qGgpH7pX7tmWlD7KIHs%2F2PHkpmvWjL2qy1nHubarF%2BSefT0biLmuj9QtHU%2Fwr7faE%2BelVm1wuWg9kZ13HHvY%2FUzN94OzIr5wG3PfiAQXT2CirR1DoilHmaV5H3hpkTUyWDRyVuCXj4d5YLWAERcExCNHnUoHd7mfnTtto3kozkgdP5RwcP%2BPa6gbF2ovmyJwHd%2ByE%2FhU%2BmrQGD1HlS7LadnbCaVTB1UEvwoq8I0Ve0uWGU6vjxiftv3aRlvSss5hBuKPf%2Bwn554tU%2BcGVEVwcQJTiOiHcS1h2%2BZILE%2FOIRtuI%2FHwwSW3ul50l8%2B1hR1Vwi29sFsFuwS%2BI96JFt2MWYiy9si3QjgbvQFFgTlLk16sq5fgCQhT3E%2FI%2FTOGQvgdkN88u%2BTGaqkMys15sh0V0LLIJfwEop1kbydjoRs7%2B27zwuyPCsBLClgDX5bEHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=87725147327&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘지 세탁기건조기 일체형 24+20kg 세트 LG오브제세탁기 트롬 워시타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=slISuEXWNKjH14XHebbKw%2F%2F%2F%2Fw%3D%3DsKixwjwaOHH5rRd45dobwwIWtSOppyPyo43rOstrTP%2FxXa4YJ85H8DevQM9Yzo5P9hwgtD07iqMljseu%2BJFwGj0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9MBbAUTLhEczrfo6o%2BFCYJ9koDZhZTyE2PqJzLGA4wO7KJh0kQvGSOQVN30CNMS2qlSPJ9LVgiys0iYKkbc2oO7PS4NbRfaB7D5RDQvGWVWBr6kdrp7BvT8OlwZ7P37YyZp%2FuhVWf5tMOyu5R2EADu%2FnTzvn3JfVOnZKkjnmfi8qoMOEH%2Frm%2B7Aqe63SKygo%2FR4OWZygDtksqxzFmaQY5mXADv%2F2H4J48XEqfkgBj%2FjrrksLrVzjVDYGI9Du8h0fZ3HvSPZFaw7Ih6an0MN1vAxZh3G%2F186V3dCjD3dq1Sv3lIPkKznnweZ0cSnLwGLaILEFvIhPAqOTlmzIF9qqIPFIHlTc%2FlnSop1h2x3Qbg%2B1Xc6mSmagKRBf7B%2B0Y90CWvyHtuGYtloAbyL%2BKdhnHRHduiwAovRgqBJEzin3b9d0P7UbNjIJABWwM7q6UxJuWSn4DuN0ZzmWGxzaJOm%2FR8hc%2BQ707HgfCUTWlq35lYJ6M9%2Bno8xNxF15GgVQL9hboDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=87431730032&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX23WJN + RD20WJN (W20WANQ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=FzFAZAx1yDPfxiNEu%2FcmhP%2F%2F%2Fw%3D%3Ds8HFfJZ6B6JtZmnEGMECHsn5VHyV2v8ksQ5LCh%2Fl132ndpgAIic16NITt4jHu2Ti7DrbxehLw4DuOcwn9gdhn%2BR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGKWkmVeR2LrfIdFEKvIvUUew8R2%2BVA9nqMHFvRCO91r8RQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9CBtRjp9xKadXVqRpctlFfyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneRtEaubvbLgte2pEWu98ArqAhfbmRc6T9Q91MqoVII6rb%2FjbI4iNvJOS%2BTThZkLeuZg1cYIrx7J9tiMtswqxezRue2wjhD%2B8JT3U8mO7EllZruV0FmHLP8b6bRXLwuhjQcM%2FU0BdK%2F%2BB%2FtQUX%2FL6qoFE3riYGb0bxCu4GQsNwdPqHIAzTo5QFgQMZjw8k%2BClTsHuEorXwK5GbW5yak9T12zocllCCMjxVKVs7VHzzMnYNUJgJp6CUXauCvW7Y5AjN&amp;nvMid=36170503618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX24ENE + RD20GNG (FX24ENE-GNG)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=uxVt1md2nBpA3nO8NmmxZ%2F%2F%2F%2Fw%3D%3DszJ6Dn%2F4eL1BG2j2TjCMkcsbeHDK7NxlRGlhFEG2D0h9Xa4YJ85H8DevQM9Yzo5P944zUYJD3WU2i75fNTikWmkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27MtprDgvFZIGho3Iixf1R7qVkX7OIXfU4%2BAfmwqlVw7h5xsc11Kq5DIz459oVcNd9Z51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis3gQYCIDGzl2Efs%2BZZkEpBY0Mxh2NRenIgLnn7%2Bq1LRfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Z4oflDok%2FA3on5HSUjJtVGovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZWPQuXcvszsRfkWZZVrO41pw9%2FDMX2S1ZzF2txO07wpTJ7p07eD2jpObLkPTE2hpJtzvlxqpxDgewRB6dbNWWbeJWCRVgXsj5Af5AHLm8GSvaU9WzlLU8ezevedyQmTKhDf1Cw16pxDBBXsrXpF%2BC6k%2Fg8w8cKe509NmMZFQPeJQXMcTRg4%2BrCeW%2F7D4Dq%2FE6xGuz1GpwD36njOJ%2F8%2Fd5KT8s49bSjBf0SdvrVBl%2BFHAGruH08DlKshetxY8KUEZb&amp;nvMid=38521858618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성 그랑데 통버블 세탁기 그레이 가정용 통돌이 전국 무료 배송</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Bw%2FGklTXSldNlJFcpFxsbP%2F%2F%2Fw%3D%3Ds%2BnaTt93JNjB%2FrEKKo73R7ZHftnC58K0rxZJNdkEPKhzdpgAIic16NITt4jHu2Ti7JIONuCDLt%2Faj%2B2IzThRoOB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD90cwf5NbDFhhzcW346a1Onea0O2TX7GIDZW3de8vjU8xZkKPZWuPFcasw7VOInmZiKhrxxrLNlV356oStFy1CiO42flw%2FZE44yksg%2BGQNXrw%2Fa18qhDQ1A%2FKJp3fgBDor391W%2FC1w5SVs2sYtTdFSei6Lh4BQnhnPh%2BSdAz8gxG%2B%2BF03alAMpYmSkcFruOeuS9aKS4ss8udZr2zkmoel1DouRACTLbKs1I0Opa%2FTG5OwDeqEwReF0buq5Z3l2WBfB7nuZnDDJlcTkTpHPCIIytZpujOFOicsyj1DYFnwaQm2V0rBXYrWTeOkLNzUlHJ3MPzAHjCsr6k2ZWdAiEt5HOBE0Cfwcsrz%2BqM2wL9Px8RlA5eEOQEQX3TmGjqNc6Gwo0WeUqj1jlOUYcJuOaosScoT59qYjWax3BWHFX6ojSVzbmMv%2FzpluKan5e%2FWMnEtolK7pHCa5NOOnXUWRa6e3MoiyOZ7WuScvN9NKnFdU6XyNZPONRcaBvHSsY%2FMCwXTuSx2Jtb7R3KEI82zQZCJpnA%3D%3D&amp;nvMid=86716240801&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR10BL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=E97ffFIeTDanL4Gc9s7o%2FP%2F%2F%2Fw%3D%3DsbptgGcbbvLou7rHs1Wg3RvZkMrlvcS3RAAdzXa6T2YjdpgAIic16NITt4jHu2Ti715El3Ddq4mIB5oj%2BJbMFaB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnjxooP56pjxLLfbtlzOh1ogYpOd6Yekh67aRIK20JTfwP4JoYYApwLhLk9ddm2AD92UKsL2qQpyBosF1Xh1%2Fau4BsJjzV%2F3vl5Lmd9HbkUGJz2CZGbVPyTax2B8R1Xeg198r9%2FPuT6thyKGvs%2Byg34BQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9yGFXMkfA%2FAeClhb6636vYSEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1EfrkyQeKiSVtX1BMpu5vEe%2BJEaAhfbmRc6T9Q91MqoVII6q4ZZLDxyiVlbTj4%2FE96y5N8jR8gVF8FlQ9pItE8Zzc8s9W3EG%2FdWWHWxz7wPk35XgbzlmHv7mKkedLKoyiGt5WEaThcwm2jOjlPe7qD4n46%2FTE1FE8f8jFOM8MZ1bU81k5h4N%2BKrXd%2FXQ8EfcFFv%2FpxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=26245844522&amp;catId=50002343</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 클레이핑크+네이처 베이지 (S834MKE10)</x:t>
@@ -522,267 +843,21 @@
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gcm6N2187QdQeznzfRJ%2BUP%2F%2F%2Fw%3D%3DsQLF385gQl0SiZvyox0b6kORN811M98ZSCwvMOEsE9TlF8WVxfV%2FmwmnX7Mz1na4yGedSrquRAWhbkbNaQxYsOUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuu7tZ%2F0eW724eGKnZJEYSjPPU6w7kWTPRi2I2nct%2BIZ2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6oRUayVtCDXc4H87fDSHGJ2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2Ttz7%2Fs6mw1tyoiscPwfP2Zw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2BBAmPURzUa6a4HxcUDRO3aehaNGaV5BN0Io4EeH6zKFJU4MGSBBTh8%2FN%2B8Z8zIbZ3OBaQMSBYRcFkWhjgrz693bYCRmKurUUm6alJ9djD8LwsLvYPlXqKsLNBRpAGPu7qt9tdDgM%2B2hWN%2BPn4FTmhQ46%2F74bs%2FzNmznhIO5N5zjVrw12vl5z9ef9aoR8O11u3O13fPofZVYG7t%2FiJ2zmyP2hopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=32271964619&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
-    <x:t>삼성전자 삼성 2도어 203L 실버 (RT19T3008GS)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=jbqvfo0jTJnCBgER6e4n2%2F%2F%2F%2Fw%3D%3DsYB4DlK2W5WOpvCjm42bKY60HWCyPOt1EoO0ZF4ImRj5s5nCytg3GiMUMnBaVqBbJFCJoQsNI7VJVXQQ1bX5tqtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLY9q8RavU%2BYfNy1WJlLLlnOfXTq2hFxi7hA%2FUJs%2BbMDlfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7HsSo8DTRzekVnwk3mp2RoDokh7KNEkkbwBBKOUFOEEr2YYSoUJTohKntc6BYdRMxQfeYOVMUxXEqyLTbKVqejiI28QDIftdPo5sZ73mZF1S1ireG65ecRLFmbZz6nry%2B7I9bCmWvNHnO5r2wfq4I6pImYq%2FvmyIBDvXrC20KQEJRFVEzEG9JIUH1J8zL9MMhCr84j32eF1axFbEKg9lRewGE2Dqk7%2F7DptJHBb9246Qwl95MjaZKRf7efR%2B4U6sEWAdpzDULojFyoVa9uQd9lm9TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=28788927554&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 499L 메탈 실버 (RT50T603HS8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bTU2oc1B1kljJ8KJSHf8Vv%2F%2F%2Fw%3D%3DsM5YjMle11SVRDsuSsMzRtcC1oWKtfR%2BBebsY7td6wwBF8WVxfV%2FmwmnX7Mz1na4ya6XuhXYnj1WWmt5oDyRKtEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivdfBeN0CaVAb7c5WYNLODsJvDeQ9hB0DaC3PW8WGAbI2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6B081habW%2Fkk2mFICQm0XIGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVR%2Ff3aUQvmnx58WUe7%2BghC3pw9%2FDMX2S1ZzF2txO07wpTkuj4qlTB1E36bQQF3QWdbbfTE0RTb7A%2BdrwC0jTcmmmaCc7KnhBfxcpZrV07iV%2BC7A%2F0vSPti8cHY4o2fastwoK899vPJpn5SAHidWzxsij9x9hRY4XJwe%2BncjgIBfdISzxwVRNV%2FYRemZK5z1sCEM1SHiGl4mMzEWE%2B5TEO0gkNiI%2FHwxgzVQ3xblO8IqOfNjqh%2FZemCCOboDhnweAmG&amp;nvMid=24781884522&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
     <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 그레이+네이처 블랙 (T873MGB312)</x:t>
   </x:si>
   <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MdcIYHkgYfahEIMWAulYtP%2F%2F%2Fw%3D%3DswkhXQAyW0g0vn9pyn%2B1BiFhVhwFIniVdYsYyiR8S7f1F8WVxfV%2FmwmnX7Mz1na4yTuufQVJ6sOLqqKsKhLpAVkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisFUQ0hwRtUE67CjajN44ZArHpOXuca5qaPnIr9KYWgEWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6k5%2BJnCbokRQ9KYLHo4QRt2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2nF5SRBDNYVZwBrpYpzl%2FR5w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RwAevkGOkDoSMqv0ugbPvLUD4HERaptcWUZM%2F5ihRVDF6OXXq9w%2Bk%2BZ7pIRRrUH485tY9wewNzCmZEHzY%2FN4Op2kDBE3fB%2FPlxBsXstHAeLgTbYyRCyLi%2Brgrl8%2BcM5PqUTeuJgZvRvEK7gZCw3B0%2BrJvGjK4VGmSl9eHfzULuElW1D9DcpahXMnXQnqP%2F%2BvyY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=34101079620&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 그레이+네이처 화이트 (S834MGW1D)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TAPc6kG9MeuWmqvvIEiA9v%2F%2F%2Fw%3D%3DsGFQZI7pGs9B2pHCe58rUFOO9WAKNrvNT8Tp5ESArm1Ns5nCytg3GiMUMnBaVqBbJlSDY4dIExMR%2FfTVnKWn8dtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLpHYEFBWzaT6Q%2F8doS5P6v7DMHxlLl26ZF0Gd0AfvpMlfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7xM6U%2BzsYlioEXob97AjYIjokh7KNEkkbwBBKOUFOEEo0qeWpXSeiP%2Fuu%2BdpmavtwEKBixaH88rhNzvfW2A6AXiI28QDIftdPo5sZ73mZF1RlB7lP1clgsGfyJnSjRbHwUOnviQ2ySmDxJwtRSLULoKb7wKpZX5T%2BRx%2BOcaTaCJlsYxUYndjA8c%2BEp4En36CpeT6urCyp7mxVYuiDhVK1EHUIWkx0rGrv1FvRw%2FlzoTiHqIlLK71HhAXo%2B%2B5jM6C%2FAYTYOqTv%2FsOm0kcFv3bjpHVrwfF4Q2WX94qNgCmaT9M86%2BMyJE2DmE%2FrExVJGuHOb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=37620047619&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
-    <x:t>씨엔컴퍼니 쿠잉 REF-C153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=fhu4G9b8839M%2BEUTVnIbvv%2F%2F%2Fw%3D%3DsX60kd%2BMoI3R%2FDa%2F%2Fiy%2F0Zh%2B4FmWCaTeQFovI4glYhN1F8WVxfV%2FmwmnX7Mz1na4yu36Mf%2BbBuc8j85mWyEpnc0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuF%2FDXlG5w71Ob%2B6OYWsXJfh%2Bza2QeRM3JvkzhMSOkR6mXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6lTWK9VecVFqAwnyfURXcRmovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRsSUbGOoV%2FqteoP4x2KyN3Jw9%2FDMX2S1ZzF2txO07wpRrTtMck5uz%2FiGOjZoOUfCUuwP9L0j7YvHB2OKNn2rLcJshtZHWCulc0FQaJo0RdazR3Uz6h5Ur%2F9MkF7kVo13YEs8cFUTVf2EXpmSuc9bAhGIs8N7aNCfITckVO109VBsNZNE2E69dHmLXrqHM0r%2BczY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=27014253522&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 615L 내츄럴실버 (RT62A7042SL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=kGjgAqV71%2FFdBHycHRv7Sf%2F%2F%2Fw%3D%3DsVd4JvsyKu9%2F6xTZpGPrhw%2BiEidEbxnku0xO3zEnyqWZF8WVxfV%2FmwmnX7Mz1na4yT9orTETrXKAkh3unE2ClckbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitZUVhJe%2FMI7j%2Bo0VHm7qwedaiX6cAY5eZBMuT1StNWFWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6KqBDc7jKsWJHOgguTDAEVmovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRHfvU9m5KinKbWDlkuKMtT5w9%2FDMX2S1ZzF2txO07wpRZLCy2RRZqtOVN1YerQYKVgA1UE0yCKS1l9mzauGx16gbseuvx8TL9zM5YiOX6lSGjriJ8H0NV5nx9%2BVr0aUV25eWhmCMuPLgzMZjNigoeJevwt1YY0NYqqGpzcEMLlP9icchwRNwmJ84TyxvjggzFxv%2B8VLmzaeMmwi9ytcFN7gE9E2EFZT%2BE5hXBSOWWuuLke%2FVP%2BgM94BPZkP5YJ%2Bex&amp;nvMid=28272225556&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 2도어 335L 네이처 베이지 (D332MBE34)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gg45HZ0rwW4ACKt9asARhP%2F%2F%2Fw%3D%3DsmSPFoaEzUewjtrSFCqbi8gtK75bAQJADtEpqiJRVrS5s5nCytg3GiMUMnBaVqBbJnzn1neu8rYq1YNfrtr6xbtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJbpXh7LJtTl%2FS64hhtP6efcdoJET4jVUhLKMI5LixWYVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO77n2PZXZWyytvSbxZWV42bzokh7KNEkkbwBBKOUFOEEp%2BSqU80aWVN3RquPYORtRYabONb9V3O4FPCK2zGFJ65CI28QDIftdPo5sZ73mZF1SodTFHSg1yvfOWpTY7eg0fE5YSUzQL2ybI8zBc9rrUymZcyLBSMRy8gpK104eXbWvyNHyBUXwWVD2ki0TxnNzyp4tNASgPU3egLvEWIxMvlmZQGp5co8d9SGQdokLKrIERpOFzCbaM6OU97uoPifjrRjEHgne%2Fxc7plelXwyfZwf94JNo7F002aOK2MDQRvHLHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=33578043618&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마루나 BCD-138H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gLQuBux2EosBSRxmx2RWsf%2F%2F%2Fw%3D%3DsvssghwhSsBqTC5Zzlm0zGZT3J7qB%2FUgOpYdsAQk3m%2B3nSaHCvCuoi9wE8SzWjVqEqhh7hgLtXM4VqFvn1Nrwtx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGJkrMGCe%2BeR5kVs16CQukq%2FN9dWW2XmGOMxcDYvyZtxoT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9Q2aMqUHZ9VoHOMRIPcjVSiEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmqBLNiuykoXn5avfKXxUnDKAhfbmRc6T9Q91MqoVII6oqig81T1JU%2BktEum8J3o1aF5mk7sLA2X1iyxhsuLNxByvjbnK9EhmKl2eyNraR6ETP0RQtJFsafht1FLYAH374iA3%2FU2AzguC84AnoS7Lq%2Be5S6xGRjwW1JK1sSd4xOcXU1mXVOzL2pE%2B63cj%2FpoorV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=20593870583&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 2도어 300L 메탈 리파인드이녹스 (RT31CG5024S9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=l82V4cv6WeFUTyuPovo7lP%2F%2F%2Fw%3D%3DsaIbw80C%2FKCCzfGD7QfPuHUNVKI%2B1UmPFeuSQ4t9d%2F8lF8WVxfV%2FmwmnX7Mz1na4ybKJOSJCY6Ce%2BQ7gUmGk8QEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitYOqcLWCtOnupt3Cp0B%2BRT4dDNOVrTxHtg%2FtI%2F1D7ROWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6%2F8%2Fl4OLs1EP94Z1Sd5PcVGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRPJB4T55thJMgylv%2B4Zdqmpw9%2FDMX2S1ZzF2txO07wpSg6TfFE8tXklgyaN0CrzjeixPwN0%2FGsY2CRQOyJi%2BCUbpKOWF32ov%2BR0xdrKOCwarhWUVFVDQpg6Rs%2BZULyp91uwP9L0j7YvHB2OKNn2rLcCYyCa16nzrUYNNCRt%2FVsshlnti%2B0C0w5B1InsHum3miEs8cFUTVf2EXpmSuc9bAhJ086o5j%2BihTcLiPcOcakOPqq5H%2FWXzOmJsJlMI6Ska7zY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=40545228621&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
     <x:t>LG전자 오브제컬렉션 2도어 507L 메탈 네이처베이지 (D502MEE33)</x:t>
   </x:si>
   <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ley8tKgQuiDdXRKz2BhRf%2F%2F%2F%2Fw%3D%3DsCHJ6bvCGfLgrdLyXMnEOliQO1bpNNLcCgDgS355y5OxF8WVxfV%2FmwmnX7Mz1na4yERbuCPEq7dv86T5ImMhjBkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuNhvR7Ru2GUKkxHBkGV6y47PnawSoNXj55SN4xGXtfEGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ61iqilN0puWCU0SRwL6Jm%2BWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRlLtF7MEQDfCx9MisLe5D6Zw9%2FDMX2S1ZzF2txO07wpQXfA%2BqoZXHJjjPa0zXpCu5HXs%2FTPsn68MYi5O891Mlbnj9EJppWJS664ZHKxFA1SLn6gAyBp%2BfqFtcPR6zKXS%2FoLtzJ%2Bl2nLhHKxPIHI%2FWMLO5tE2phHMthNFg2gmtPIiUy967mlSa3mZfqZTLi6Dq7gofx3IrxwcXg4uk8Fe%2F0500hpjbDCszXB05nPCYspbE77coDjt%2BwZNunyAyKi6YHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=37421594618&amp;catId=50002559</x:t>
   </x:si>
   <x:si>
-    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=oEdCwxgu9kq0CTarRt8Kff///w==kyV3945zlUcD4eq9fudGuY84nRiUWP88YJEaTe+1CCiTS9XVm2Y+mZOT/jGMrHxf68zC8hm/PxNRa7yYLJFniX90l0tRhQ2kWCQuTG7TAKrbmmkXXVa8v5NmBH6TuUNJauyqF+EmakqhU7dQeocvn9nlwqZ3AMRurY9ZcIQA//ZyydCfzUmmPMwjBtCnGYrMhKzku0WmMPrGVs5BEbcXmuvl9W13Fm2jdD0iZWIgPYEKylJT54uHf1sAvIWwvKaOk8LBB+MJN3WLEQYnZLKp9tLd9jZQwKAYfQgbpsmy7Xvt7eqY84XCPBZnpfx2oExYS1XgS1L0ZDTXyg+uMVlM/wmJQGzuXyWnKxS3nzHmqRTTJKllYuO37gKtarx5dU5o9/EbqEgjtKohHjjmP9mEqtD2IIbDjBtnvn/+GHP7GNMO6yF5XMNwCAy4eS2mV7mzjfn6g39sXZXiqyNhhcdCK/2nC+53znLdIqErvM8Pk275EIvu/Cq40ngRT4qrFLnTSLiLiK66XdukBunLnRF9ofP/HkgVEX78hpTqvpEx/KshhNbLHAPy8HUVzNdy4SevouxKmA+trTnyBfwPFzZlUh0tyumIm1K98J+aJSrX2sgFCfH7jdDKqs4MTrKwyGJdr1lfwYIEI0F/0wjxdB1Znzs282QPs/Utr5nFfKGfrYrBuH4xUUVc+0O3yaMtrlC/jfsrCgS/3iz2in0rbDtdcEF6QPFQ/X7oD4Tn5PSYacY+zbAroQWVRrkMrUGfos11IYiefoo6nu8v0/eZIZYOiN/odVnnCKu41U6sxPNFHrtjzPecWRKpBbbEEwmsGQXNf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 FX23WNA + RD20WSQ (FX23WA-20WQ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=tphcGHn5Bg7SQBn/dvxKSf///w==kfD3CeOyJErnF/G/hn3KXxMKHP4tfzGmksPG0n69HhmHpHBQnVz2b4defl1YXyq6ovRAmTy8DkKR/99a2n3PJBh6W2zQKhF5vYCvauoa9H5uzNbId/i3eYL3zeHIgrzXBxBXa+5TfRDnIh7pedbu5p+Ubel8oKdcfXDOF8ffDzDKMoQcp6Cn0g9lreCHCA7+XSEZY9vUpt02BG9xrLhqhHqxD0GGPFvTc3+2zDnbDSnUJYqCHYWXcV5BJ8pNQNCgJC3GVXi8fIn+Z5PVaUemZoeUB8u4Lw4oSJnsxoFjT8DtmvKlIXFz9hEYmilFYhmcU3m3tVAtXF/7JLtJqiGfeAIy3AopFZCbhG3zxLIRGR9jx0n6TK7Ho1invBvOatUpnSYUDDMLoD2oisib7idhXse2TK+d4NKrQ33aukJAeFMQNzP1z7HnVWYihYOuKoqrmDcFu9MNHxgNRPQMCdqeDXeOWVfvDdc5QHO0Wl5RJvOFkTbLUI8Y2wzIFVQDWIqHqJ1PCS3xygDDX4O4PCKrCPvR8loJtCknq7r+eweVHUdRUkDFratbOUrGcIycIMqa9sRtTA4uONeRUXuQJxppokk5Bbldlun79GrGUwgT1dLR09wRooEn0vOkPJkNaYPjz+/u8yeKKNDlD2eRVBXvMf8F/8wr9qNY64/Y7hoM/TtLoNLNBzU+2eFLxPBZlImjansBtuUEguEPv4bb1dvAsZ7Lbi+dJoU2gGWbp6b7EqRAGqjInhiKOD/L6gPJ79SaUa8mL5JrXN1RZi7uhv3YIvm9sqHXAZxpgjqLiNRBC2nb0laz+X3jiL5V2s6eMguHYxdG8GmVljyNzvWsnLUrbMg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F15WQWP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LrKXKzXhyVJ7jaZSYwg2t%2F%2F%2F%2Fw%3D%3Ds5ygrHHNiLtuRIFvhzbTQ%2Bbf7Fr38sAeWiMgmkciVBddXa4YJ85H8DevQM9Yzo5P9m9VXkxThhYcMIpSuz2Fw2kbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu%2FJaz2fEGsGWG8bczfGHQPbDFIGooqqqx5yyVs4LGd6fzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6aAPQAUaMabsKH%2F%2B%2FIbh%2F%2F2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ%2FNf9ZQum3SjCOvOEyVKFVZw9%2FDMX2S1ZzF2txO07wpTdRN0Vf2xeKknU1tHRmxUW5gp%2B6h%2FA%2BU%2BmQfK31kpnFQBjt13YGtb1Ur7qlY7wFONfneagTObS5RHnRHnaipoCjr%2Fvhuz%2FM2bOeEg7k3nONV22%2BqHH8MpZYK17hTpAiRNiTz84sQxtnbZ11%2BQUdrVVy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 워시타워 FX24WJN + RD20WJN (W20WHN)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ALWuyaugKVvGmWMZPBGY3%2F%2F%2F%2Fw%3D%3DsyniYOE3SY%2FTXfbph02iXnqtOJVsT%2FELXPSf9l2quFPjdpgAIic16NITt4jHu2Ti7GiKiHQBPF7FasVYLzI36AB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGK7KufLpOCxJTDfS16tEoP0PyEoQG%2FS0PdHZ1Z98hHjLhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9DSN7H8Q4FCz5JNvsbK3rNyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne%2FiczXRi5fFH8dgI4efV1AaAhfbmRc6T9Q91MqoVII6rCdYGJIi4G227DIKAy1z5AZg1cYIrx7J9tiMtswqxezbF%2BjRUOEPnenhaGmJLe19TkuIVaKRhr%2FvuqX7MMDnobiGEjosFLiiUqlYUfoiT1WAGE2Dqk7%2F7DptJHBb9246QvtQm%2FrqQw0WpDSV6Vt9EIsL3yUI1bw6FjeTBp52IfxQN%2BQsjK6V0FLd%2Fybx7qcubNSE3OzZUT76KyqzckASmm&amp;nvMid=37988116618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WF21T6000KP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2FgCj5XsfTMDevBSZofAKqP%2F%2F%2Fw%3D%3DsDBoBFzjbokaa%2BryQxubnc%2F1UX0KjFMFvZKoeNoGbGcxXa4YJ85H8DevQM9Yzo5P9Gro%2FTborZnseHZ5K6G%2F4PkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivJCOxnDowIGyIoxKFJwlTYExqE%2BRgMNo0tNmRo%2BnFKyfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6dSXl9a0lDa0gIQq7ReipPmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ1vaIpXVZBKpy26S3BJoUqpw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI6zYv38MEmQJ6XIPPOhIeYXX%2FK%2BxJzNGZPJ%2B2t2XXcK2z2pkOXnuyJBMthuaVsXjRiA3%2FU2AzguC84AnoS7Lq%2BWmvEC6ARhXJVHfKwgCWXr32mdjrzt6guWvPvvRJVqc%2B5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR12WL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=rYqBF8ztR1nTK0SuNOLZHf%2F%2F%2Fw%3D%3Ds5cqxy0uHc097lwzELsKiAefsQTOE0zdFU2Dn0MK%2FiBhXa4YJ85H8DevQM9Yzo5P9xLcENqBK11p%2BwmSF0H2TikbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuSCJK6PgzmF0fwhlVm2%2FVPCkeeAb4Dw38z3aq65trtKPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6h%2FcsdlZHXFiNUuVDLSAi12ovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJh6d0HjlbTgLTHPrHHPW0fh5w9%2FDMX2S1ZzF2txO07wpTDngjr7oYPmCDfIeNH33%2BQzhW4ATNeHpR4SJdEbQK5L9NnDI2wiW8G1GGiGlp4K8hPEj0%2FNfW89fBeFKfGwwOU%2BgtF15PMkmjkNDmi88yMRSLrnJZn80EouqMJ6dsnd1OfWEgp8vqAFhW%2B8b9MQzqThWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 워시타워 FX24WXD + RD20WXD (W20WD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=PcRpwxsDzEtKOVpWb0oMUf%2F%2F%2Fw%3D%3Dss%2BzNFNAKArPMjhmLFUoArL4KNBLIeLXt9Rb1aoAiSjdXa4YJ85H8DevQM9Yzo5P9JhoBbbeW5kr9%2FIr25QyEmEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivACUTUWQyCc2wx2r6ZQdrGJuIpwHmh0%2FRF3wqPmZmhaPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6yG1T2DFxJ5x6hbijwA1iW2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZEKogfqeSFazhH7VV7XH5B5w9%2FDMX2S1ZzF2txO07wpSKAkXtPbksbsISZvcU7c5vMgRb1apNSZXqGxIiUpWH5%2FI0fIFRfBZUPaSLRPGc3PKJqQvQX8qLVbxX2X7lgG%2B4X0i92%2Bn7ulVuFEkps7VGvGJxyHBE3CYnzhPLG%2BOCDMVxjmH5DZhSwIkAgZrNaxs%2F1EK3zUnn1Dj6mnTiJw1tcscgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=30402965618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 WW90T3000KW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=2lINSIKbQ0B3FvHlFxR2D%2F%2F%2F%2Fw%3D%3DsBKyLdhLTRMZePxcB2KuI0NC3hFvLScc%2BWPUmLbVHRxjdpgAIic16NITt4jHu2Ti7S9qxLNgFLnHnYO11IrjmBh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLo8QqR486Qb9NwTuVRRGpASxPO5t1FgX3iJqF1%2BggxxxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v96ONMvJ%2FGMmpy%2Fd1wpRcp8CEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynez0LcgGndb4HPYYb3KwMmKaAhfbmRc6T9Q91MqoVII6rixcSdsltr0ZO15mi%2BSdLl8tjTdlkUA3qFKR45INvELvw7lm5BlcVipH5PQmiOqOgEtZQ3roX6J%2BwKkie48Y3jAYTYOqTv%2FsOm0kcFv3bjpKDmj8PAxq3lPN%2BKqvX4iRvaq07%2BiAekglNj1iX%2BDk3HA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=27570689522&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR10WL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=WVamAy%2BbPXIQ73K%2F1q%2Fr2v%2F%2F%2Fw%3D%3DsPYJx1NlIyVHQzS1Z0xIuiROvsVZssVfLHiTRa7zmyAlTWY5MvHExC5BUTXXjdBTuDaUGZC2smOtAo1FHmH3WmNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKDVgEZesSYhgCaroYdVuAWfWyznO2hs%2Fok04dtKUcpT%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7lcoU0oFgqomJ%2BQ9Q08CFZTokh7KNEkkbwBBKOUFOEEoLk36t5EZOqkPMxlo3DxnMtMWKhqQC%2BRvQa5BchKUW2CI28QDIftdPo5sZ73mZF1R9x0Hrk8%2FMkgyD32AiMb9C8Bp8G3Tytu%2FBbutZxf1MGPzOaTx3KQ6vzdLMFkauX0e67qFZNDARYcZkRQNTwYwpFQwuyGCI%2Bg3dUVY%2FXoQXMW4j2xBEeA33ffmiW3fW%2BgXNFUVErwpJi2NS9mvBJ9UtHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=27058613526&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR16MK2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BMjkxaVUhSa0gslngZIJuf%2F%2F%2Fw%3D%3DsGDLrtL5uPxvDMKJKpbZHzgOK6TjhmnSQFzHIpmmkupTdpgAIic16NITt4jHu2Ti7GBVESGqWsXFcu4wgo2GuHh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLycQbS1MGTYQfC1kF4IYx%2FB0vtxjQ6w6TdfmXtUsvKMRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v96PKG5TWCobksPBT0toJmxCEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrko6Jc5FxKu55drZC4Kqvs86AhfbmRc6T9Q91MqoVII6q6gBMFzLFzWXUEgstHis2qo64ifB9DVeZ8ffla9GlFdkdk%2FWfTA1klTmIs16MKh8uD6qfmHMACo1cz%2BZcEMAK6YnHIcETcJifOE8sb44IMxUMnsgNAe8Z%2FseRlT1O9QCtqxcN3TWKiGYoDo3%2BNIiYLxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=37019031620&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR13ML2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9qYjLIVAOE7bQO4wbizRU%2F%2F%2F%2Fw%3D%3Dsu7GJprg54eKTqAOmvukWvGLq0i%2F9NHIt43nGJeNR4lhTWY5MvHExC5BUTXXjdBTulHcyzc%2F9pyYkWEWk%2FcnJ19of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjITq3VcVol44e52Dnx5EHs7ts4nNxzJabeEwTBCi54EA%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7yBK7LrirY%2FlhNyUz3JnpBzokh7KNEkkbwBBKOUFOEEoa%2BDgo0rqijIQYmK6M%2B%2B39ADSR27OVVpLDAwtgcxG1XyI28QDIftdPo5sZ73mZF1SURayOzFX4aDC6yjaJg0pL5o%2FceWaeRLYtdVRyNcwZr9O5ejnYgqeRm6z8NTBUVlDWh6nm66B8F5u025ZmJ%2BVuehkzm6TPp1h0P2FevnkdLwqWYRtQseIQm%2FApsgJuJA%2BZ1IPS5XMyyeGR4eyFnBs1gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=37769600618&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 T19MX8A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UAJAhXzDAqYjDtT%2Fe87bU%2F%2F%2F%2Fw%3D%3Dssdd8zLolAWVpmaB2CmCMBi46pOuWF1MhdA3dcoIMSiNTWY5MvHExC5BUTXXjdBTuCjXS%2FALgF4qI4cGAqclzB9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJO3YGdSEcajpNARJHTJqzs5yUve4GkCjsflgNoIKoHW%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7NBhZlHkUWhmt%2Bk5d00pojTokh7KNEkkbwBBKOUFOEEpZtVmrEysc%2FO5JysMiSfLQhqqV6WRm0hzkj42%2BEsakcyI28QDIftdPo5sZ73mZF1RHKn7hD1yPfXNYgrBe4rtg5o%2FceWaeRLYtdVRyNcwZr3rJtTreuhyI1o7mfbCiWmQlMNUdzQd%2FqdACsKcOAdiKezdPirNIEhU3YcDKwV2g5PR5nSUJ1xp8NkneluRxWS4K%2BY6VVK8%2BQoCK5tXYY1gUDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=40438529620&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR16DK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=yQA%2FKCLrgzI3WT50bXxXXP%2F%2F%2Fw%3D%3Ds4uuRaQe9WbylVTddtycb6JpVolfb%2BZZ0FiBye2doE4bdpgAIic16NITt4jHu2Ti7RIJqzwPsw0cqfKe3TK%2FM4B4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGJPu1kwEm2ABDk2zraQdPVWk82w1cm%2FmBnmcClucwu8wxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9oqttz%2Fn6vNCoK7wNKXvPVyEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrksv7izxXCGEpUbDc%2BJXXamKAhfbmRc6T9Q91MqoVII6rapvc8r6d2f2UiZFMyeOYZ8jR8gVF8FlQ9pItE8Zzc8gXx2%2FJiTVQY0AC%2BGTQt6D4cdq47JJzoONKbqihxTDKQEaThcwm2jOjlPe7qD4n463iwJfiDPUYNPXjEVMu%2B2CU6Eo3ZOAZApJ7eI2CpozBwxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=41412181618&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WF21T6000KW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=wBJ4He6r9WaNNAaGruAwG%2F%2F%2F%2Fw%3D%3DsC6c1YMNYXBgDezxZ1MABoFqpwhu5rNn15uj6ChZC3eNTWY5MvHExC5BUTXXjdBTuOo0ANoYQGhcPyjdcWIp0yNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIS4iBZ00sGCDB%2FnF05qNdBmmf2nUY78%2BH1SHCoUoG0Dv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7wmgR4Qhs4coCaIdnSdnjwzokh7KNEkkbwBBKOUFOEEr6wJm1zeW2yY8Vzix4UfoeWyPHvzy%2FfdmKbIUVB5Y5tyI28QDIftdPo5sZ73mZF1SxZF5zXhAmtakyF%2Fpu0aiZuwP9L0j7YvHB2OKNn2rLcIolx3XTk15fcAMUyct77Ct%2FymEPnQv%2FsDrertbu5rr6Es8cFUTVf2EXpmSuc9bAhLBYNXLalPK%2BRyVbWvcv%2F51UXtuFsRzegaIazPJBZh6MzY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=22369783605&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=lUwV3h64jZr6yGKJfi2%2Ftv%2F%2F%2Fw%3D%3DsuYcEKYfTWTRkNyi0TKn1QhrfzCN9TXcHAqJy%2BLXY43xXa4YJ85H8DevQM9Yzo5P9qolM9%2BGEA2O4POoRNPEb9UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiv3%2BLGSjcX810mAnp91C8O%2BfALud75dMxmB7olx1lHkC%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6pUJ3pvAU%2FUk%2BcwFkgK43kmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZEaUl2%2Bnr1QPlcmJowgXOl5w9%2FDMX2S1ZzF2txO07wpQCkNvig6%2BhTirkU21nz6hYt%2BtTIDdROUUJeIbwZU%2FVnXiUSsmAs8DDguWbirRGwkwE%2FYgwAZ1NKytt1kYWg1oonUpTzmQTeleeE0y%2Brv8xbIB31OiOqzqyfkWal%2B4PqZkh6qPQjx%2FfiWf%2BSXYutd%2FuA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=46032887620&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F24VDLP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Xa1d4OLjTJa5lZkh9KDQhf%2F%2F%2Fw%3D%3Dscuuv5JmhBuSqIdhOqXXMPYw6QaCFlD3R03kpOD8skVndpgAIic16NITt4jHu2Ti7bzZFSCORdzmHkd8SGGSOXh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGJseyK32%2F8M%2FZvi0YZO2Ed0Cb%2BeKHMcPGg8rwXZh%2F6U2BQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v98peLoL6uQrfzZr%2BcyQpbhiEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne2SRnSFR%2FjElpCWQqcjR3dqAhfbmRc6T9Q91MqoVII6qLBSULoGCbmgkPnqWMPaJho64ifB9DVeZ8ffla9GlFdk253Tp%2Bf8W1zDOUsRT51ciTziFw5%2BZ8rFFI0iDBttiJiA3%2FU2AzguC84AnoS7Lq%2BTQtHiCOY%2FWTDDSW98k6U6XWSj2ZYf6bO7oApBkbyZ2MV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=38677241618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WF19T6000KW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Q2FmI0YKxTttP0Xf%2Bs66v%2F%2F%2F%2Fw%3D%3DsX9yeGVB8iWPY7FxExyRDUfCAmuXJhROvfaIyTAoEpFbdpgAIic16NITt4jHu2Ti7qREhN2%2FoXR3M%2FoUawPn%2F6R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGKSYKjfOY42cKemTMTw4dyGYQvpCqTC69oNFHaj0IKedhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90A7Iqcl3evVDpeaMNdTi0CEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynegFDM1fHGh8JaDQ%2FQr4X8Q6AhfbmRc6T9Q91MqoVII6rgUEkBq3g1XZ8p3Y%2Bs%2BJGm8tjTdlkUA3qFKR45INvELpDv%2Bo1ICrRjCbWWP5lw19xhQsxz%2FYlCnBlMKRjCDlltAYTYOqTv%2FsOm0kcFv3bjpJbpmCKQ6El11VsYi8y1BKU2xZREXtU1eOuNRCO0CntSb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=23057107491&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F21VDSK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bF5wKnKlzO9s1GTLBMIoNP%2F%2F%2Fw%3D%3DsN%2BfF%2Bl2%2BYchr4HjAvrtolnKkH%2B5XHBZNhVUpTKwPY%2B9Xa4YJ85H8DevQM9Yzo5P9U9Q5%2BG0WC4tWLDU81SW18EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisAQFlu6fzqbRRY6WXu6LzmkTxPVqWjlM06YlbRFs8RiPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6bpHKTonMA2DpdR9cAYvV2movNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZAlwBrMnXP1ms1DJIvfm9Apw9%2FDMX2S1ZzF2txO07wpQcT6m7ZfuIQR9Q4Aq2bDH%2B5gp%2B6h%2FA%2BU%2BmQfK31kpnFUuPXlzepYztGhn%2FgQqzGfGw2EAo0VvPbjVeFpXt%2FUrNjr%2Fvhuz%2FM2bOeEg7k3nONflo%2F8HrCvrwVdlrkuKRyBp7FyCZHygWZNkfq432f91%2BaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=38674238618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 T19MX7A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=KjV%2B6QxGJQU96pmlkP7xD%2F%2F%2F%2Fw%3D%3DsJhPxsxfK7yzoYAxhXEPO7%2F3rhytRM6snotMitX%2FehwNTWY5MvHExC5BUTXXjdBTuBJ%2FJIP5NJ5WDq56qsyZDitof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJKLIROvxZ5HbPFKEHUUbit0j%2FiALXqNgBoh21nOQ5U5f7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7yn432XIzzUatee5v6E6h6Tokh7KNEkkbwBBKOUFOEEoNTRwF%2FO00lN96yljMYgTTdHIFbhYc%2FNYrMbfE9E6RYSI28QDIftdPo5sZ73mZF1TzFMqFUZKf1KlKAXRAa3WY5o%2FceWaeRLYtdVRyNcwZr7CbxRiCn19CuxUWf1z%2Bzpx087CYa3eJMLphP45aIRjpezdPirNIEhU3YcDKwV2g5IhEPnN1uFEoc0ZGhEXjL2x9huImFy3bMtbltFWzhTePDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=37424591618&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 T17DX3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zRWycqLTpwYenru9nakMlf%2F%2F%2Fw%3D%3DsD56ahb5xpbCtPWj8QhAlWYJy9JNMzTcomo72K6odrrpXa4YJ85H8DevQM9Yzo5P9ht3sJ%2B4G4A0fhfUQU0ofQ0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu8jWOoidRCm2gn93Sp0tJN1cnRCfXvgd1qIJ%2FT0RSVpfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6FE%2FD8xdsGfZ%2FfL6AzcUQYGovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhHAzdB1LgstzBFbHc460JP5w9%2FDMX2S1ZzF2txO07wpSEze7hwSVVDn9tm7BAB2rPzhW4ATNeHpR4SJdEbQK5LySd5FHu2%2B6%2BLeqPc%2Bw5g4Jsoo6r%2Bl6mm%2BE6hA8KiI%2FC%2BgtF15PMkmjkNDmi88yMRVSG4LtGTVjHtRlfckGPFKft7ec0Ppq1ZYVYPod8RK5uy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37102400618&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 FX24ENE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QgwEC1gPh66gmALCkM4A4f%2F%2F%2Fw%3D%3DslPWDrsMidecEcuQ75ze5pEj2Et0MbOa1%2BOTpOm7fL0FTWY5MvHExC5BUTXXjdBTujdqAJO4w7f8lGlDUNFkkftof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIsYfF9l0qZ9CxVRd%2F%2FRueFZSlW25mNwCL5zHBwbrTREv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Y7IeiTVRn2gK3I5H70E5rjokh7KNEkkbwBBKOUFOEEq0SU53PQLdRdbuQCGdhUZ%2BvWKdG3W5%2F6S47Zi2VQAc3SI28QDIftdPo5sZ73mZF1Tmou9CUZe3zAVQQjAXGNOEllYSet7WojDJmXyLS2LxxnUCliC3CsFEig3RhKEzzof982P4Jl1TGGPbaWROZJ9Wv4YGjJCSIW1IvBxXT1wG93r72bUxZ8ptjlGATcsGkQsYJfXqyeTrlriH58BCQ6MShWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=38010628619&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 TR10BL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=dYptVVJmXkQ4CL8jXODXff%2F%2F%2Fw%3D%3Dslel65UJq8OFN9GuZAQs7HixCb%2FITBo5rA6NPfOPxc7JXa4YJ85H8DevQM9Yzo5P94p7PmlcodP9ntE%2FZ%2F51u2UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuh7ztwn%2F5QolnauJW9UfTWLd79iaEGcleEuylG1R1WqfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6QOhDn6USfyuQiSHc4oD4RmovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhwnC7NfOgIt%2BPBb94Z9dfJZw9%2FDMX2S1ZzF2txO07wpRG9dpvKTWueZfpmOxdKCiWzhW4ATNeHpR4SJdEbQK5L76QnvFYevU8UiRYBhY%2FuJopwSPE4jSHMYWOLquiOW5K%2BgtF15PMkmjkNDmi88yMRUGZF2uS6pEtyL%2BSOzAHjwVEe0bUeRHdX9nh%2F5h47OTby1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=26245844522&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크그랑데AI원바디 WF2517HDWWD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=i7frhDHyIF8HcKrUZgNpdP///w==kZO44vG3H6dmoRPOhG1xlAY4/qZostkZv5zb2sNEp/w5/mQfJIZsBNu86jJW4an5CHJnXLiupNJ74D/eG4AREre8dZdxaM+aW2uDw3givpgqVHo676b7nBE12AqdXSrDFzcDJC0Iztw/Og5X1OCruzaoH6g9XFumRo3DNTk9NmmghyuXteeu2GNyZyJbahj9OhAoUNdCIOin64YWwXhKwJ10n8dY04vFHdl/W9aRJU7KuPIfSDfPm67r6G+1vcqZ6sO7Rk+l+W+B7QYmVB8i/jzNh8rx3aW6L2SYXAZQrBwy0HwWQBou9DkkeCkcKkoOhi6BMj3vpz0/+pLAIcCNndHV4bgxX1qNsCZAstvG+w8+I82TfDbcdtn/EjPN3i+2MBPXUA4KS7xU30lNFGw7o4OEzp214+9tgoAwe4LSsykKXbB4KhL6Gc3+hZJEMFHl9aEI3xTIWU74Vu957HRHDbzddP5f3WVShVnBiupdFqEUZzh/J4uiiy6yUtYICpNfTunP/iHhyv7cUnRKOL151hmmbr4NwB2WjoqJTr/8htngOxNM4XrXOAEz40k/V9Xsz//wiBZMmeSRY1453VTNjzbPIfa20OWq6c7nz8iqTY1hKluMmWcvH8uWg0GxhEkFARVtA7hjeiIo7LMolTQ7b0D0HmquCveC4t37z2xxoWMcnB12nP1B6zXVjbejDByVsSjR72/gshjO/z44AUeKmNiVnbled+vYTIOnTnO6dXdPKsswnn/nhoify8h/aPUlVFOHN682npaOt7Znnq7cpKpO/ovW28UcHw3agHo9/SM/vmxlPJZGzBAo9ALPhvcsro9U8pUgXEi2E6tldPCbRhQ==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 FX23GNG + RD20ENE (KX23GNG-ENE)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=JljTDHOYnJq6nf2fy5C8FP///w==kfD3CeOyJErnF/G/hn3KXxLQeYzA8SVFsyQxgiiXG0JD0GiFSlmytP51IaDXgCm6qFgYnoVrd/sdwWtV3gQCQ7myYYxOsFofufw5t8m4XFbWz1MisteBa58ye78ohkX+CQdzK9t3gIE+HdjBGETKljSopj3soDs+qtoGSgQDtr7VlD/hNbfHq/28BB4mdEG7jw+QoQPrCWHpgxxR6dYw905RiANZpuLMJLEAfo9GTBesl+wXdXOzNfWtKQqT3reqyzggqokd2ev2nV4ADpLUP35ZAqoNkXyl6hvgg2eID1VI+CWsQGq74ySzer3zWIq7XUxxme8xnS/epBBB0UucaohfapNUGGVeEuMSMCdzNTojTN4LWG33mBB+JgsGvuMd8Vzq6FXosV3cs4mf/cq9GwvgxgDkA02jW7gf+2PHJumyapwU/mr2dCPOTpZO06vbNH6L9oH92b+PRm97WGJT4Qm6ZqaicL/qH8XJ4001lXe/6/OTDowxXR2CKwTU9eUJI8XXzkNHv/9DA3nzjUZ8BTGEZUu/CQLWRQaN6jeDpetLgGkIcMqYjUAm1ga98eLAuvB2ygh4TOEjT8sLccxq9387DAvDsfJ+q0Kr92efUJa/IKbTtOgW0XfoUADs+O7kWUC0OD0RUHrAThPoFaWcEFCU8wCvj5KLRnxH9M3aMmWM1JbFD1WJ8fwqAEbaa1f/S6mzyJsHggH05CX5Ym/e2r34LeQ5jTLJG0Z0rbl7oolGX9eNnQFnlxYrxpXlLuoXECDFNtb0Cyn5czmEDChOS1qtSQXMfvkqzVx2AWhFB3ZGyQk98tw2GoJdpiEFvYrwgiuRbHm3WTIBAFG3qzoaR0Q==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WF24T8000KV + DV17T8520BV (WF24T8000KV7T)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Luik1wFOiZCVdNJxTo2hFv%2F%2F%2Fw%3D%3DssIL%2Bip5FLvkdvWcLz88U%2BXvnotXtQvhDsvb1B3rVl37dpgAIic16NITt4jHu2Ti7p3vRAnJACVBeNy4Yz5NDTx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGKWjSV5bxqYAT8LWWit2SXhpMBFbaMXjl6nvZ31JDywVRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9pMCrqfabi9aoxatLhB6qtyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneGzLU7tNPM9lKOgBhWuZl0qAhfbmRc6T9Q91MqoVII6r8VAjeNJG%2Fpl07h4%2FlPkz%2B1FQ1n5hRDQg%2BX3BbAqnU%2Bo8Sw5RR7b0LmpTYgp22hbffSeUyHdl2nDEtpTOqzLh2zGi8wzVw9IqidtEfXkauFoBJba29OO7jNEQ%2FJXO8VC6dSlPOZBN6V54TTL6u%2FzFs5CZjXElx8cWZpOoBm5Or3GfWnBwLeHFykEFBj8hB3XYDfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=25883545522&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데AI WF24T8500KV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=82eQNZPXdStCOaOTnkVYBP%2F%2F%2Fw%3D%3DsclB08RuMTN1eNJBfa9ABvovXBcyP9hiC1x6A34J8YJFXa4YJ85H8DevQM9Yzo5P95LVrNQkz012JY8XhFO1gtUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivrgMBr9Y8%2BA3zKCWIXGqbC%2F1J%2FmDfxFN6CZAF%2BtXmWL%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Ia6LbvGQgGV6Clj%2BhUwqAmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZL4fiwy3HAt67D3Zadc%2BqLZw9%2FDMX2S1ZzF2txO07wpQwzjRX%2FyqH7RFgpfkzuNGyGR0DvfMRdBhAYxbOp49GVRiNQqqyY3WOPY%2BUwosYvbH9%2FZ3u5gBILjxKL%2BT1Gyt9DWrhHEcp0p%2F%2FKKziu53PdLkyDBCQLvGF2ccuoII94zKNPHRf19dNZqk7zrm8%2FiE2VoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=24563349523&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WA16CG6441BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=nRxUfyw6Sug10njhlKyvFv%2F%2F%2Fw%3D%3DsJKnQewhUCYUf6TdRKz51AVRZ4Tbk8eDgJieiX5JGOCNXa4YJ85H8DevQM9Yzo5P9faI911OBBy8MiQedtQJKu0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivZ3mGqQrCHpO1QdNWVhDo7tUhpYpmEDK%2F5c3KyHY0dR%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6zv7i%2B2PjgnRzINo%2Fx0g9IWovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhkxj1OM1OxCrsocgpSk2g8pw9%2FDMX2S1ZzF2txO07wpSyZpRFykdNybJyyj0v45m8xlj6sOrqDmR%2Fs4PB120oFif1KQpo5Y2%2F0PB1rUNKgRJU7Uad4n0wuIZ3A%2FuD4aqpDWrhHEcp0p%2F%2FKKziu53PdDjbQw7H0xMmK2Ozwn36iACLANftflcXuBeoTeK7sWDXVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=43749532618&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 삼성 WW90T3100KW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1NbS%2Byno3mO9fa78uaWrLP%2F%2F%2Fw%3D%3Ds3w2DxEKlDf9q8EEv%2BMVnwZ2ZQLYZbK1GZaHOlrb8eUxXa4YJ85H8DevQM9Yzo5P9GkNdj%2FoBlvvbzj9MIoNhB0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitn0np1RdZUZe9%2FVHEBTcIICfWXDX4SPPEeocOHpvgxVvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6KWw9ABouRcNrYOKIezQZPmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZzdcsaYKpy6A%2FG%2BZ4ykg7LZw9%2FDMX2S1ZzF2txO07wpRk3BpClMWb%2Fg055zwKxCJB2iICY3DPD%2BxxtZjS3TE2X%2B35hxbGy7jpD%2F9K4wohthhrINAkPXsTQRyO1QZEOoKViA3%2FU2AzguC84AnoS7Lq%2BbLNZeWhH46EzPek5MO%2Foq6cwIbX0wJtROn9nSj7K4H3V3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=22542989885&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 T21MX9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=tUa6TcG44jBx186eGRh2Of%2F%2F%2Fw%3D%3DsNBmSAc%2FXxdU2O1TzK%2FrH5qttdcIaPbINnVL%2Bk62oUm1Xa4YJ85H8DevQM9Yzo5P9ClrqKik7ksitMyoiomCf1EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivZ%2B9lBZ2qjtKH7E6Sxj06x%2Fc2%2B%2FgMbZYOFRItzYveAkvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6t%2Fr%2FuoAWmPdw27bWM7crqmovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhzraJf0c9Yk4t25OVp9hx15w9%2FDMX2S1ZzF2txO07wpTfDomW6hDdnUgmQfY9NHWUzhW4ATNeHpR4SJdEbQK5L7ih4uIMkWBFL5ci4KACTXPcqJbMNt2x2nLysF%2FiRLBj%2BgtF15PMkmjkNDmi88yMRQrkOTIDA3w%2BUx%2FAUA4Ak8J4TIbBgkX0m6o%2Fv0m%2B6wTny1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37426295619&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=btRvIl%2FXTKMJlgZH8kNO3v%2F%2F%2Fw%3D%3DsdQCMuRNwbI2vrNL3zcRFeaPthynjju53CByf51nEQsVXa4YJ85H8DevQM9Yzo5P96dOw9pgJ5GzNzc2CjXLTtkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivy3OdzgvHMQIadAt3cxmR9624DM8JzhsRDZWvzc7RqdvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6ozMMjKY2cxLU6zNPH7qw0movNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZQaBFk6hXOJaEAdLSXZZbAJw9%2FDMX2S1ZzF2txO07wpQwV1xXa46vXwFK%2BkCh5sV%2BKAP03KFoUB84SnL3ihBtgTslwtPEvt1R2UpyG%2BwQAMV5LFd3PfqySEIXCHVpBJ0Iw5zHR6KEZMYanLJurJe2NE%2Fg8w8cKe509NmMZFQPeJSlRkHNhnYg5p8Z4ga0hjR6xl5OQu4Q7DO%2FZeLixb7N9Eu84OCxpyzbFsVSCaXFHjQGruH08DlKshetxY8KUEZb&amp;nvMid=32485412619&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 그랑데 WF21T6000KW + DV17T8520BW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=q0rnOWrVd6IbqUQ8tjNG1%2F%2F%2F%2Fw%3D%3Dsm0nmrJQRxycVFk2UejuECeEIrNI2dYQZBD1W95crehhXa4YJ85H8DevQM9Yzo5P9R7l1VSbIXqNPggxJv0qqqUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuKkgZvZXf998KAN0Qs2wWIAPXMrr7YeuDJH0i%2FLQUyE%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ69pZxHySvQTEqP7v36HRbdGovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZbv%2BFIHbEjfVKjAn0Pj3QBZw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI9fFAMpwJ4bBePN1LtpjPsvI0fIFRfBZUPaSLRPGc3PKyVTEauU4VfEnGxsX8p0vshj0Ybrsj5XYegCtKNJH8lGJxyHBE3CYnzhPLG%2BOCDMVQkhVSBdrFQu1gFMhNDqORO1VZ2LB%2BKENk7lH79DJ7neR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=31231120620&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 FR9WP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=GYs0O51TzOrJW4kfipcXjP%2F%2F%2Fw%3D%3Ds1GYZcOKRWUVg3nxL%2FrBkP8cnDstaogdW1ZhEdEk17lZXa4YJ85H8DevQM9Yzo5P9XSSLfQvBeJvwO85TCWbV2EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivVFKlmh03A0F5UPNBxZGw4KpBMMlpzp%2ByTUdQNPsTKBfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Ew3wytf5VZLh3g61K7bXd2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZUMkh3XrZ7M6ahstDdttspJw9%2FDMX2S1ZzF2txO07wpRlhA7wazaXKvd1zKwGNcO1h82bo6KWdmysk3%2Fp%2F4UcbeDUEcyyLve7s0pTOIWS8DUi7Nsv4NLqm0cqqfBVeRmbv4YGjJCSIW1IvBxXT1wG93NHaYB3tmsP%2BKuNJ2ggj922i9KiG5aKCgjUFmFVZ03hhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=35828081620&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F24WDWP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LL8PolU8M1ydyuBS2bXTa%2F%2F%2F%2Fw%3D%3DsP8AfUNJEepfPVsB%2BxF5gecj2zjSjYAbrD2LesNVis1ZXa4YJ85H8DevQM9Yzo5P9z4FlC2u3Wicq1P9x5P%2BR%2FUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisCAgROypHxe3E3Vix8rmAVu%2Bnk5I4ht%2FDE8cQVjvcmWfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6l%2FyTvaaXjgGEpJ2WozIYsGovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ4Jk9j%2F1nt0IILlcPy81kU5w9%2FDMX2S1ZzF2txO07wpSbNxl0gqVJ77B6xeKF6Vt%2B5gp%2B6h%2FA%2BU%2BmQfK31kpnFcIYo9dKleUVMucTGTAwoKWmnRblhYJjDyT5uGdvWlItjr%2Fvhuz%2FM2bOeEg7k3nONW8FkhIqbM9YhhMa9exTVFN7FyCZHygWZNkfq432f91%2BaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=36820811618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F12WVA + RH9WV (F12WVA-9WB)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=CRs3CDCNDFBITUuyWFOvz%2F%2F%2F%2Fw%3D%3DsKO6zPM9aEdU1fuMs8Ryb1OcfnSzzGiWi3%2BVlDcxohEPdpgAIic16NITt4jHu2Ti7F82Jm%2F8Z8JxsScP8%2FLVBhh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLUhDoMHSoisDDNIbJRaVtbPQelS61jyUrFgo%2BcBQOb%2FhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9OfXFC%2B6g30yndC4ddfh7%2BSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne7HY7Wnls457QSiisB1jPvqAhfbmRc6T9Q91MqoVII6qAeoDwkUxP3PQYWJpMAX6a1%2Fkkvn3W8tI1viG3OnvsdleYmx488oEuLTMqHS8EsPdiZi38xGzWp2N2nfq92jyFIaxr7rFC24map1hSSxEgBlE3riYGb0bxCu4GQsNwdPqpBS6hpYmo38QpNry10COh8AYcxHGOR6zXH1TqATz6%2FVrJefoOJbmkO4BD9YMbmM0NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=32291646618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
     <x:t>LG전자 워시콤보 FH25EAE + FX4EC (FH25EAEX)</x:t>
   </x:si>
   <x:si>
@@ -795,33 +870,12 @@
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=5OcHBbPCM6kMpJe9aE7dhf%2F%2F%2Fw%3D%3Ds756Y23MhQnynw1LD8Gt6mOGQTE0Rm9ig2xoZJBBi4v5v3IvWzocaL23pIgghihKfCcnO1DRV%2FB749benGjeCDoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7VH9oTzv6yhUlgRKLb8VfvHIvUYzN7UHQZVMCDcmuHRW7QsxecIzKaIypeTbPnOVp3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwEGvQHqfp8w8EMEflHDjrneSmstIe9JBj%2Fw4c4Jw7tQ0jTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4V42qBGuqSAML03ZTSTSdfBCMOBZv9Al17ik98%2FmzZpM0qNGnYP2mQGFwl2o9AJeRMe2CcFAEsgc8VkzCHR9iyensxNKI95s7esGYFKchSfEgtK%2FlJjOKzlJV2IEBfprxFNDoclNMmHXPioJ31kdtC84Czte%2BPFbDrtE%2B%2B0qbtYzs4VuAEzXh6UeEiXRG0CuS9l%2F%2FHAlSVPIP7kapiv4CIQw0s7DbbGxJwPGOsxDUvwMY6%2F74bs%2FzNmznhIO5N5zjVOjRF9k1hXzlz50qBhsvXprsx1Kd2ulY96gNvv%2FZKlkWhopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=31368381619&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
-    <x:t>LG전자 통돌이 TR12BL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0p4cNZUH7o0UsJiDQ%2BgBpP%2F%2F%2Fw%3D%3Ds3mX7Menh7c1Zcyv6u5Whz2ySttQE46Vix5v7sU%2BbJ%2BVTWY5MvHExC5BUTXXjdBTunSLeIFVBWm6xoS9QMpjwT9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI1e1RjHsadSr9rnPrDfvOANermimP%2BydvNlILo7HRzwf7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7ch53d25SgXT%2FnNUwEFovCjokh7KNEkkbwBBKOUFOEEqPBhgRTtSCdX9kFf3f6MNHPjOuGMcCSK%2FQC45v5lGJHiI28QDIftdPo5sZ73mZF1Sr29wu8nIVan3cBfMevnhp8Bp8G3Tytu%2FBbutZxf1MGJMIAhJx3PvAk%2BpVoL9jUmbxHQrddB8OaS3mjVXFsPlpyt7L2FlUds1GUFicxtQOguzlDayFf3PmCtbUdXPVcyExr6wczoAqd3ZFcGt592S6gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=21126513760&amp;catId=50002343</x:t>
-  </x:si>
-  <x:si>
     <x:t>LG전자 통돌이 T18MX7A</x:t>
   </x:si>
   <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=boFJ0w5d5Lmse8smPxyZ0%2F%2F%2F%2Fw%3D%3DsacAeHwtNmyhQ1xVRaVsIjT1yyeHyhqOqHxC2lzxczuVXa4YJ85H8DevQM9Yzo5P9J%2BKu8bR5vyt%2BpgMOmUpt4UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisCAgROypHxe3E3Vix8rmAVSEKhFCa9yOAg%2FnrUGF%2BuTvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ67Fx8Dd7StM4c2N8tKhr35WovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhkrJjtkIlE%2BD5Boko1Swimpw9%2FDMX2S1ZzF2txO07wpTQlP5Q8WllscNF3wegj9I65gp%2B6h%2FA%2BU%2BmQfK31kpnFfEA%2BjanfFwi84KJevrVW5BUDzqUlJyP99T2t8EWD0VIjr%2Fvhuz%2FM2bOeEg7k3nONVhcFrWGjZmeVYSi0RR5e6zPS0Lg%2FK7mGoNCMzx1QibcaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=36820698620&amp;catId=50002343</x:t>
   </x:si>
   <x:si>
-    <x:t>LG전자 트롬 F9WPBY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0QvwPwlN0JnGC0Q2AUnCvv%2F%2F%2Fw%3D%3Ds23ENcohdErpc5qg8TNWxe1obS0EZFhGskTIPBg2DWzJXa4YJ85H8DevQM9Yzo5P9LEGLZI2D9bLs5%2FigKgT1xEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit65oOaOxyxAhuQBNKe4Z3R0BFkq%2Ft93zSCVNVPTRTq9%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ619Oy%2BHEG8o8zpOMgzMUVP2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZSg0G49vA8jLnBtxXlS0k6pw9%2FDMX2S1ZzF2txO07wpQeIborIFQiODmpwAxFbWxXzhW4ATNeHpR4SJdEbQK5L9zAOYWuVxOIDPm0uU0aR5Gg3b4f9AIvV%2FZl2jffbn87%2BgtF15PMkmjkNDmi88yMRcjzOYX1hvdtnBuLGLZp95rt7ec0Ppq1ZYVYPod8RK5uy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=35481308618&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 트롬 F9WKBY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vnwc2UReoo8%2BRWFpFXT7XP%2F%2F%2Fw%3D%3Dsd3qFTmCoBW4sAT8h5e1gS8NM%2Bd54mDJVSxAZ23i9T7Nv3IvWzocaL23pIgghihKfur9y7gz0b%2BIN%2Ft7RWuWDjoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7VH9oTzv6yhUlgRKLb8VfvHIvUYzN7UHQZVMCDcmuHRW7QsxecIzKaIypeTbPnOVp3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwGkwJwM4W%2FmeNhcOsIjfbv7JlqSttCu91Gdc%2FMCqPYbMDTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4X%2Fv72cOEwkXil3DkFpWLjcR4oB3lAVqlRaF9TUIkYZpUqNGnYP2mQGFwl2o9AJeRPO7X%2B7%2FLr1GZI1uNifps79fvV3ZcEXzfOfKxbVYjFxIgtK%2FlJjOKzlJV2IEBfprxGzyW0E2NsjKg%2BQu7T25Xb6J%2F%2FzoRMrlezL65KYSbBLwiFF15pCZ0Fx1rh9qVaTO8VP4PMPHCnudPTZjGRUD3iUqVyVhz8IKqGUlT%2Bzpc50NU4yAADaBxd6vPOf1PpRJUEu6T5S2%2BK16DXItYmBr8l0Bq7h9PA5SrIXrcWPClBGWw%3D%3D&amp;nvMid=20914901839&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 오브제컬렉션 FX24ENE + RD20GNG (FX24ENE-GNG)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iBwRmeHQucthMG%2Bzvq3c6P%2F%2F%2Fw%3D%3Ds93YA1qGXKX0swyBmEyjm08beHDK7NxlRGlhFEG2D0h9Xa4YJ85H8DevQM9Yzo5P9kiCOGzJ%2FSjeHA2cS69x8mUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis3gQYCIDGzl2Efs%2BZZkEpBY0Mxh2NRenIgLnn7%2Bq1LRfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6QnJzb%2BsKSO17ybtgBDaJgWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZWPQuXcvszsRfkWZZVrO41pw9%2FDMX2S1ZzF2txO07wpTJ7p07eD2jpObLkPTE2hpJtzvlxqpxDgewRB6dbNWWbeJWCRVgXsj5Af5AHLm8GSvaU9WzlLU8ezevedyQmTKhRK9R%2BArccceP81zB8Naj30%2Fg8w8cKe509NmMZFQPeJS943DGipSz2flxAvISei4n8GiKIa%2FQOIdfZv7Jyh%2BCP0VyAw9vI7EfwnzEScDg%2BRkGruH08DlKshetxY8KUEZb&amp;nvMid=38521858618&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
@@ -829,18 +883,6 @@
   </x:si>
   <x:si>
     <x:t>https://cr.shopping.naver.com/adcr.nhn?x=M1SdJHeXNa2InbgB6%2FEnw%2F%2F%2F%2Fw%3D%3DsKXUqbtoM4seMO4CZokdgh%2FQ8um2A66R%2FhhaLyz4GAcBXa4YJ85H8DevQM9Yzo5P9DMRPxsVqLmIef2ZjY3XeiUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiucCECpi5iZAaCiVK%2FPxW2DedjynQh4vTkZM5%2B2%2F76pQ%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6qQ11qkD9iWKsP8XD2%2B8pwWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ0caopwSI5SGKRDWujmxhRJw9%2FDMX2S1ZzF2txO07wpQuc0JUPHVXAaciEQdHMq5ZE1KGhZ6nuVrveldTPgfYwvI0fIFRfBZUPaSLRPGc3PIokk2Hx7SR1OxRe6BpImtD7ZCLtdo2CBxkxTQt6gvDIWJxyHBE3CYnzhPLG%2BOCDMX4f4hTbnmEaj%2F3NFmNtE5XubIKfO2lLu3y631YDeF2BOR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=34643320621&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 비스포크그랑데AI원바디 WF2420HCEEC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TSw01j4JAZuU9F%2BYM6GKLv%2F%2F%2Fw%3D%3DsfkfA%2FPHE%2BynDA0lqyU19vJt9F%2F4Xo%2FwzwmEAZPUIv%2FRXa4YJ85H8DevQM9Yzo5P9imU7Ck9t%2FqOpUtNcSu5oNEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisbqskD3rL0Pthz4VZukkJBgUhmFDs54Vh%2BzK0AMQ648fzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6y101fC%2BkG59A0g7CGTQdkmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZfEDgp2G0wEeghvqbVyssNJw9%2FDMX2S1ZzF2txO07wpRPDftRg5hwRyYYlsoEohe8MNqGdfpivUR%2FkuWV57RAM3tqS71FQ0yR73udmK%2FAWLnjXSxp8kYvJ6rrGP0i5Y%2F9DWrhHEcp0p%2F%2FKKziu53PdH1vrDbFwZHJtZOoeb0rvFWyH09PwBgZ%2BbNULBhHRJpCVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=39766096619&amp;catId=50002344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 통돌이 T18WX7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=54JGy0Bsmh1eg4G5U5fBQf%2F%2F%2Fw%3D%3DsSMtRcR5Z2Ky%2Bh3Yd22WldPL546YD66D%2F80LavRVGBxlXa4YJ85H8DevQM9Yzo5P9WYZQqK9Jbj6cIVR3hjannEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivupatd2G5fyJQxfe1Vu8kyeEg3jXD9IM74lfBf7%2BmgpPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6gAwApBUF2JxcfGdVXfgUlGovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhHDAysY1KbWtSom11GkDpa5w9%2FDMX2S1ZzF2txO07wpSVrJnBLAA7%2FzviNTlZIZXhzhW4ATNeHpR4SJdEbQK5L2hm%2B8WjTO4t3Zv8r1%2Bpab38BibsFuyOkNxuABmQlkaN%2BgtF15PMkmjkNDmi88yMRVUOynZ%2BvegerM2xmDV3yu72qWC2PdOAMyaIbe9TIv8cy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37424382622&amp;catId=50002343</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1216,7 +1258,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>214900</x:v>
+        <x:v>349800</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1227,7 +1269,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>249000</x:v>
+        <x:v>340000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1238,7 +1280,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>349000</x:v>
+        <x:v>339720</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1249,7 +1291,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>329000</x:v>
+        <x:v>232290</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1260,7 +1302,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>289000</x:v>
+        <x:v>224500</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1271,7 +1313,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>279000</x:v>
+        <x:v>499000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1282,7 +1324,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>256370</x:v>
+        <x:v>139000</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1293,7 +1335,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>224500</x:v>
+        <x:v>534990</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1304,7 +1346,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>171980</x:v>
+        <x:v>170000</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1315,7 +1357,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>161890</x:v>
+        <x:v>158590</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1326,7 +1368,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>164880</x:v>
+        <x:v>370040</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1337,7 +1379,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>338590</x:v>
+        <x:v>279990</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1348,7 +1390,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>479000</x:v>
+        <x:v>312760</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1359,7 +1401,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>145900</x:v>
+        <x:v>134000</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1370,7 +1412,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>431520</x:v>
+        <x:v>162330</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1381,7 +1423,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>354180</x:v>
+        <x:v>214360</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1392,7 +1434,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>239000</x:v>
+        <x:v>290020</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1403,7 +1445,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>518660</x:v>
+        <x:v>137480</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1414,7 +1456,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>135930</x:v>
+        <x:v>365360</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1425,7 +1467,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>277770</x:v>
+        <x:v>298116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1436,7 +1478,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>295770</x:v>
+        <x:v>388020</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1447,7 +1489,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>387720</x:v>
+        <x:v>219000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1458,7 +1500,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>339000</x:v>
+        <x:v>288000</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1469,7 +1511,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>308590</x:v>
+        <x:v>299000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1480,7 +1522,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>289000</x:v>
+        <x:v>229000</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1491,7 +1533,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>379000</x:v>
+        <x:v>169000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1502,7 +1544,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>279000</x:v>
+        <x:v>411680</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1513,7 +1555,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>329000</x:v>
+        <x:v>499000</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1524,7 +1566,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>219000</x:v>
+        <x:v>279000</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1535,7 +1577,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>165990</x:v>
+        <x:v>414770</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1546,7 +1588,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>413990</x:v>
+        <x:v>138000</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1557,7 +1599,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>620000</x:v>
+        <x:v>159000</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1568,7 +1610,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>303750</x:v>
+        <x:v>163000</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1579,7 +1621,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>398940</x:v>
+        <x:v>461990</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1590,7 +1632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>129000</x:v>
+        <x:v>299000</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1601,7 +1643,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>159000</x:v>
+        <x:v>205990</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1612,7 +1654,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>137990</x:v>
+        <x:v>286110</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1623,7 +1665,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>279000</x:v>
+        <x:v>289000</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1634,7 +1676,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>231350</x:v>
+        <x:v>554090</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1645,7 +1687,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>279000</x:v>
+        <x:v>294720</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1656,7 +1698,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>229000</x:v>
+        <x:v>288000</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1667,7 +1709,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>299000</x:v>
+        <x:v>1840000</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1678,7 +1720,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>499000</x:v>
+        <x:v>168000</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1689,15 +1731,15 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>350000</x:v>
+        <x:v>229790</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
         <x:v>449910</x:v>
@@ -1705,10 +1747,10 @@
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
         <x:v>159000</x:v>
@@ -1716,10 +1758,10 @@
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>1390000</x:v>
@@ -1727,10 +1769,10 @@
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
         <x:v>89000</x:v>
@@ -1769,486 +1811,486 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2190000</x:v>
+        <x:v>2600000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>2227200</x:v>
+        <x:v>435000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>1418090</x:v>
+        <x:v>469475</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>1700860</x:v>
+        <x:v>1090000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>461180</x:v>
+        <x:v>375600</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>383440</x:v>
+        <x:v>1742180</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>555320</x:v>
+        <x:v>1050390</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>1189450</x:v>
+        <x:v>582714</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1051000</x:v>
+        <x:v>1827240</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>993240</x:v>
+        <x:v>1990000</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>504130</x:v>
+        <x:v>1062000</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>315620</x:v>
+        <x:v>1668744</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>1562694</x:v>
+        <x:v>1144820</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>1990000</x:v>
+        <x:v>1219280</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>1047190</x:v>
+        <x:v>1187050</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>622310</x:v>
+        <x:v>571230</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>2009870</x:v>
+        <x:v>955325</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>1144400</x:v>
+        <x:v>1057740</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>1005082</x:v>
+        <x:v>1013400</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>1129640</x:v>
+        <x:v>525189</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>1792200</x:v>
+        <x:v>1189000</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>1339810</x:v>
+        <x:v>333410</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>575250</x:v>
+        <x:v>65500</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>1644740</x:v>
+        <x:v>48900</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1599200</x:v>
+        <x:v>1176344</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>1913930</x:v>
+        <x:v>509070</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>430970</x:v>
+        <x:v>1492975</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>300480</x:v>
+        <x:v>2489657</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>226650</x:v>
+        <x:v>1507230</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>2448171</x:v>
+        <x:v>2090430</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>1207130</x:v>
+        <x:v>294920</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>1473430</x:v>
+        <x:v>1303390</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>164</x:v>
-      </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>189230</x:v>
+        <x:v>2113740</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>1060790</x:v>
+        <x:v>1178200</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>307820</x:v>
+        <x:v>2088950</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>577350</x:v>
+        <x:v>1420450</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>1553100</x:v>
+        <x:v>1642930</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>1047190</x:v>
+        <x:v>191730</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>363090</x:v>
+        <x:v>1014511</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>808620</x:v>
+        <x:v>2090000</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>451340</x:v>
+        <x:v>322040</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>210000</x:v>
+        <x:v>2252450</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>474090</x:v>
+        <x:v>224000</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>590490</x:v>
+        <x:v>179200</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2284,10 +2326,10 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>188</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>3399000</x:v>
@@ -2295,475 +2337,475 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>2239390</x:v>
+        <x:v>1869000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>596211</x:v>
+        <x:v>599415</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>2118110</x:v>
+        <x:v>2083320</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>732685</x:v>
+        <x:v>3359920</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>350090</x:v>
+        <x:v>433380</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>2269000</x:v>
+        <x:v>359210</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>395650</x:v>
+        <x:v>417620</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>323900</x:v>
+        <x:v>707310</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>430080</x:v>
+        <x:v>332593</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>357970</x:v>
+        <x:v>345310</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>659720</x:v>
+        <x:v>2236350</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>419780</x:v>
+        <x:v>886310</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>712880</x:v>
+        <x:v>626960</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>3463380</x:v>
+        <x:v>698561</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>1001440</x:v>
+        <x:v>541080</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>220</x:v>
-      </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>618980</x:v>
+        <x:v>389560</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>892330</x:v>
+        <x:v>3399000</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>529030</x:v>
+        <x:v>1099000</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>441390</x:v>
+        <x:v>688320</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>1108790</x:v>
+        <x:v>1086610</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>319640</x:v>
+        <x:v>445470</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>2289000</x:v>
+        <x:v>1979000</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>2494000</x:v>
+        <x:v>4167000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1611150</x:v>
+        <x:v>897210</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>1015650</x:v>
+        <x:v>968000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>420230</x:v>
+        <x:v>1979000</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>424990</x:v>
+        <x:v>417230</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>706390</x:v>
+        <x:v>523590</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>2494000</x:v>
+        <x:v>1764060</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>1452380</x:v>
+        <x:v>855960</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>521890</x:v>
+        <x:v>429840</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>889970</x:v>
+        <x:v>1423110</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>1349480</x:v>
+        <x:v>1654820</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>3975780</x:v>
+        <x:v>472050</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>2048300</x:v>
+        <x:v>715200</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>351520</x:v>
+        <x:v>437220</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>540000</x:v>
+        <x:v>1525110</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>447280</x:v>
+        <x:v>4579000</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>439720</x:v>
+        <x:v>2627100</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>2224990</x:v>
+        <x:v>2065840</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>2070680</x:v>
+        <x:v>2348830</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>1925870</x:v>
+        <x:v>509000</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>453150</x:v>
+        <x:v>347520</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2799,13 +2841,24 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>518660</x:v>
+        <x:v>534990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>554090</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2841,241 +2894,241 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2227200</x:v>
+        <x:v>2600000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>1700860</x:v>
+        <x:v>1742180</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>555320</x:v>
+        <x:v>1050390</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>1189450</x:v>
+        <x:v>582714</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>1051000</x:v>
+        <x:v>1827240</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>993240</x:v>
+        <x:v>1062000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>504130</x:v>
+        <x:v>1668744</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>1562694</x:v>
+        <x:v>1144820</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1047190</x:v>
+        <x:v>1219280</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>622310</x:v>
+        <x:v>1187050</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>1144400</x:v>
+        <x:v>571230</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>1129640</x:v>
+        <x:v>1057740</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>1792200</x:v>
+        <x:v>525189</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>1339810</x:v>
+        <x:v>1176344</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>575250</x:v>
+        <x:v>1492975</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>1644740</x:v>
+        <x:v>2489657</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>1599200</x:v>
+        <x:v>2113740</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>1913930</x:v>
+        <x:v>1178200</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>2448171</x:v>
+        <x:v>1420450</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>1207130</x:v>
+        <x:v>1642930</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>1473430</x:v>
+        <x:v>1014511</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>1060790</x:v>
@@ -3083,10 +3136,10 @@
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>1553100</x:v>
@@ -3094,10 +3147,10 @@
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
         <x:v>1047190</x:v>
@@ -3105,10 +3158,10 @@
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
         <x:v>590490</x:v>
@@ -3147,175 +3200,175 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2239390</x:v>
+        <x:v>599415</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>596211</x:v>
+        <x:v>2083320</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>2118110</x:v>
+        <x:v>2236350</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>2269000</x:v>
+        <x:v>886310</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>659720</x:v>
+        <x:v>541080</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>1001440</x:v>
+        <x:v>688320</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>892330</x:v>
+        <x:v>1086610</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>529030</x:v>
+        <x:v>4167000</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>1108790</x:v>
+        <x:v>897210</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>2494000</x:v>
+        <x:v>523590</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>706390</x:v>
+        <x:v>715200</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>2494000</x:v>
+        <x:v>4579000</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>521890</x:v>
+        <x:v>2627100</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>889970</x:v>
+        <x:v>2065840</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>1349480</x:v>
+        <x:v>2348830</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
         <x:v>3975780</x:v>
@@ -3323,10 +3376,10 @@
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
         <x:v>2048300</x:v>
@@ -3334,10 +3387,10 @@
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
         <x:v>540000</x:v>
@@ -3348,7 +3401,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
         <x:v>2224990</x:v>
@@ -3356,10 +3409,10 @@
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
         <x:v>2070680</x:v>
